--- a/MISE_EN_PLACE_SITE/TABLEAUX_EXCEL/PROJET.xlsx
+++ b/MISE_EN_PLACE_SITE/TABLEAUX_EXCEL/PROJET.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EpsiB3\Projets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\STUMPS\MISE_EN_PLACE_SITE\TABLEAUX_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -823,81 +823,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="4" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="4" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -929,10 +854,85 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="46" fontId="3" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="3" fillId="4" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="4" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
@@ -1234,18 +1234,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1279,18 +1279,18 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
       <c r="J3" s="7">
         <v>20</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="74" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="E4" s="1">
         <v>15</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="74" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1">
@@ -1320,14 +1320,14 @@
         <f t="shared" ref="H4:H8" si="0">H5/1.8</f>
         <v>1.8319664323661843E-3</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="75" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="7">
         <f>J3*1.5</f>
         <v>30</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1349,7 +1349,7 @@
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="1">
         <v>1</v>
       </c>
@@ -1357,12 +1357,12 @@
         <f t="shared" si="0"/>
         <v>3.2975395782591319E-3</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="7">
         <f>J4*1.5</f>
         <v>45</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1384,7 +1384,7 @@
         <f t="shared" si="1"/>
         <v>33.75</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -1392,12 +1392,12 @@
         <f t="shared" si="0"/>
         <v>5.9355712408664376E-3</v>
       </c>
-      <c r="I6" s="63"/>
+      <c r="I6" s="75"/>
       <c r="J6" s="7">
         <f t="shared" ref="J6:J11" si="2">J5*1.5</f>
         <v>67.5</v>
       </c>
-      <c r="K6" s="62"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1419,7 +1419,7 @@
         <f t="shared" ref="E7:E23" si="5">E6*1.5</f>
         <v>50.625</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1427,12 +1427,12 @@
         <f t="shared" si="0"/>
         <v>1.0684028233559588E-2</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="75"/>
       <c r="J7" s="7">
         <f t="shared" si="2"/>
         <v>101.25</v>
       </c>
-      <c r="K7" s="62"/>
+      <c r="K7" s="74"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1454,7 +1454,7 @@
         <f t="shared" si="5"/>
         <v>75.9375</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="1">
         <v>3</v>
       </c>
@@ -1462,12 +1462,12 @@
         <f t="shared" si="0"/>
         <v>1.9231250820407258E-2</v>
       </c>
-      <c r="I8" s="63"/>
+      <c r="I8" s="75"/>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
         <v>151.875</v>
       </c>
-      <c r="K8" s="62"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1489,7 +1489,7 @@
         <f t="shared" si="5"/>
         <v>113.90625</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="1">
         <v>3</v>
       </c>
@@ -1497,12 +1497,12 @@
         <f>H10/1.8</f>
         <v>3.4616251476733063E-2</v>
       </c>
-      <c r="I9" s="63"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
         <v>227.8125</v>
       </c>
-      <c r="K9" s="62"/>
+      <c r="K9" s="74"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1524,7 +1524,7 @@
         <f t="shared" si="5"/>
         <v>170.859375</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="1">
         <v>4</v>
       </c>
@@ -1532,12 +1532,12 @@
         <f>H11/1.8</f>
         <v>6.2309252658119513E-2</v>
       </c>
-      <c r="I10" s="63"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="7">
         <f t="shared" si="2"/>
         <v>341.71875</v>
       </c>
-      <c r="K10" s="62"/>
+      <c r="K10" s="74"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1559,7 +1559,7 @@
         <f t="shared" si="5"/>
         <v>256.2890625</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="1">
         <v>4</v>
       </c>
@@ -1567,12 +1567,12 @@
         <f t="shared" ref="H11:H20" si="6">H12/1.2</f>
         <v>0.11215665478461513</v>
       </c>
-      <c r="I11" s="63"/>
+      <c r="I11" s="75"/>
       <c r="J11" s="7">
         <f t="shared" si="2"/>
         <v>512.578125</v>
       </c>
-      <c r="K11" s="62"/>
+      <c r="K11" s="74"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1594,7 +1594,7 @@
         <f t="shared" si="5"/>
         <v>384.43359375</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="1">
         <v>4</v>
       </c>
@@ -1602,14 +1602,14 @@
         <f t="shared" si="6"/>
         <v>0.13458798574153816</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="75" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="7">
         <f>J11*1.5</f>
         <v>768.8671875</v>
       </c>
-      <c r="K12" s="62"/>
+      <c r="K12" s="74"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1631,7 +1631,7 @@
         <f t="shared" si="5"/>
         <v>576.650390625</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="1">
         <v>5</v>
       </c>
@@ -1639,12 +1639,12 @@
         <f t="shared" si="6"/>
         <v>0.16150558288984579</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="75"/>
       <c r="J13" s="7">
         <f>J12*1.5</f>
         <v>1153.30078125</v>
       </c>
-      <c r="K13" s="62"/>
+      <c r="K13" s="74"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1666,7 +1666,7 @@
         <f t="shared" si="5"/>
         <v>864.9755859375</v>
       </c>
-      <c r="F14" s="62"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="1">
         <v>5</v>
       </c>
@@ -1674,12 +1674,12 @@
         <f t="shared" si="6"/>
         <v>0.19380669946781492</v>
       </c>
-      <c r="I14" s="63"/>
+      <c r="I14" s="75"/>
       <c r="J14" s="7">
         <f>J13*1.2</f>
         <v>1383.9609375</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
         <f t="shared" si="5"/>
         <v>1297.46337890625</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -1711,12 +1711,12 @@
         <f t="shared" si="6"/>
         <v>0.2325680393613779</v>
       </c>
-      <c r="I15" s="63"/>
+      <c r="I15" s="75"/>
       <c r="J15" s="7">
         <f>J14*1.2</f>
         <v>1660.753125</v>
       </c>
-      <c r="K15" s="62"/>
+      <c r="K15" s="74"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1738,7 +1738,7 @@
         <f t="shared" si="5"/>
         <v>1946.195068359375</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="1">
         <v>6</v>
       </c>
@@ -1746,12 +1746,12 @@
         <f t="shared" si="6"/>
         <v>0.27908164723365347</v>
       </c>
-      <c r="I16" s="63"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="7">
         <f t="shared" ref="J16:J22" si="7">J15*1.2</f>
         <v>1992.9037499999999</v>
       </c>
-      <c r="K16" s="62"/>
+      <c r="K16" s="74"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1773,7 +1773,7 @@
         <f t="shared" si="5"/>
         <v>2919.2926025390625</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="1">
         <v>6</v>
       </c>
@@ -1781,12 +1781,12 @@
         <f t="shared" si="6"/>
         <v>0.33489797668038418</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="75"/>
       <c r="J17" s="7">
         <f t="shared" si="7"/>
         <v>2391.4845</v>
       </c>
-      <c r="K17" s="62"/>
+      <c r="K17" s="74"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1808,7 +1808,7 @@
         <f t="shared" si="5"/>
         <v>4378.9389038085937</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="1">
         <v>6</v>
       </c>
@@ -1816,12 +1816,12 @@
         <f t="shared" si="6"/>
         <v>0.40187757201646102</v>
       </c>
-      <c r="I18" s="63"/>
+      <c r="I18" s="75"/>
       <c r="J18" s="7">
         <f t="shared" si="7"/>
         <v>2869.7813999999998</v>
       </c>
-      <c r="K18" s="62"/>
+      <c r="K18" s="74"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1843,7 +1843,7 @@
         <f t="shared" si="5"/>
         <v>6568.4083557128906</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="1">
         <v>7</v>
       </c>
@@ -1851,12 +1851,12 @@
         <f t="shared" si="6"/>
         <v>0.48225308641975323</v>
       </c>
-      <c r="I19" s="63"/>
+      <c r="I19" s="75"/>
       <c r="J19" s="7">
         <f t="shared" si="7"/>
         <v>3443.7376799999997</v>
       </c>
-      <c r="K19" s="62"/>
+      <c r="K19" s="74"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1878,7 +1878,7 @@
         <f t="shared" si="5"/>
         <v>9852.6125335693359</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="1">
         <v>7</v>
       </c>
@@ -1886,12 +1886,12 @@
         <f t="shared" si="6"/>
         <v>0.57870370370370383</v>
       </c>
-      <c r="I20" s="63"/>
+      <c r="I20" s="75"/>
       <c r="J20" s="7">
         <f t="shared" si="7"/>
         <v>4132.4852159999991</v>
       </c>
-      <c r="K20" s="62"/>
+      <c r="K20" s="74"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1913,7 +1913,7 @@
         <f t="shared" si="5"/>
         <v>14778.918800354004</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="74"/>
       <c r="G21" s="1">
         <v>7</v>
       </c>
@@ -1921,12 +1921,12 @@
         <f>H22/1.2</f>
         <v>0.69444444444444453</v>
       </c>
-      <c r="I21" s="63"/>
+      <c r="I21" s="75"/>
       <c r="J21" s="7">
         <f t="shared" si="7"/>
         <v>4958.9822591999991</v>
       </c>
-      <c r="K21" s="62"/>
+      <c r="K21" s="74"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1948,7 +1948,7 @@
         <f t="shared" si="5"/>
         <v>22168.378200531006</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="1">
         <v>8</v>
       </c>
@@ -1956,12 +1956,12 @@
         <f>H23/1.2</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="I22" s="63"/>
+      <c r="I22" s="75"/>
       <c r="J22" s="7">
         <f t="shared" si="7"/>
         <v>5950.7787110399986</v>
       </c>
-      <c r="K22" s="62"/>
+      <c r="K22" s="74"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1983,19 +1983,19 @@
         <f t="shared" si="5"/>
         <v>33252.567300796509</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="74"/>
       <c r="G23" s="1">
         <v>8</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="63"/>
+      <c r="I23" s="75"/>
       <c r="J23" s="7">
         <f>J22*1.2</f>
         <v>7140.9344532479981</v>
       </c>
-      <c r="K23" s="62"/>
+      <c r="K23" s="74"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -2037,7 +2037,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,7 +2157,7 @@
       <c r="B10" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="71" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2227,18 +2227,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
       <c r="K1" s="52"/>
       <c r="L1" s="52"/>
       <c r="M1" s="52"/>
@@ -2252,18 +2252,18 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -2301,14 +2301,14 @@
       <c r="A4" s="19">
         <v>0</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -2327,7 +2327,7 @@
       <c r="E5" s="13">
         <v>30</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="83" t="s">
         <v>95</v>
       </c>
       <c r="G5" s="13">
@@ -2336,7 +2336,7 @@
       <c r="H5" s="15">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="79" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="1">
@@ -2364,7 +2364,7 @@
         <f>E5*2</f>
         <v>60</v>
       </c>
-      <c r="F6" s="82"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="13">
         <v>2</v>
       </c>
@@ -2372,7 +2372,7 @@
         <f>H5*1.3</f>
         <v>7.6736111111111111E-3</v>
       </c>
-      <c r="I6" s="77"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2398,7 +2398,7 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="83" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="13">
@@ -2408,7 +2408,7 @@
         <f t="shared" ref="H7:H12" si="2">H6*1.3</f>
         <v>9.975694444444445E-3</v>
       </c>
-      <c r="I7" s="77"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2434,7 +2434,7 @@
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="F8" s="80"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="13">
         <v>2</v>
       </c>
@@ -2442,7 +2442,7 @@
         <f t="shared" si="2"/>
         <v>1.2968402777777778E-2</v>
       </c>
-      <c r="I8" s="77"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2468,7 +2468,7 @@
         <f t="shared" si="1"/>
         <v>202.5</v>
       </c>
-      <c r="F9" s="80"/>
+      <c r="F9" s="84"/>
       <c r="G9" s="13">
         <v>2</v>
       </c>
@@ -2476,7 +2476,7 @@
         <f t="shared" si="2"/>
         <v>1.6858923611111111E-2</v>
       </c>
-      <c r="I9" s="77"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2502,7 +2502,7 @@
         <f t="shared" si="1"/>
         <v>303.75</v>
       </c>
-      <c r="F10" s="80"/>
+      <c r="F10" s="84"/>
       <c r="G10" s="13">
         <v>2</v>
       </c>
@@ -2510,7 +2510,7 @@
         <f t="shared" si="2"/>
         <v>2.1916600694444444E-2</v>
       </c>
-      <c r="I10" s="77"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2536,7 +2536,7 @@
         <f t="shared" si="1"/>
         <v>455.625</v>
       </c>
-      <c r="F11" s="80"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="13">
         <v>2</v>
       </c>
@@ -2544,7 +2544,7 @@
         <f t="shared" si="2"/>
         <v>2.8491580902777779E-2</v>
       </c>
-      <c r="I11" s="77"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -2570,7 +2570,7 @@
         <f t="shared" si="1"/>
         <v>683.4375</v>
       </c>
-      <c r="F12" s="80"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="13">
         <v>2</v>
       </c>
@@ -2578,7 +2578,7 @@
         <f t="shared" si="2"/>
         <v>3.7039055173611113E-2</v>
       </c>
-      <c r="I12" s="77"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -2604,7 +2604,7 @@
         <f t="shared" si="1"/>
         <v>1025.15625</v>
       </c>
-      <c r="F13" s="80"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="13">
         <v>2</v>
       </c>
@@ -2612,7 +2612,7 @@
         <f>H12*1.3</f>
         <v>4.8150771725694451E-2</v>
       </c>
-      <c r="I13" s="77"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -2638,7 +2638,7 @@
         <f t="shared" si="1"/>
         <v>1537.734375</v>
       </c>
-      <c r="F14" s="80"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="13">
         <v>2</v>
       </c>
@@ -2646,7 +2646,7 @@
         <f t="shared" ref="H14:H24" si="3">H13*1.3</f>
         <v>6.2596003243402795E-2</v>
       </c>
-      <c r="I14" s="77"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -2672,7 +2672,7 @@
         <f t="shared" si="1"/>
         <v>2306.6015625</v>
       </c>
-      <c r="F15" s="80"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="13">
         <v>2</v>
       </c>
@@ -2680,7 +2680,7 @@
         <f t="shared" si="3"/>
         <v>8.1374804216423638E-2</v>
       </c>
-      <c r="I15" s="77"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -2706,7 +2706,7 @@
         <f t="shared" si="1"/>
         <v>3459.90234375</v>
       </c>
-      <c r="F16" s="80"/>
+      <c r="F16" s="84"/>
       <c r="G16" s="13">
         <v>2</v>
       </c>
@@ -2714,7 +2714,7 @@
         <f t="shared" si="3"/>
         <v>0.10578724548135074</v>
       </c>
-      <c r="I16" s="77"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -2740,7 +2740,7 @@
         <f t="shared" si="1"/>
         <v>5189.853515625</v>
       </c>
-      <c r="F17" s="80"/>
+      <c r="F17" s="84"/>
       <c r="G17" s="13">
         <v>2</v>
       </c>
@@ -2748,7 +2748,7 @@
         <f t="shared" si="3"/>
         <v>0.13752341912575597</v>
       </c>
-      <c r="I17" s="77"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
         <v>130</v>
@@ -2774,7 +2774,7 @@
         <f t="shared" si="1"/>
         <v>7784.7802734375</v>
       </c>
-      <c r="F18" s="80"/>
+      <c r="F18" s="84"/>
       <c r="G18" s="13">
         <v>2</v>
       </c>
@@ -2782,7 +2782,7 @@
         <f t="shared" si="3"/>
         <v>0.17878044486348277</v>
       </c>
-      <c r="I18" s="77"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
         <v>140</v>
@@ -2808,7 +2808,7 @@
         <f t="shared" si="1"/>
         <v>11677.17041015625</v>
       </c>
-      <c r="F19" s="80"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="13">
         <v>2</v>
       </c>
@@ -2816,7 +2816,7 @@
         <f t="shared" si="3"/>
         <v>0.2324145783225276</v>
       </c>
-      <c r="I19" s="77"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
         <v>150</v>
@@ -2842,7 +2842,7 @@
         <f t="shared" si="1"/>
         <v>17515.755615234375</v>
       </c>
-      <c r="F20" s="80"/>
+      <c r="F20" s="84"/>
       <c r="G20" s="13">
         <v>2</v>
       </c>
@@ -2850,7 +2850,7 @@
         <f t="shared" si="3"/>
         <v>0.30213895181928591</v>
       </c>
-      <c r="I20" s="77"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
         <v>160</v>
@@ -2876,7 +2876,7 @@
         <f t="shared" si="1"/>
         <v>26273.633422851563</v>
       </c>
-      <c r="F21" s="80"/>
+      <c r="F21" s="84"/>
       <c r="G21" s="13">
         <v>2</v>
       </c>
@@ -2884,7 +2884,7 @@
         <f t="shared" si="3"/>
         <v>0.39278063736507168</v>
       </c>
-      <c r="I21" s="77"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
         <v>170</v>
@@ -2910,7 +2910,7 @@
         <f t="shared" si="4"/>
         <v>39410.450134277344</v>
       </c>
-      <c r="F22" s="80"/>
+      <c r="F22" s="84"/>
       <c r="G22" s="13">
         <v>2</v>
       </c>
@@ -2918,7 +2918,7 @@
         <f t="shared" si="3"/>
         <v>0.51061482857459317</v>
       </c>
-      <c r="I22" s="77"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
         <v>180</v>
@@ -2944,7 +2944,7 @@
         <f t="shared" si="4"/>
         <v>59115.675201416016</v>
       </c>
-      <c r="F23" s="80"/>
+      <c r="F23" s="84"/>
       <c r="G23" s="13">
         <v>2</v>
       </c>
@@ -2952,7 +2952,7 @@
         <f t="shared" si="3"/>
         <v>0.66379927714697118</v>
       </c>
-      <c r="I23" s="77"/>
+      <c r="I23" s="80"/>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
         <v>190</v>
@@ -2978,7 +2978,7 @@
         <f t="shared" si="4"/>
         <v>88673.512802124023</v>
       </c>
-      <c r="F24" s="81"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="13">
         <v>2</v>
       </c>
@@ -2986,7 +2986,7 @@
         <f t="shared" si="3"/>
         <v>0.8629390602910626</v>
       </c>
-      <c r="I24" s="78"/>
+      <c r="I24" s="82"/>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
         <v>200</v>
@@ -3041,34 +3041,34 @@
     <col min="8" max="9" width="11.42578125" style="52"/>
     <col min="10" max="10" width="18.42578125" style="52" customWidth="1"/>
     <col min="11" max="16" width="11.42578125" style="52"/>
-    <col min="17" max="17" width="25.140625" style="95" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" style="70" customWidth="1"/>
     <col min="18" max="18" width="16.5703125" style="52" customWidth="1"/>
     <col min="19" max="16384" width="11.42578125" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="84" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -3104,25 +3104,25 @@
       <c r="K2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="85" t="s">
+      <c r="L2" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="85" t="s">
+      <c r="M2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="85" t="s">
+      <c r="N2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="85" t="s">
+      <c r="O2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="85" t="s">
+      <c r="P2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="86" t="s">
+      <c r="Q2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="85" t="s">
+      <c r="R2" s="60" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3130,19 +3130,19 @@
       <c r="A3" s="19">
         <v>0</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="62" t="s">
         <v>101</v>
       </c>
       <c r="M3" s="57">
@@ -3157,10 +3157,10 @@
       <c r="P3" s="57">
         <v>30</v>
       </c>
-      <c r="Q3" s="88">
+      <c r="Q3" s="63">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="R3" s="89">
+      <c r="R3" s="64">
         <v>0</v>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
       <c r="E4" s="13">
         <v>50</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="91" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="13">
@@ -3189,18 +3189,18 @@
       <c r="H4" s="15">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="93" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="12"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="87"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="62"/>
       <c r="M4" s="57"/>
       <c r="N4" s="57"/>
       <c r="O4" s="57"/>
       <c r="P4" s="57"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="90"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="65"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -3222,7 +3222,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="13">
         <v>2</v>
       </c>
@@ -3230,16 +3230,16 @@
         <f>H4*1.6</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="93"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="87"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="62"/>
       <c r="M5" s="57"/>
       <c r="N5" s="57"/>
       <c r="O5" s="57"/>
       <c r="P5" s="57"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="90"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="65"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -3261,7 +3261,7 @@
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="91"/>
       <c r="G6" s="13">
         <v>3</v>
       </c>
@@ -3269,16 +3269,16 @@
         <f t="shared" ref="H6:H11" si="1">H5*1.6</f>
         <v>1.7777777777777778E-2</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="93"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="87"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="62"/>
       <c r="M6" s="57"/>
       <c r="N6" s="57"/>
       <c r="O6" s="57"/>
       <c r="P6" s="57"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="90"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="65"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -3300,7 +3300,7 @@
         <f t="shared" si="0"/>
         <v>168.75</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="13">
         <v>3</v>
       </c>
@@ -3308,16 +3308,16 @@
         <f t="shared" si="1"/>
         <v>2.8444444444444446E-2</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="93"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="87"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="62"/>
       <c r="M7" s="57"/>
       <c r="N7" s="57"/>
       <c r="O7" s="57"/>
       <c r="P7" s="57"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="90"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="65"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -3339,7 +3339,7 @@
         <f t="shared" si="0"/>
         <v>253.125</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="13">
         <v>4</v>
       </c>
@@ -3347,16 +3347,16 @@
         <f t="shared" si="1"/>
         <v>4.5511111111111113E-2</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="93"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="87"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="62"/>
       <c r="M8" s="57"/>
       <c r="N8" s="57"/>
       <c r="O8" s="57"/>
       <c r="P8" s="57"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="90"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="65"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -3378,7 +3378,7 @@
         <f t="shared" si="0"/>
         <v>379.6875</v>
       </c>
-      <c r="F9" s="72"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="13">
         <v>4</v>
       </c>
@@ -3386,16 +3386,16 @@
         <f t="shared" si="1"/>
         <v>7.2817777777777787E-2</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="93"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="87"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="62"/>
       <c r="M9" s="57"/>
       <c r="N9" s="57"/>
       <c r="O9" s="57"/>
       <c r="P9" s="57"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="90"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="65"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -3417,7 +3417,7 @@
         <f t="shared" si="0"/>
         <v>569.53125</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -3425,16 +3425,16 @@
         <f t="shared" si="1"/>
         <v>0.11650844444444447</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="93"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="87"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="62"/>
       <c r="M10" s="57"/>
       <c r="N10" s="57"/>
       <c r="O10" s="57"/>
       <c r="P10" s="57"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="90"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="65"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -3456,7 +3456,7 @@
         <f t="shared" si="0"/>
         <v>854.296875</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="13">
         <v>5</v>
       </c>
@@ -3464,16 +3464,16 @@
         <f t="shared" si="1"/>
         <v>0.18641351111111115</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="93"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="87"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="62"/>
       <c r="M11" s="57"/>
       <c r="N11" s="57"/>
       <c r="O11" s="57"/>
       <c r="P11" s="57"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="90"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="65"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -3495,7 +3495,7 @@
         <f t="shared" si="0"/>
         <v>1281.4453125</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="13">
         <v>6</v>
       </c>
@@ -3503,18 +3503,18 @@
         <f>H11*1.2</f>
         <v>0.22369621333333337</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="93" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="12"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="87"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="62"/>
       <c r="M12" s="57"/>
       <c r="N12" s="57"/>
       <c r="O12" s="57"/>
       <c r="P12" s="57"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="90"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="65"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -3536,7 +3536,7 @@
         <f t="shared" si="0"/>
         <v>1922.16796875</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="13">
         <v>6</v>
       </c>
@@ -3544,16 +3544,16 @@
         <f t="shared" ref="H13:H23" si="2">H12*1.2</f>
         <v>0.26843545600000002</v>
       </c>
-      <c r="I13" s="74"/>
+      <c r="I13" s="93"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="87"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="62"/>
       <c r="M13" s="57"/>
       <c r="N13" s="57"/>
       <c r="O13" s="57"/>
       <c r="P13" s="57"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="90"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="65"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -3575,7 +3575,7 @@
         <f t="shared" si="0"/>
         <v>2883.251953125</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="13">
         <v>7</v>
       </c>
@@ -3583,16 +3583,16 @@
         <f t="shared" si="2"/>
         <v>0.3221225472</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="93"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="87"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="62"/>
       <c r="M14" s="57"/>
       <c r="N14" s="57"/>
       <c r="O14" s="57"/>
       <c r="P14" s="57"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="90"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="65"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -3614,7 +3614,7 @@
         <f t="shared" si="0"/>
         <v>4324.8779296875</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="13">
         <v>7</v>
       </c>
@@ -3622,16 +3622,16 @@
         <f t="shared" si="2"/>
         <v>0.38654705664</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="93"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="87"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="62"/>
       <c r="M15" s="57"/>
       <c r="N15" s="57"/>
       <c r="O15" s="57"/>
       <c r="P15" s="57"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="90"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="65"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -3653,7 +3653,7 @@
         <f t="shared" si="0"/>
         <v>6487.31689453125</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="91"/>
       <c r="G16" s="13">
         <v>8</v>
       </c>
@@ -3661,16 +3661,16 @@
         <f t="shared" si="2"/>
         <v>0.46385646796799995</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="93"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="87"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="62"/>
       <c r="M16" s="57"/>
       <c r="N16" s="57"/>
       <c r="O16" s="57"/>
       <c r="P16" s="57"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="90"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="65"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -3692,7 +3692,7 @@
         <f t="shared" si="0"/>
         <v>9730.975341796875</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="91"/>
       <c r="G17" s="13">
         <v>8</v>
       </c>
@@ -3700,16 +3700,16 @@
         <f t="shared" si="2"/>
         <v>0.55662776156159988</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="87"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="62"/>
       <c r="M17" s="57"/>
       <c r="N17" s="57"/>
       <c r="O17" s="57"/>
       <c r="P17" s="57"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="90"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="65"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -3731,7 +3731,7 @@
         <f t="shared" si="0"/>
         <v>14596.463012695313</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="91"/>
       <c r="G18" s="13">
         <v>9</v>
       </c>
@@ -3739,16 +3739,16 @@
         <f t="shared" si="2"/>
         <v>0.66795331387391987</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="87"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="62"/>
       <c r="M18" s="57"/>
       <c r="N18" s="57"/>
       <c r="O18" s="57"/>
       <c r="P18" s="57"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="90"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="65"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -3770,7 +3770,7 @@
         <f t="shared" si="0"/>
         <v>21894.694519042969</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="91"/>
       <c r="G19" s="13">
         <v>9</v>
       </c>
@@ -3778,16 +3778,16 @@
         <f t="shared" si="2"/>
         <v>0.8015439766487038</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="93"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="87"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="62"/>
       <c r="M19" s="57"/>
       <c r="N19" s="57"/>
       <c r="O19" s="57"/>
       <c r="P19" s="57"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="90"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="65"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -3809,7 +3809,7 @@
         <f t="shared" si="0"/>
         <v>32842.041778564453</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="13">
         <v>10</v>
       </c>
@@ -3817,16 +3817,16 @@
         <f t="shared" si="2"/>
         <v>0.96185277197844454</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="93"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="87"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="62"/>
       <c r="M20" s="57"/>
       <c r="N20" s="57"/>
       <c r="O20" s="57"/>
       <c r="P20" s="57"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="90"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="65"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -3848,7 +3848,7 @@
         <f t="shared" si="3"/>
         <v>49263.06266784668</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="13">
         <v>10</v>
       </c>
@@ -3856,16 +3856,16 @@
         <f t="shared" si="2"/>
         <v>1.1542233263741335</v>
       </c>
-      <c r="I21" s="74"/>
+      <c r="I21" s="93"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="87"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="62"/>
       <c r="M21" s="57"/>
       <c r="N21" s="57"/>
       <c r="O21" s="57"/>
       <c r="P21" s="57"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="90"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="65"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -3887,7 +3887,7 @@
         <f t="shared" si="3"/>
         <v>73894.59400177002</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="91"/>
       <c r="G22" s="13">
         <v>11</v>
       </c>
@@ -3895,16 +3895,16 @@
         <f t="shared" si="2"/>
         <v>1.3850679916489601</v>
       </c>
-      <c r="I22" s="74"/>
+      <c r="I22" s="93"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="87"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="62"/>
       <c r="M22" s="57"/>
       <c r="N22" s="57"/>
       <c r="O22" s="57"/>
       <c r="P22" s="57"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="90"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="65"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
@@ -3926,7 +3926,7 @@
         <f t="shared" si="3"/>
         <v>110841.89100265503</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="21">
         <v>15</v>
       </c>
@@ -3934,16 +3934,16 @@
         <f t="shared" si="2"/>
         <v>1.662081589978752</v>
       </c>
-      <c r="I23" s="75"/>
+      <c r="I23" s="94"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="94"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="69"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -4006,19 +4006,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -4059,16 +4059,16 @@
       <c r="A3" s="19">
         <v>0</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="88" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4088,7 +4088,7 @@
       <c r="E4" s="13">
         <v>50</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="91" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="13">
@@ -4097,11 +4097,11 @@
       <c r="H4" s="15">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="93" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="12"/>
-      <c r="K4" s="70"/>
+      <c r="K4" s="89"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -4123,7 +4123,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="13">
         <v>2</v>
       </c>
@@ -4131,9 +4131,9 @@
         <f>H4*1.6</f>
         <v>9.4444444444444445E-3</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="93"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="70"/>
+      <c r="K5" s="89"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -4155,7 +4155,7 @@
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="91"/>
       <c r="G6" s="13">
         <v>3</v>
       </c>
@@ -4163,9 +4163,9 @@
         <f t="shared" ref="H6:H11" si="1">H5*1.6</f>
         <v>1.5111111111111112E-2</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="93"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="70"/>
+      <c r="K6" s="89"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -4187,7 +4187,7 @@
         <f t="shared" si="0"/>
         <v>168.75</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="13">
         <v>3</v>
       </c>
@@ -4195,9 +4195,9 @@
         <f t="shared" si="1"/>
         <v>2.4177777777777781E-2</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="93"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="70"/>
+      <c r="K7" s="89"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -4219,7 +4219,7 @@
         <f t="shared" si="0"/>
         <v>253.125</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="13">
         <v>4</v>
       </c>
@@ -4227,9 +4227,9 @@
         <f t="shared" si="1"/>
         <v>3.8684444444444452E-2</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="93"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="70"/>
+      <c r="K8" s="89"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -4251,7 +4251,7 @@
         <f t="shared" si="0"/>
         <v>379.6875</v>
       </c>
-      <c r="F9" s="72"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="13">
         <v>4</v>
       </c>
@@ -4259,9 +4259,9 @@
         <f t="shared" si="1"/>
         <v>6.1895111111111123E-2</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="93"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="70"/>
+      <c r="K9" s="89"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -4283,7 +4283,7 @@
         <f t="shared" si="0"/>
         <v>569.53125</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -4291,9 +4291,9 @@
         <f t="shared" si="1"/>
         <v>9.90321777777778E-2</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="93"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="70"/>
+      <c r="K10" s="89"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -4315,7 +4315,7 @@
         <f t="shared" si="0"/>
         <v>854.296875</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="13">
         <v>5</v>
       </c>
@@ -4323,9 +4323,9 @@
         <f t="shared" si="1"/>
         <v>0.15845148444444448</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="93"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="70"/>
+      <c r="K11" s="89"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -4347,7 +4347,7 @@
         <f t="shared" si="0"/>
         <v>1281.4453125</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="13">
         <v>6</v>
       </c>
@@ -4355,11 +4355,11 @@
         <f>H11*1.2</f>
         <v>0.19014178133333337</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="93" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="12"/>
-      <c r="K12" s="70"/>
+      <c r="K12" s="89"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -4381,7 +4381,7 @@
         <f t="shared" si="0"/>
         <v>1922.16796875</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="13">
         <v>6</v>
       </c>
@@ -4389,9 +4389,9 @@
         <f t="shared" ref="H13:H23" si="2">H12*1.2</f>
         <v>0.22817013760000004</v>
       </c>
-      <c r="I13" s="74"/>
+      <c r="I13" s="93"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="89"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -4413,7 +4413,7 @@
         <f t="shared" si="0"/>
         <v>2883.251953125</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="13">
         <v>7</v>
       </c>
@@ -4421,9 +4421,9 @@
         <f t="shared" si="2"/>
         <v>0.27380416512000005</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="93"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="70"/>
+      <c r="K14" s="89"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -4445,7 +4445,7 @@
         <f t="shared" si="0"/>
         <v>4324.8779296875</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="13">
         <v>7</v>
       </c>
@@ -4453,9 +4453,9 @@
         <f t="shared" si="2"/>
         <v>0.32856499814400003</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="93"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="70"/>
+      <c r="K15" s="89"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -4477,7 +4477,7 @@
         <f t="shared" si="0"/>
         <v>6487.31689453125</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="91"/>
       <c r="G16" s="13">
         <v>8</v>
       </c>
@@ -4485,9 +4485,9 @@
         <f t="shared" si="2"/>
         <v>0.39427799777280004</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="93"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="70"/>
+      <c r="K16" s="89"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -4509,7 +4509,7 @@
         <f t="shared" si="0"/>
         <v>9730.975341796875</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="91"/>
       <c r="G17" s="13">
         <v>8</v>
       </c>
@@ -4517,9 +4517,9 @@
         <f t="shared" si="2"/>
         <v>0.47313359732736004</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="70"/>
+      <c r="K17" s="89"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -4541,7 +4541,7 @@
         <f t="shared" si="0"/>
         <v>14596.463012695313</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="91"/>
       <c r="G18" s="13">
         <v>9</v>
       </c>
@@ -4549,9 +4549,9 @@
         <f t="shared" si="2"/>
         <v>0.56776031679283201</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="70"/>
+      <c r="K18" s="89"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -4573,7 +4573,7 @@
         <f t="shared" si="0"/>
         <v>21894.694519042969</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="91"/>
       <c r="G19" s="13">
         <v>9</v>
       </c>
@@ -4581,9 +4581,9 @@
         <f t="shared" si="2"/>
         <v>0.68131238015139839</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="93"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="70"/>
+      <c r="K19" s="89"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -4605,7 +4605,7 @@
         <f t="shared" si="0"/>
         <v>32842.041778564453</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="13">
         <v>10</v>
       </c>
@@ -4613,9 +4613,9 @@
         <f t="shared" si="2"/>
         <v>0.81757485618167802</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="93"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="70"/>
+      <c r="K20" s="89"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -4637,7 +4637,7 @@
         <f t="shared" si="3"/>
         <v>49263.06266784668</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="13">
         <v>10</v>
       </c>
@@ -4645,9 +4645,9 @@
         <f t="shared" si="2"/>
         <v>0.98108982741801354</v>
       </c>
-      <c r="I21" s="74"/>
+      <c r="I21" s="93"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="70"/>
+      <c r="K21" s="89"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -4669,7 +4669,7 @@
         <f t="shared" si="3"/>
         <v>73894.59400177002</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="91"/>
       <c r="G22" s="13">
         <v>11</v>
       </c>
@@ -4677,9 +4677,9 @@
         <f t="shared" si="2"/>
         <v>1.1773077929016162</v>
       </c>
-      <c r="I22" s="74"/>
+      <c r="I22" s="93"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="70"/>
+      <c r="K22" s="89"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
@@ -4701,7 +4701,7 @@
         <f t="shared" si="3"/>
         <v>110841.89100265503</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="21">
         <v>15</v>
       </c>
@@ -4709,9 +4709,9 @@
         <f t="shared" si="2"/>
         <v>1.4127693514819395</v>
       </c>
-      <c r="I23" s="75"/>
+      <c r="I23" s="94"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="71"/>
+      <c r="K23" s="90"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G24" s="1">
@@ -4772,19 +4772,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -4825,16 +4825,16 @@
       <c r="A3" s="19">
         <v>0</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="88" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
       <c r="E4" s="13">
         <v>50</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="91" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="13">
@@ -4863,13 +4863,13 @@
       <c r="H4" s="15">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="93" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="70"/>
+      <c r="K4" s="89"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -4891,7 +4891,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="13">
         <v>2</v>
       </c>
@@ -4899,9 +4899,9 @@
         <f>H4*1.6</f>
         <v>9.4444444444444445E-3</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="93"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="70"/>
+      <c r="K5" s="89"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -4923,7 +4923,7 @@
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="91"/>
       <c r="G6" s="13">
         <v>3</v>
       </c>
@@ -4931,9 +4931,9 @@
         <f t="shared" ref="H6:H11" si="1">H5*1.6</f>
         <v>1.5111111111111112E-2</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="93"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="70"/>
+      <c r="K6" s="89"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -4955,7 +4955,7 @@
         <f t="shared" si="0"/>
         <v>168.75</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="13">
         <v>3</v>
       </c>
@@ -4963,9 +4963,9 @@
         <f t="shared" si="1"/>
         <v>2.4177777777777781E-2</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="93"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="70"/>
+      <c r="K7" s="89"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -4987,7 +4987,7 @@
         <f t="shared" si="0"/>
         <v>253.125</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="13">
         <v>4</v>
       </c>
@@ -4995,11 +4995,11 @@
         <f t="shared" si="1"/>
         <v>3.8684444444444452E-2</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="93"/>
       <c r="J8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="70"/>
+      <c r="K8" s="89"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -5021,7 +5021,7 @@
         <f t="shared" si="0"/>
         <v>379.6875</v>
       </c>
-      <c r="F9" s="72"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="13">
         <v>4</v>
       </c>
@@ -5029,9 +5029,9 @@
         <f t="shared" si="1"/>
         <v>6.1895111111111123E-2</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="93"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="70"/>
+      <c r="K9" s="89"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -5053,7 +5053,7 @@
         <f t="shared" si="0"/>
         <v>569.53125</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -5061,9 +5061,9 @@
         <f t="shared" si="1"/>
         <v>9.90321777777778E-2</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="93"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="70"/>
+      <c r="K10" s="89"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -5085,7 +5085,7 @@
         <f t="shared" si="0"/>
         <v>854.296875</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="13">
         <v>5</v>
       </c>
@@ -5093,9 +5093,9 @@
         <f t="shared" si="1"/>
         <v>0.15845148444444448</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="93"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="70"/>
+      <c r="K11" s="89"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -5117,7 +5117,7 @@
         <f t="shared" si="0"/>
         <v>1281.4453125</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="13">
         <v>6</v>
       </c>
@@ -5125,11 +5125,11 @@
         <f>H11*1.2</f>
         <v>0.19014178133333337</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="93" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="12"/>
-      <c r="K12" s="70"/>
+      <c r="K12" s="89"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -5151,7 +5151,7 @@
         <f t="shared" si="0"/>
         <v>1922.16796875</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="13">
         <v>6</v>
       </c>
@@ -5159,9 +5159,9 @@
         <f t="shared" ref="H13:H23" si="2">H12*1.2</f>
         <v>0.22817013760000004</v>
       </c>
-      <c r="I13" s="74"/>
+      <c r="I13" s="93"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="89"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -5183,7 +5183,7 @@
         <f t="shared" si="0"/>
         <v>2883.251953125</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="13">
         <v>7</v>
       </c>
@@ -5191,9 +5191,9 @@
         <f t="shared" si="2"/>
         <v>0.27380416512000005</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="93"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="70"/>
+      <c r="K14" s="89"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -5215,7 +5215,7 @@
         <f t="shared" si="0"/>
         <v>4324.8779296875</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="13">
         <v>7</v>
       </c>
@@ -5223,11 +5223,11 @@
         <f t="shared" si="2"/>
         <v>0.32856499814400003</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="93"/>
       <c r="J15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="70"/>
+      <c r="K15" s="89"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -5249,7 +5249,7 @@
         <f t="shared" si="0"/>
         <v>6487.31689453125</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="91"/>
       <c r="G16" s="13">
         <v>8</v>
       </c>
@@ -5257,9 +5257,9 @@
         <f t="shared" si="2"/>
         <v>0.39427799777280004</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="93"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="70"/>
+      <c r="K16" s="89"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -5281,7 +5281,7 @@
         <f t="shared" si="0"/>
         <v>9730.975341796875</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="91"/>
       <c r="G17" s="13">
         <v>8</v>
       </c>
@@ -5289,9 +5289,9 @@
         <f t="shared" si="2"/>
         <v>0.47313359732736004</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="70"/>
+      <c r="K17" s="89"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -5313,7 +5313,7 @@
         <f t="shared" si="0"/>
         <v>14596.463012695313</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="91"/>
       <c r="G18" s="13">
         <v>9</v>
       </c>
@@ -5321,9 +5321,9 @@
         <f t="shared" si="2"/>
         <v>0.56776031679283201</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="70"/>
+      <c r="K18" s="89"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -5345,7 +5345,7 @@
         <f t="shared" si="0"/>
         <v>21894.694519042969</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="91"/>
       <c r="G19" s="13">
         <v>9</v>
       </c>
@@ -5353,9 +5353,9 @@
         <f t="shared" si="2"/>
         <v>0.68131238015139839</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="93"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="70"/>
+      <c r="K19" s="89"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -5377,7 +5377,7 @@
         <f t="shared" si="0"/>
         <v>32842.041778564453</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="13">
         <v>10</v>
       </c>
@@ -5385,11 +5385,11 @@
         <f t="shared" si="2"/>
         <v>0.81757485618167802</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="93"/>
       <c r="J20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="70"/>
+      <c r="K20" s="89"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -5411,7 +5411,7 @@
         <f t="shared" si="3"/>
         <v>49263.06266784668</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="13">
         <v>10</v>
       </c>
@@ -5419,9 +5419,9 @@
         <f t="shared" si="2"/>
         <v>0.98108982741801354</v>
       </c>
-      <c r="I21" s="74"/>
+      <c r="I21" s="93"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="70"/>
+      <c r="K21" s="89"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -5443,7 +5443,7 @@
         <f t="shared" si="3"/>
         <v>73894.59400177002</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="91"/>
       <c r="G22" s="13">
         <v>11</v>
       </c>
@@ -5451,9 +5451,9 @@
         <f t="shared" si="2"/>
         <v>1.1773077929016162</v>
       </c>
-      <c r="I22" s="74"/>
+      <c r="I22" s="93"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="70"/>
+      <c r="K22" s="89"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
@@ -5475,7 +5475,7 @@
         <f t="shared" si="3"/>
         <v>110841.89100265503</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="21">
         <v>15</v>
       </c>
@@ -5483,9 +5483,9 @@
         <f t="shared" si="2"/>
         <v>1.4127693514819395</v>
       </c>
-      <c r="I23" s="75"/>
+      <c r="I23" s="94"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="71"/>
+      <c r="K23" s="90"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G24" s="1">
@@ -5545,19 +5545,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -5598,16 +5598,16 @@
       <c r="A3" s="19">
         <v>0</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="88" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5627,7 +5627,7 @@
       <c r="E4" s="13">
         <v>50</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="91" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="13">
@@ -5636,13 +5636,13 @@
       <c r="H4" s="15">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="93" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="70"/>
+      <c r="K4" s="89"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -5664,7 +5664,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="13">
         <v>2</v>
       </c>
@@ -5672,9 +5672,9 @@
         <f>H4*1.6</f>
         <v>9.4444444444444445E-3</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="93"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="70"/>
+      <c r="K5" s="89"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -5696,7 +5696,7 @@
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="91"/>
       <c r="G6" s="13">
         <v>3</v>
       </c>
@@ -5704,9 +5704,9 @@
         <f t="shared" ref="H6:H11" si="1">H5*1.6</f>
         <v>1.5111111111111112E-2</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="93"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="70"/>
+      <c r="K6" s="89"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -5728,7 +5728,7 @@
         <f t="shared" si="2"/>
         <v>168.75</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="13">
         <v>3</v>
       </c>
@@ -5736,9 +5736,9 @@
         <f t="shared" si="1"/>
         <v>2.4177777777777781E-2</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="93"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="70"/>
+      <c r="K7" s="89"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -5760,7 +5760,7 @@
         <f t="shared" si="2"/>
         <v>253.125</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="13">
         <v>4</v>
       </c>
@@ -5768,11 +5768,11 @@
         <f t="shared" si="1"/>
         <v>3.8684444444444452E-2</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="93"/>
       <c r="J8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="70"/>
+      <c r="K8" s="89"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -5794,7 +5794,7 @@
         <f t="shared" si="2"/>
         <v>379.6875</v>
       </c>
-      <c r="F9" s="72"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="13">
         <v>4</v>
       </c>
@@ -5802,9 +5802,9 @@
         <f t="shared" si="1"/>
         <v>6.1895111111111123E-2</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="93"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="70"/>
+      <c r="K9" s="89"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -5826,7 +5826,7 @@
         <f t="shared" si="2"/>
         <v>569.53125</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -5834,9 +5834,9 @@
         <f t="shared" si="1"/>
         <v>9.90321777777778E-2</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="93"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="70"/>
+      <c r="K10" s="89"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -5858,7 +5858,7 @@
         <f t="shared" si="2"/>
         <v>854.296875</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="13">
         <v>5</v>
       </c>
@@ -5866,9 +5866,9 @@
         <f t="shared" si="1"/>
         <v>0.15845148444444448</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="93"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="70"/>
+      <c r="K11" s="89"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -5890,7 +5890,7 @@
         <f t="shared" si="2"/>
         <v>1281.4453125</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="13">
         <v>6</v>
       </c>
@@ -5898,11 +5898,11 @@
         <f>H11*1.2</f>
         <v>0.19014178133333337</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="93" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="12"/>
-      <c r="K12" s="70"/>
+      <c r="K12" s="89"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -5924,7 +5924,7 @@
         <f t="shared" si="2"/>
         <v>1922.16796875</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="13">
         <v>6</v>
       </c>
@@ -5932,9 +5932,9 @@
         <f t="shared" ref="H13:H23" si="3">H12*1.2</f>
         <v>0.22817013760000004</v>
       </c>
-      <c r="I13" s="74"/>
+      <c r="I13" s="93"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="89"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -5956,7 +5956,7 @@
         <f t="shared" si="2"/>
         <v>2883.251953125</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="13">
         <v>7</v>
       </c>
@@ -5964,9 +5964,9 @@
         <f t="shared" si="3"/>
         <v>0.27380416512000005</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="93"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="70"/>
+      <c r="K14" s="89"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -5988,7 +5988,7 @@
         <f t="shared" si="2"/>
         <v>4324.8779296875</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="13">
         <v>7</v>
       </c>
@@ -5996,11 +5996,11 @@
         <f t="shared" si="3"/>
         <v>0.32856499814400003</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="93"/>
       <c r="J15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="70"/>
+      <c r="K15" s="89"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -6022,7 +6022,7 @@
         <f t="shared" si="2"/>
         <v>6487.31689453125</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="91"/>
       <c r="G16" s="13">
         <v>8</v>
       </c>
@@ -6030,9 +6030,9 @@
         <f t="shared" si="3"/>
         <v>0.39427799777280004</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="93"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="70"/>
+      <c r="K16" s="89"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -6054,7 +6054,7 @@
         <f t="shared" si="2"/>
         <v>9730.975341796875</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="91"/>
       <c r="G17" s="13">
         <v>8</v>
       </c>
@@ -6062,9 +6062,9 @@
         <f t="shared" si="3"/>
         <v>0.47313359732736004</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="70"/>
+      <c r="K17" s="89"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -6086,7 +6086,7 @@
         <f t="shared" si="2"/>
         <v>14596.463012695313</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="91"/>
       <c r="G18" s="13">
         <v>9</v>
       </c>
@@ -6094,9 +6094,9 @@
         <f t="shared" si="3"/>
         <v>0.56776031679283201</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="70"/>
+      <c r="K18" s="89"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -6118,7 +6118,7 @@
         <f t="shared" si="2"/>
         <v>21894.694519042969</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="91"/>
       <c r="G19" s="13">
         <v>9</v>
       </c>
@@ -6126,9 +6126,9 @@
         <f t="shared" si="3"/>
         <v>0.68131238015139839</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="93"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="70"/>
+      <c r="K19" s="89"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -6150,7 +6150,7 @@
         <f t="shared" si="2"/>
         <v>32842.041778564453</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="13">
         <v>10</v>
       </c>
@@ -6158,11 +6158,11 @@
         <f t="shared" si="3"/>
         <v>0.81757485618167802</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="93"/>
       <c r="J20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="70"/>
+      <c r="K20" s="89"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -6184,7 +6184,7 @@
         <f t="shared" si="2"/>
         <v>49263.06266784668</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="13">
         <v>10</v>
       </c>
@@ -6192,9 +6192,9 @@
         <f t="shared" si="3"/>
         <v>0.98108982741801354</v>
       </c>
-      <c r="I21" s="74"/>
+      <c r="I21" s="93"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="70"/>
+      <c r="K21" s="89"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -6216,7 +6216,7 @@
         <f t="shared" si="2"/>
         <v>73894.59400177002</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="91"/>
       <c r="G22" s="13">
         <v>11</v>
       </c>
@@ -6224,9 +6224,9 @@
         <f t="shared" si="3"/>
         <v>1.1773077929016162</v>
       </c>
-      <c r="I22" s="74"/>
+      <c r="I22" s="93"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="70"/>
+      <c r="K22" s="89"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
@@ -6248,7 +6248,7 @@
         <f t="shared" si="2"/>
         <v>110841.89100265503</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="21">
         <v>15</v>
       </c>
@@ -6256,9 +6256,9 @@
         <f t="shared" si="3"/>
         <v>1.4127693514819395</v>
       </c>
-      <c r="I23" s="75"/>
+      <c r="I23" s="94"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="71"/>
+      <c r="K23" s="90"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G24" s="1">
@@ -6310,19 +6310,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -6363,16 +6363,16 @@
       <c r="A3" s="19">
         <v>0</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="88" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6392,7 +6392,7 @@
       <c r="E4" s="13">
         <v>50</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="91" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="13">
@@ -6401,13 +6401,13 @@
       <c r="H4" s="15">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="93" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="70"/>
+      <c r="K4" s="89"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -6429,7 +6429,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="13">
         <v>2</v>
       </c>
@@ -6437,9 +6437,9 @@
         <f>H4*1.6</f>
         <v>9.4444444444444445E-3</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="93"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="70"/>
+      <c r="K5" s="89"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -6461,7 +6461,7 @@
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="91"/>
       <c r="G6" s="13">
         <v>3</v>
       </c>
@@ -6469,9 +6469,9 @@
         <f t="shared" ref="H6:H11" si="1">H5*1.6</f>
         <v>1.5111111111111112E-2</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="93"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="70"/>
+      <c r="K6" s="89"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -6493,7 +6493,7 @@
         <f t="shared" si="0"/>
         <v>168.75</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="13">
         <v>3</v>
       </c>
@@ -6501,9 +6501,9 @@
         <f t="shared" si="1"/>
         <v>2.4177777777777781E-2</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="93"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="70"/>
+      <c r="K7" s="89"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -6525,7 +6525,7 @@
         <f t="shared" si="0"/>
         <v>253.125</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="13">
         <v>4</v>
       </c>
@@ -6533,11 +6533,11 @@
         <f t="shared" si="1"/>
         <v>3.8684444444444452E-2</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="93"/>
       <c r="J8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="70"/>
+      <c r="K8" s="89"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -6559,7 +6559,7 @@
         <f t="shared" si="0"/>
         <v>379.6875</v>
       </c>
-      <c r="F9" s="72"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="13">
         <v>4</v>
       </c>
@@ -6567,9 +6567,9 @@
         <f t="shared" si="1"/>
         <v>6.1895111111111123E-2</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="93"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="70"/>
+      <c r="K9" s="89"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -6591,7 +6591,7 @@
         <f t="shared" si="0"/>
         <v>569.53125</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -6599,9 +6599,9 @@
         <f t="shared" si="1"/>
         <v>9.90321777777778E-2</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="93"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="70"/>
+      <c r="K10" s="89"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -6623,7 +6623,7 @@
         <f t="shared" si="0"/>
         <v>854.296875</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="13">
         <v>5</v>
       </c>
@@ -6631,9 +6631,9 @@
         <f t="shared" si="1"/>
         <v>0.15845148444444448</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="93"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="70"/>
+      <c r="K11" s="89"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -6655,7 +6655,7 @@
         <f t="shared" si="0"/>
         <v>1281.4453125</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="13">
         <v>6</v>
       </c>
@@ -6663,11 +6663,11 @@
         <f>H11*1.2</f>
         <v>0.19014178133333337</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="93" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="12"/>
-      <c r="K12" s="70"/>
+      <c r="K12" s="89"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -6689,7 +6689,7 @@
         <f t="shared" si="0"/>
         <v>1922.16796875</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="13">
         <v>6</v>
       </c>
@@ -6697,9 +6697,9 @@
         <f t="shared" ref="H13:H23" si="2">H12*1.2</f>
         <v>0.22817013760000004</v>
       </c>
-      <c r="I13" s="74"/>
+      <c r="I13" s="93"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="89"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -6721,7 +6721,7 @@
         <f t="shared" si="0"/>
         <v>2883.251953125</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="13">
         <v>7</v>
       </c>
@@ -6729,9 +6729,9 @@
         <f t="shared" si="2"/>
         <v>0.27380416512000005</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="93"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="70"/>
+      <c r="K14" s="89"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -6753,7 +6753,7 @@
         <f t="shared" si="0"/>
         <v>4324.8779296875</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="13">
         <v>7</v>
       </c>
@@ -6761,11 +6761,11 @@
         <f t="shared" si="2"/>
         <v>0.32856499814400003</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="93"/>
       <c r="J15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="70"/>
+      <c r="K15" s="89"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -6787,7 +6787,7 @@
         <f t="shared" si="0"/>
         <v>6487.31689453125</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="91"/>
       <c r="G16" s="13">
         <v>8</v>
       </c>
@@ -6795,9 +6795,9 @@
         <f t="shared" si="2"/>
         <v>0.39427799777280004</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="93"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="70"/>
+      <c r="K16" s="89"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -6819,7 +6819,7 @@
         <f t="shared" si="0"/>
         <v>9730.975341796875</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="91"/>
       <c r="G17" s="13">
         <v>8</v>
       </c>
@@ -6827,9 +6827,9 @@
         <f t="shared" si="2"/>
         <v>0.47313359732736004</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="70"/>
+      <c r="K17" s="89"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -6851,7 +6851,7 @@
         <f t="shared" si="0"/>
         <v>14596.463012695313</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="91"/>
       <c r="G18" s="13">
         <v>9</v>
       </c>
@@ -6859,9 +6859,9 @@
         <f t="shared" si="2"/>
         <v>0.56776031679283201</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="70"/>
+      <c r="K18" s="89"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -6883,7 +6883,7 @@
         <f t="shared" si="0"/>
         <v>21894.694519042969</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="91"/>
       <c r="G19" s="13">
         <v>9</v>
       </c>
@@ -6891,9 +6891,9 @@
         <f t="shared" si="2"/>
         <v>0.68131238015139839</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="93"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="70"/>
+      <c r="K19" s="89"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -6915,7 +6915,7 @@
         <f t="shared" si="0"/>
         <v>32842.041778564453</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="13">
         <v>10</v>
       </c>
@@ -6923,11 +6923,11 @@
         <f t="shared" si="2"/>
         <v>0.81757485618167802</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="93"/>
       <c r="J20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="70"/>
+      <c r="K20" s="89"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -6949,7 +6949,7 @@
         <f t="shared" si="3"/>
         <v>49263.06266784668</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="13">
         <v>10</v>
       </c>
@@ -6957,9 +6957,9 @@
         <f t="shared" si="2"/>
         <v>0.98108982741801354</v>
       </c>
-      <c r="I21" s="74"/>
+      <c r="I21" s="93"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="70"/>
+      <c r="K21" s="89"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -6981,7 +6981,7 @@
         <f t="shared" si="3"/>
         <v>73894.59400177002</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="91"/>
       <c r="G22" s="13">
         <v>11</v>
       </c>
@@ -6989,9 +6989,9 @@
         <f t="shared" si="2"/>
         <v>1.1773077929016162</v>
       </c>
-      <c r="I22" s="74"/>
+      <c r="I22" s="93"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="70"/>
+      <c r="K22" s="89"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
@@ -7013,7 +7013,7 @@
         <f t="shared" si="3"/>
         <v>110841.89100265503</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="21">
         <v>15</v>
       </c>
@@ -7021,9 +7021,9 @@
         <f t="shared" si="2"/>
         <v>1.4127693514819395</v>
       </c>
-      <c r="I23" s="75"/>
+      <c r="I23" s="94"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="71"/>
+      <c r="K23" s="90"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -7073,19 +7073,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -7126,18 +7126,18 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
       <c r="J3" s="7">
         <v>500</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="83" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7157,7 +7157,7 @@
       <c r="E4" s="1">
         <v>30</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="74" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1">
@@ -7166,14 +7166,14 @@
       <c r="H4" s="2">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="75" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="7">
         <f>J3*1.4</f>
         <v>700</v>
       </c>
-      <c r="K4" s="80"/>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -7195,7 +7195,7 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
@@ -7203,12 +7203,12 @@
         <f>H4*1.5</f>
         <v>5.208333333333333E-3</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="7">
         <f>J4*1.4</f>
         <v>979.99999999999989</v>
       </c>
-      <c r="K5" s="80"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -7230,7 +7230,7 @@
         <f t="shared" si="0"/>
         <v>67.5</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -7238,12 +7238,12 @@
         <f t="shared" ref="H6:H11" si="1">H5*1.5</f>
         <v>7.8125E-3</v>
       </c>
-      <c r="I6" s="63"/>
+      <c r="I6" s="75"/>
       <c r="J6" s="7">
         <f t="shared" ref="J6:J23" si="2">J5*1.4</f>
         <v>1371.9999999999998</v>
       </c>
-      <c r="K6" s="80"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -7265,7 +7265,7 @@
         <f t="shared" si="3"/>
         <v>101.25</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="1">
         <v>3</v>
       </c>
@@ -7273,12 +7273,12 @@
         <f t="shared" si="1"/>
         <v>1.171875E-2</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="75"/>
       <c r="J7" s="7">
         <f t="shared" si="2"/>
         <v>1920.7999999999995</v>
       </c>
-      <c r="K7" s="80"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -7300,7 +7300,7 @@
         <f t="shared" si="3"/>
         <v>151.875</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="1">
         <v>2</v>
       </c>
@@ -7308,12 +7308,12 @@
         <f t="shared" si="1"/>
         <v>1.7578125E-2</v>
       </c>
-      <c r="I8" s="63"/>
+      <c r="I8" s="75"/>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
         <v>2689.119999999999</v>
       </c>
-      <c r="K8" s="80"/>
+      <c r="K8" s="84"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -7335,7 +7335,7 @@
         <f t="shared" si="3"/>
         <v>227.8125</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="1">
         <v>3</v>
       </c>
@@ -7343,12 +7343,12 @@
         <f t="shared" si="1"/>
         <v>2.63671875E-2</v>
       </c>
-      <c r="I9" s="63"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
         <v>3764.7679999999982</v>
       </c>
-      <c r="K9" s="80"/>
+      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -7370,7 +7370,7 @@
         <f t="shared" si="3"/>
         <v>341.71875</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="1">
         <v>2</v>
       </c>
@@ -7378,12 +7378,12 @@
         <f t="shared" si="1"/>
         <v>3.955078125E-2</v>
       </c>
-      <c r="I10" s="63"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="7">
         <f t="shared" si="2"/>
         <v>5270.6751999999969</v>
       </c>
-      <c r="K10" s="80"/>
+      <c r="K10" s="84"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -7405,7 +7405,7 @@
         <f t="shared" si="3"/>
         <v>512.578125</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="1">
         <v>3</v>
       </c>
@@ -7413,12 +7413,12 @@
         <f t="shared" si="1"/>
         <v>5.9326171875E-2</v>
       </c>
-      <c r="I11" s="63"/>
+      <c r="I11" s="75"/>
       <c r="J11" s="7">
         <f t="shared" si="2"/>
         <v>7378.9452799999954</v>
       </c>
-      <c r="K11" s="80"/>
+      <c r="K11" s="84"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -7440,7 +7440,7 @@
         <f t="shared" si="3"/>
         <v>768.8671875</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="1">
         <v>2</v>
       </c>
@@ -7448,14 +7448,14 @@
         <f>H11*1.3</f>
         <v>7.7124023437500008E-2</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="75" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" si="2"/>
         <v>10330.523391999994</v>
       </c>
-      <c r="K12" s="80"/>
+      <c r="K12" s="84"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -7477,7 +7477,7 @@
         <f t="shared" si="3"/>
         <v>1153.30078125</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="1">
         <v>3</v>
       </c>
@@ -7485,12 +7485,12 @@
         <f t="shared" ref="H13:H23" si="4">H12*1.3</f>
         <v>0.10026123046875002</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="75"/>
       <c r="J13" s="7">
         <f t="shared" si="2"/>
         <v>14462.73274879999</v>
       </c>
-      <c r="K13" s="80"/>
+      <c r="K13" s="84"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -7512,7 +7512,7 @@
         <f t="shared" si="3"/>
         <v>1729.951171875</v>
       </c>
-      <c r="F14" s="62"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -7520,12 +7520,12 @@
         <f t="shared" si="4"/>
         <v>0.13033959960937502</v>
       </c>
-      <c r="I14" s="63"/>
+      <c r="I14" s="75"/>
       <c r="J14" s="7">
         <f t="shared" si="2"/>
         <v>20247.825848319986</v>
       </c>
-      <c r="K14" s="80"/>
+      <c r="K14" s="84"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -7547,7 +7547,7 @@
         <f t="shared" si="3"/>
         <v>2594.9267578125</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="1">
         <v>3</v>
       </c>
@@ -7555,12 +7555,12 @@
         <f t="shared" si="4"/>
         <v>0.16944147949218755</v>
       </c>
-      <c r="I15" s="63"/>
+      <c r="I15" s="75"/>
       <c r="J15" s="7">
         <f t="shared" si="2"/>
         <v>28346.956187647978</v>
       </c>
-      <c r="K15" s="80"/>
+      <c r="K15" s="84"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -7582,7 +7582,7 @@
         <f t="shared" si="3"/>
         <v>3892.39013671875</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="1">
         <v>2</v>
       </c>
@@ -7590,12 +7590,12 @@
         <f t="shared" si="4"/>
         <v>0.22027392333984383</v>
       </c>
-      <c r="I16" s="63"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="7">
         <f t="shared" si="2"/>
         <v>39685.738662707168</v>
       </c>
-      <c r="K16" s="80"/>
+      <c r="K16" s="84"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -7617,7 +7617,7 @@
         <f t="shared" si="3"/>
         <v>5838.585205078125</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="1">
         <v>3</v>
       </c>
@@ -7625,12 +7625,12 @@
         <f t="shared" si="4"/>
         <v>0.28635610034179698</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="75"/>
       <c r="J17" s="7">
         <f t="shared" si="2"/>
         <v>55560.03412779003</v>
       </c>
-      <c r="K17" s="80"/>
+      <c r="K17" s="84"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -7652,7 +7652,7 @@
         <f t="shared" si="3"/>
         <v>8757.8778076171875</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="1">
         <v>2</v>
       </c>
@@ -7660,12 +7660,12 @@
         <f t="shared" si="4"/>
         <v>0.37226293044433612</v>
       </c>
-      <c r="I18" s="63"/>
+      <c r="I18" s="75"/>
       <c r="J18" s="7">
         <f t="shared" si="2"/>
         <v>77784.047778906039</v>
       </c>
-      <c r="K18" s="80"/>
+      <c r="K18" s="84"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -7687,7 +7687,7 @@
         <f t="shared" si="3"/>
         <v>13136.816711425781</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="1">
         <v>3</v>
       </c>
@@ -7695,12 +7695,12 @@
         <f t="shared" si="4"/>
         <v>0.48394180957763694</v>
       </c>
-      <c r="I19" s="63"/>
+      <c r="I19" s="75"/>
       <c r="J19" s="7">
         <f t="shared" si="2"/>
         <v>108897.66689046845</v>
       </c>
-      <c r="K19" s="80"/>
+      <c r="K19" s="84"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -7722,7 +7722,7 @@
         <f t="shared" si="3"/>
         <v>19705.225067138672</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="1">
         <v>2</v>
       </c>
@@ -7730,12 +7730,12 @@
         <f t="shared" si="4"/>
         <v>0.62912435245092801</v>
       </c>
-      <c r="I20" s="63"/>
+      <c r="I20" s="75"/>
       <c r="J20" s="7">
         <f t="shared" si="2"/>
         <v>152456.7336466558</v>
       </c>
-      <c r="K20" s="80"/>
+      <c r="K20" s="84"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -7757,7 +7757,7 @@
         <f t="shared" si="3"/>
         <v>29557.837600708008</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="74"/>
       <c r="G21" s="1">
         <v>3</v>
       </c>
@@ -7765,12 +7765,12 @@
         <f t="shared" si="4"/>
         <v>0.81786165818620649</v>
       </c>
-      <c r="I21" s="63"/>
+      <c r="I21" s="75"/>
       <c r="J21" s="7">
         <f t="shared" si="2"/>
         <v>213439.42710531811</v>
       </c>
-      <c r="K21" s="80"/>
+      <c r="K21" s="84"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -7792,7 +7792,7 @@
         <f t="shared" si="3"/>
         <v>44336.756401062012</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="1">
         <v>2</v>
       </c>
@@ -7800,12 +7800,12 @@
         <f t="shared" si="4"/>
         <v>1.0632201556420684</v>
       </c>
-      <c r="I22" s="63"/>
+      <c r="I22" s="75"/>
       <c r="J22" s="7">
         <f t="shared" si="2"/>
         <v>298815.19794744533</v>
       </c>
-      <c r="K22" s="80"/>
+      <c r="K22" s="84"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -7827,7 +7827,7 @@
         <f t="shared" si="3"/>
         <v>66505.134601593018</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="74"/>
       <c r="G23" s="1">
         <v>3</v>
       </c>
@@ -7835,12 +7835,12 @@
         <f t="shared" si="4"/>
         <v>1.3821862023346889</v>
       </c>
-      <c r="I23" s="63"/>
+      <c r="I23" s="75"/>
       <c r="J23" s="7">
         <f t="shared" si="2"/>
         <v>418341.27712642343</v>
       </c>
-      <c r="K23" s="82"/>
+      <c r="K23" s="95"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -7932,18 +7932,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
       <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7979,18 +7979,18 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
       <c r="J3" s="7">
         <v>20</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="74" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8010,7 +8010,7 @@
       <c r="E4" s="1">
         <v>15</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="74" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1">
@@ -8020,14 +8020,14 @@
         <f t="shared" ref="H4:H8" si="0">H5/1.8</f>
         <v>1.8319664323661843E-3</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="75" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="7">
         <f>J3*1.5</f>
         <v>30</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -8049,7 +8049,7 @@
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="1">
         <v>1</v>
       </c>
@@ -8057,12 +8057,12 @@
         <f t="shared" si="0"/>
         <v>3.2975395782591319E-3</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="7">
         <f>J4*1.5</f>
         <v>45</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -8084,7 +8084,7 @@
         <f t="shared" si="1"/>
         <v>33.75</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -8092,12 +8092,12 @@
         <f t="shared" si="0"/>
         <v>5.9355712408664376E-3</v>
       </c>
-      <c r="I6" s="63"/>
+      <c r="I6" s="75"/>
       <c r="J6" s="7">
         <f t="shared" ref="J6:J11" si="2">J5*1.5</f>
         <v>67.5</v>
       </c>
-      <c r="K6" s="62"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -8119,7 +8119,7 @@
         <f t="shared" si="1"/>
         <v>50.625</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -8127,12 +8127,12 @@
         <f t="shared" si="0"/>
         <v>1.0684028233559588E-2</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="75"/>
       <c r="J7" s="7">
         <f t="shared" si="2"/>
         <v>101.25</v>
       </c>
-      <c r="K7" s="62"/>
+      <c r="K7" s="74"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -8154,7 +8154,7 @@
         <f t="shared" si="1"/>
         <v>75.9375</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="1">
         <v>3</v>
       </c>
@@ -8162,12 +8162,12 @@
         <f t="shared" si="0"/>
         <v>1.9231250820407258E-2</v>
       </c>
-      <c r="I8" s="63"/>
+      <c r="I8" s="75"/>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
         <v>151.875</v>
       </c>
-      <c r="K8" s="62"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -8189,7 +8189,7 @@
         <f t="shared" si="1"/>
         <v>113.90625</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="1">
         <v>3</v>
       </c>
@@ -8197,12 +8197,12 @@
         <f>H10/1.8</f>
         <v>3.4616251476733063E-2</v>
       </c>
-      <c r="I9" s="63"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
         <v>227.8125</v>
       </c>
-      <c r="K9" s="62"/>
+      <c r="K9" s="74"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -8224,7 +8224,7 @@
         <f t="shared" si="1"/>
         <v>170.859375</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="1">
         <v>4</v>
       </c>
@@ -8232,12 +8232,12 @@
         <f>H11/1.8</f>
         <v>6.2309252658119513E-2</v>
       </c>
-      <c r="I10" s="63"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="7">
         <f t="shared" si="2"/>
         <v>341.71875</v>
       </c>
-      <c r="K10" s="62"/>
+      <c r="K10" s="74"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -8259,7 +8259,7 @@
         <f t="shared" si="1"/>
         <v>256.2890625</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="1">
         <v>4</v>
       </c>
@@ -8267,12 +8267,12 @@
         <f t="shared" ref="H11:H20" si="3">H12/1.2</f>
         <v>0.11215665478461513</v>
       </c>
-      <c r="I11" s="63"/>
+      <c r="I11" s="75"/>
       <c r="J11" s="7">
         <f t="shared" si="2"/>
         <v>512.578125</v>
       </c>
-      <c r="K11" s="62"/>
+      <c r="K11" s="74"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -8294,7 +8294,7 @@
         <f t="shared" si="1"/>
         <v>384.43359375</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="1">
         <v>4</v>
       </c>
@@ -8302,14 +8302,14 @@
         <f t="shared" si="3"/>
         <v>0.13458798574153816</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="75" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="7">
         <f>J11*1.5</f>
         <v>768.8671875</v>
       </c>
-      <c r="K12" s="62"/>
+      <c r="K12" s="74"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -8331,7 +8331,7 @@
         <f t="shared" si="1"/>
         <v>576.650390625</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="1">
         <v>5</v>
       </c>
@@ -8339,12 +8339,12 @@
         <f t="shared" si="3"/>
         <v>0.16150558288984579</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="75"/>
       <c r="J13" s="7">
         <f>J12*1.5</f>
         <v>1153.30078125</v>
       </c>
-      <c r="K13" s="62"/>
+      <c r="K13" s="74"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -8366,7 +8366,7 @@
         <f t="shared" si="1"/>
         <v>864.9755859375</v>
       </c>
-      <c r="F14" s="62"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="1">
         <v>5</v>
       </c>
@@ -8374,12 +8374,12 @@
         <f t="shared" si="3"/>
         <v>0.19380669946781492</v>
       </c>
-      <c r="I14" s="63"/>
+      <c r="I14" s="75"/>
       <c r="J14" s="7">
         <f>J13*1.2</f>
         <v>1383.9609375</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
         <f t="shared" si="1"/>
         <v>1297.46337890625</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -8411,12 +8411,12 @@
         <f t="shared" si="3"/>
         <v>0.2325680393613779</v>
       </c>
-      <c r="I15" s="63"/>
+      <c r="I15" s="75"/>
       <c r="J15" s="7">
         <f>J14*1.2</f>
         <v>1660.753125</v>
       </c>
-      <c r="K15" s="62"/>
+      <c r="K15" s="74"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -8438,7 +8438,7 @@
         <f t="shared" si="1"/>
         <v>1946.195068359375</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="1">
         <v>6</v>
       </c>
@@ -8446,12 +8446,12 @@
         <f t="shared" si="3"/>
         <v>0.27908164723365347</v>
       </c>
-      <c r="I16" s="63"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="7">
         <f t="shared" ref="J16:J22" si="4">J15*1.2</f>
         <v>1992.9037499999999</v>
       </c>
-      <c r="K16" s="62"/>
+      <c r="K16" s="74"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -8473,7 +8473,7 @@
         <f t="shared" si="1"/>
         <v>2919.2926025390625</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="1">
         <v>6</v>
       </c>
@@ -8481,12 +8481,12 @@
         <f t="shared" si="3"/>
         <v>0.33489797668038418</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="75"/>
       <c r="J17" s="7">
         <f t="shared" si="4"/>
         <v>2391.4845</v>
       </c>
-      <c r="K17" s="62"/>
+      <c r="K17" s="74"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -8508,7 +8508,7 @@
         <f t="shared" si="1"/>
         <v>4378.9389038085937</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="1">
         <v>6</v>
       </c>
@@ -8516,12 +8516,12 @@
         <f t="shared" si="3"/>
         <v>0.40187757201646102</v>
       </c>
-      <c r="I18" s="63"/>
+      <c r="I18" s="75"/>
       <c r="J18" s="7">
         <f t="shared" si="4"/>
         <v>2869.7813999999998</v>
       </c>
-      <c r="K18" s="62"/>
+      <c r="K18" s="74"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -8543,7 +8543,7 @@
         <f t="shared" si="1"/>
         <v>6568.4083557128906</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="1">
         <v>7</v>
       </c>
@@ -8551,12 +8551,12 @@
         <f t="shared" si="3"/>
         <v>0.48225308641975323</v>
       </c>
-      <c r="I19" s="63"/>
+      <c r="I19" s="75"/>
       <c r="J19" s="7">
         <f t="shared" si="4"/>
         <v>3443.7376799999997</v>
       </c>
-      <c r="K19" s="62"/>
+      <c r="K19" s="74"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -8578,7 +8578,7 @@
         <f t="shared" si="1"/>
         <v>9852.6125335693359</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="1">
         <v>7</v>
       </c>
@@ -8586,12 +8586,12 @@
         <f t="shared" si="3"/>
         <v>0.57870370370370383</v>
       </c>
-      <c r="I20" s="63"/>
+      <c r="I20" s="75"/>
       <c r="J20" s="7">
         <f t="shared" si="4"/>
         <v>4132.4852159999991</v>
       </c>
-      <c r="K20" s="62"/>
+      <c r="K20" s="74"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -8613,7 +8613,7 @@
         <f t="shared" si="5"/>
         <v>14778.918800354004</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="74"/>
       <c r="G21" s="1">
         <v>7</v>
       </c>
@@ -8621,12 +8621,12 @@
         <f>H22/1.2</f>
         <v>0.69444444444444453</v>
       </c>
-      <c r="I21" s="63"/>
+      <c r="I21" s="75"/>
       <c r="J21" s="7">
         <f t="shared" si="4"/>
         <v>4958.9822591999991</v>
       </c>
-      <c r="K21" s="62"/>
+      <c r="K21" s="74"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -8648,7 +8648,7 @@
         <f t="shared" si="5"/>
         <v>22168.378200531006</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="1">
         <v>8</v>
       </c>
@@ -8656,12 +8656,12 @@
         <f>H23/1.2</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="I22" s="63"/>
+      <c r="I22" s="75"/>
       <c r="J22" s="7">
         <f t="shared" si="4"/>
         <v>5950.7787110399986</v>
       </c>
-      <c r="K22" s="62"/>
+      <c r="K22" s="74"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -8683,19 +8683,19 @@
         <f t="shared" si="5"/>
         <v>33252.567300796509</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="74"/>
       <c r="G23" s="1">
         <v>8</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="63"/>
+      <c r="I23" s="75"/>
       <c r="J23" s="7">
         <f>J22*1.2</f>
         <v>7140.9344532479981</v>
       </c>
-      <c r="K23" s="62"/>
+      <c r="K23" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8722,18 +8722,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
       <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8769,18 +8769,18 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
       <c r="J3" s="7">
         <v>20</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="74" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8800,7 +8800,7 @@
       <c r="E4" s="1">
         <v>15</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="74" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1">
@@ -8810,14 +8810,14 @@
         <f t="shared" ref="H4:H8" si="0">H5/1.8</f>
         <v>1.8319664323661843E-3</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="75" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="7">
         <f>J3*1.5</f>
         <v>30</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -8839,7 +8839,7 @@
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="1">
         <v>1</v>
       </c>
@@ -8847,12 +8847,12 @@
         <f t="shared" si="0"/>
         <v>3.2975395782591319E-3</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="7">
         <f>J4*1.5</f>
         <v>45</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -8874,7 +8874,7 @@
         <f t="shared" si="1"/>
         <v>33.75</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -8882,12 +8882,12 @@
         <f t="shared" si="0"/>
         <v>5.9355712408664376E-3</v>
       </c>
-      <c r="I6" s="63"/>
+      <c r="I6" s="75"/>
       <c r="J6" s="7">
         <f t="shared" ref="J6:J11" si="2">J5*1.5</f>
         <v>67.5</v>
       </c>
-      <c r="K6" s="62"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -8909,7 +8909,7 @@
         <f t="shared" si="1"/>
         <v>50.625</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -8917,12 +8917,12 @@
         <f t="shared" si="0"/>
         <v>1.0684028233559588E-2</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="75"/>
       <c r="J7" s="7">
         <f t="shared" si="2"/>
         <v>101.25</v>
       </c>
-      <c r="K7" s="62"/>
+      <c r="K7" s="74"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -8944,7 +8944,7 @@
         <f t="shared" si="1"/>
         <v>75.9375</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="1">
         <v>3</v>
       </c>
@@ -8952,12 +8952,12 @@
         <f t="shared" si="0"/>
         <v>1.9231250820407258E-2</v>
       </c>
-      <c r="I8" s="63"/>
+      <c r="I8" s="75"/>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
         <v>151.875</v>
       </c>
-      <c r="K8" s="62"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -8979,7 +8979,7 @@
         <f t="shared" si="1"/>
         <v>113.90625</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="1">
         <v>3</v>
       </c>
@@ -8987,12 +8987,12 @@
         <f>H10/1.8</f>
         <v>3.4616251476733063E-2</v>
       </c>
-      <c r="I9" s="63"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
         <v>227.8125</v>
       </c>
-      <c r="K9" s="62"/>
+      <c r="K9" s="74"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -9014,7 +9014,7 @@
         <f t="shared" si="1"/>
         <v>170.859375</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="1">
         <v>4</v>
       </c>
@@ -9022,12 +9022,12 @@
         <f>H11/1.8</f>
         <v>6.2309252658119513E-2</v>
       </c>
-      <c r="I10" s="63"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="7">
         <f t="shared" si="2"/>
         <v>341.71875</v>
       </c>
-      <c r="K10" s="62"/>
+      <c r="K10" s="74"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -9049,7 +9049,7 @@
         <f t="shared" si="1"/>
         <v>256.2890625</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="1">
         <v>4</v>
       </c>
@@ -9057,12 +9057,12 @@
         <f t="shared" ref="H11:H20" si="3">H12/1.2</f>
         <v>0.11215665478461513</v>
       </c>
-      <c r="I11" s="63"/>
+      <c r="I11" s="75"/>
       <c r="J11" s="7">
         <f t="shared" si="2"/>
         <v>512.578125</v>
       </c>
-      <c r="K11" s="62"/>
+      <c r="K11" s="74"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -9084,7 +9084,7 @@
         <f t="shared" si="1"/>
         <v>384.43359375</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="1">
         <v>4</v>
       </c>
@@ -9092,14 +9092,14 @@
         <f t="shared" si="3"/>
         <v>0.13458798574153816</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="75" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="7">
         <f>J11*1.5</f>
         <v>768.8671875</v>
       </c>
-      <c r="K12" s="62"/>
+      <c r="K12" s="74"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -9121,7 +9121,7 @@
         <f t="shared" si="1"/>
         <v>576.650390625</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="1">
         <v>5</v>
       </c>
@@ -9129,12 +9129,12 @@
         <f t="shared" si="3"/>
         <v>0.16150558288984579</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="75"/>
       <c r="J13" s="7">
         <f>J12*1.5</f>
         <v>1153.30078125</v>
       </c>
-      <c r="K13" s="62"/>
+      <c r="K13" s="74"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -9156,7 +9156,7 @@
         <f t="shared" si="1"/>
         <v>864.9755859375</v>
       </c>
-      <c r="F14" s="62"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="1">
         <v>5</v>
       </c>
@@ -9164,12 +9164,12 @@
         <f t="shared" si="3"/>
         <v>0.19380669946781492</v>
       </c>
-      <c r="I14" s="63"/>
+      <c r="I14" s="75"/>
       <c r="J14" s="7">
         <f>J13*1.2</f>
         <v>1383.9609375</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9193,7 +9193,7 @@
         <f t="shared" si="1"/>
         <v>1297.46337890625</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -9201,12 +9201,12 @@
         <f t="shared" si="3"/>
         <v>0.2325680393613779</v>
       </c>
-      <c r="I15" s="63"/>
+      <c r="I15" s="75"/>
       <c r="J15" s="7">
         <f>J14*1.2</f>
         <v>1660.753125</v>
       </c>
-      <c r="K15" s="62"/>
+      <c r="K15" s="74"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -9228,7 +9228,7 @@
         <f t="shared" si="1"/>
         <v>1946.195068359375</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="1">
         <v>6</v>
       </c>
@@ -9236,12 +9236,12 @@
         <f t="shared" si="3"/>
         <v>0.27908164723365347</v>
       </c>
-      <c r="I16" s="63"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="7">
         <f t="shared" ref="J16:J22" si="4">J15*1.2</f>
         <v>1992.9037499999999</v>
       </c>
-      <c r="K16" s="62"/>
+      <c r="K16" s="74"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -9263,7 +9263,7 @@
         <f t="shared" si="1"/>
         <v>2919.2926025390625</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="1">
         <v>6</v>
       </c>
@@ -9271,12 +9271,12 @@
         <f t="shared" si="3"/>
         <v>0.33489797668038418</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="75"/>
       <c r="J17" s="7">
         <f t="shared" si="4"/>
         <v>2391.4845</v>
       </c>
-      <c r="K17" s="62"/>
+      <c r="K17" s="74"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -9298,7 +9298,7 @@
         <f t="shared" si="1"/>
         <v>4378.9389038085937</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="1">
         <v>6</v>
       </c>
@@ -9306,12 +9306,12 @@
         <f t="shared" si="3"/>
         <v>0.40187757201646102</v>
       </c>
-      <c r="I18" s="63"/>
+      <c r="I18" s="75"/>
       <c r="J18" s="7">
         <f t="shared" si="4"/>
         <v>2869.7813999999998</v>
       </c>
-      <c r="K18" s="62"/>
+      <c r="K18" s="74"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -9333,7 +9333,7 @@
         <f t="shared" si="1"/>
         <v>6568.4083557128906</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="1">
         <v>7</v>
       </c>
@@ -9341,12 +9341,12 @@
         <f t="shared" si="3"/>
         <v>0.48225308641975323</v>
       </c>
-      <c r="I19" s="63"/>
+      <c r="I19" s="75"/>
       <c r="J19" s="7">
         <f t="shared" si="4"/>
         <v>3443.7376799999997</v>
       </c>
-      <c r="K19" s="62"/>
+      <c r="K19" s="74"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -9368,7 +9368,7 @@
         <f t="shared" si="1"/>
         <v>9852.6125335693359</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="1">
         <v>7</v>
       </c>
@@ -9376,12 +9376,12 @@
         <f t="shared" si="3"/>
         <v>0.57870370370370383</v>
       </c>
-      <c r="I20" s="63"/>
+      <c r="I20" s="75"/>
       <c r="J20" s="7">
         <f t="shared" si="4"/>
         <v>4132.4852159999991</v>
       </c>
-      <c r="K20" s="62"/>
+      <c r="K20" s="74"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -9403,7 +9403,7 @@
         <f t="shared" si="5"/>
         <v>14778.918800354004</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="74"/>
       <c r="G21" s="1">
         <v>7</v>
       </c>
@@ -9411,12 +9411,12 @@
         <f>H22/1.2</f>
         <v>0.69444444444444453</v>
       </c>
-      <c r="I21" s="63"/>
+      <c r="I21" s="75"/>
       <c r="J21" s="7">
         <f t="shared" si="4"/>
         <v>4958.9822591999991</v>
       </c>
-      <c r="K21" s="62"/>
+      <c r="K21" s="74"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -9438,7 +9438,7 @@
         <f t="shared" si="5"/>
         <v>22168.378200531006</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="1">
         <v>8</v>
       </c>
@@ -9446,12 +9446,12 @@
         <f>H23/1.2</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="I22" s="63"/>
+      <c r="I22" s="75"/>
       <c r="J22" s="7">
         <f t="shared" si="4"/>
         <v>5950.7787110399986</v>
       </c>
-      <c r="K22" s="62"/>
+      <c r="K22" s="74"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -9473,19 +9473,19 @@
         <f t="shared" si="5"/>
         <v>33252.567300796509</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="74"/>
       <c r="G23" s="1">
         <v>8</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="63"/>
+      <c r="I23" s="75"/>
       <c r="J23" s="7">
         <f>J22*1.2</f>
         <v>7140.9344532479981</v>
       </c>
-      <c r="K23" s="62"/>
+      <c r="K23" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9515,18 +9515,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -9560,18 +9560,18 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
       <c r="J3" s="7">
         <v>20</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="74" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9591,7 +9591,7 @@
       <c r="E4" s="1">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="74" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1">
@@ -9601,14 +9601,14 @@
         <f t="shared" ref="H4:H8" si="0">H5/1.8</f>
         <v>1.8319664323661843E-3</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="75" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="7">
         <f>J3*1.5</f>
         <v>30</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -9630,7 +9630,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="1">
         <v>1</v>
       </c>
@@ -9638,12 +9638,12 @@
         <f t="shared" si="0"/>
         <v>3.2975395782591319E-3</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="7">
         <f>J4*1.5</f>
         <v>45</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -9665,7 +9665,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -9673,12 +9673,12 @@
         <f t="shared" si="0"/>
         <v>5.9355712408664376E-3</v>
       </c>
-      <c r="I6" s="63"/>
+      <c r="I6" s="75"/>
       <c r="J6" s="7">
         <f t="shared" ref="J6:J11" si="2">J5*1.5</f>
         <v>67.5</v>
       </c>
-      <c r="K6" s="62"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -9700,7 +9700,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -9708,12 +9708,12 @@
         <f t="shared" si="0"/>
         <v>1.0684028233559588E-2</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="75"/>
       <c r="J7" s="7">
         <f t="shared" si="2"/>
         <v>101.25</v>
       </c>
-      <c r="K7" s="62"/>
+      <c r="K7" s="74"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -9735,7 +9735,7 @@
         <f t="shared" si="1"/>
         <v>40.5</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="1">
         <v>3</v>
       </c>
@@ -9743,12 +9743,12 @@
         <f t="shared" si="0"/>
         <v>1.9231250820407258E-2</v>
       </c>
-      <c r="I8" s="63"/>
+      <c r="I8" s="75"/>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
         <v>151.875</v>
       </c>
-      <c r="K8" s="62"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -9770,7 +9770,7 @@
         <f t="shared" si="1"/>
         <v>60.75</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="1">
         <v>3</v>
       </c>
@@ -9778,12 +9778,12 @@
         <f>H10/1.8</f>
         <v>3.4616251476733063E-2</v>
       </c>
-      <c r="I9" s="63"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
         <v>227.8125</v>
       </c>
-      <c r="K9" s="62"/>
+      <c r="K9" s="74"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -9805,7 +9805,7 @@
         <f t="shared" si="1"/>
         <v>91.125</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="1">
         <v>4</v>
       </c>
@@ -9813,12 +9813,12 @@
         <f>H11/1.8</f>
         <v>6.2309252658119513E-2</v>
       </c>
-      <c r="I10" s="63"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="7">
         <f t="shared" si="2"/>
         <v>341.71875</v>
       </c>
-      <c r="K10" s="62"/>
+      <c r="K10" s="74"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -9840,7 +9840,7 @@
         <f t="shared" si="1"/>
         <v>136.6875</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="1">
         <v>4</v>
       </c>
@@ -9848,12 +9848,12 @@
         <f t="shared" ref="H11:H20" si="3">H12/1.2</f>
         <v>0.11215665478461513</v>
       </c>
-      <c r="I11" s="63"/>
+      <c r="I11" s="75"/>
       <c r="J11" s="7">
         <f t="shared" si="2"/>
         <v>512.578125</v>
       </c>
-      <c r="K11" s="62"/>
+      <c r="K11" s="74"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -9875,7 +9875,7 @@
         <f t="shared" si="1"/>
         <v>205.03125</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="1">
         <v>4</v>
       </c>
@@ -9883,14 +9883,14 @@
         <f t="shared" si="3"/>
         <v>0.13458798574153816</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="75" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="7">
         <f>J11*1.5</f>
         <v>768.8671875</v>
       </c>
-      <c r="K12" s="62"/>
+      <c r="K12" s="74"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -9912,7 +9912,7 @@
         <f t="shared" si="1"/>
         <v>307.546875</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="1">
         <v>5</v>
       </c>
@@ -9920,12 +9920,12 @@
         <f t="shared" si="3"/>
         <v>0.16150558288984579</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="75"/>
       <c r="J13" s="7">
         <f>J12*1.5</f>
         <v>1153.30078125</v>
       </c>
-      <c r="K13" s="62"/>
+      <c r="K13" s="74"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -9947,7 +9947,7 @@
         <f t="shared" si="1"/>
         <v>461.3203125</v>
       </c>
-      <c r="F14" s="62"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="1">
         <v>5</v>
       </c>
@@ -9955,12 +9955,12 @@
         <f t="shared" si="3"/>
         <v>0.19380669946781492</v>
       </c>
-      <c r="I14" s="63"/>
+      <c r="I14" s="75"/>
       <c r="J14" s="7">
         <f>J13*1.2</f>
         <v>1383.9609375</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9984,7 +9984,7 @@
         <f t="shared" si="1"/>
         <v>691.98046875</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -9992,12 +9992,12 @@
         <f t="shared" si="3"/>
         <v>0.2325680393613779</v>
       </c>
-      <c r="I15" s="63"/>
+      <c r="I15" s="75"/>
       <c r="J15" s="7">
         <f>J14*1.2</f>
         <v>1660.753125</v>
       </c>
-      <c r="K15" s="62"/>
+      <c r="K15" s="74"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -10019,7 +10019,7 @@
         <f t="shared" si="1"/>
         <v>1037.970703125</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="1">
         <v>6</v>
       </c>
@@ -10027,12 +10027,12 @@
         <f t="shared" si="3"/>
         <v>0.27908164723365347</v>
       </c>
-      <c r="I16" s="63"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="7">
         <f t="shared" ref="J16:J22" si="4">J15*1.2</f>
         <v>1992.9037499999999</v>
       </c>
-      <c r="K16" s="62"/>
+      <c r="K16" s="74"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -10054,7 +10054,7 @@
         <f t="shared" si="1"/>
         <v>1556.9560546875</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="1">
         <v>6</v>
       </c>
@@ -10062,12 +10062,12 @@
         <f t="shared" si="3"/>
         <v>0.33489797668038418</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="75"/>
       <c r="J17" s="7">
         <f t="shared" si="4"/>
         <v>2391.4845</v>
       </c>
-      <c r="K17" s="62"/>
+      <c r="K17" s="74"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -10089,7 +10089,7 @@
         <f t="shared" si="1"/>
         <v>2335.43408203125</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="1">
         <v>6</v>
       </c>
@@ -10097,12 +10097,12 @@
         <f t="shared" si="3"/>
         <v>0.40187757201646102</v>
       </c>
-      <c r="I18" s="63"/>
+      <c r="I18" s="75"/>
       <c r="J18" s="7">
         <f t="shared" si="4"/>
         <v>2869.7813999999998</v>
       </c>
-      <c r="K18" s="62"/>
+      <c r="K18" s="74"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -10124,7 +10124,7 @@
         <f t="shared" si="1"/>
         <v>3503.151123046875</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="1">
         <v>7</v>
       </c>
@@ -10132,12 +10132,12 @@
         <f t="shared" si="3"/>
         <v>0.48225308641975323</v>
       </c>
-      <c r="I19" s="63"/>
+      <c r="I19" s="75"/>
       <c r="J19" s="7">
         <f t="shared" si="4"/>
         <v>3443.7376799999997</v>
       </c>
-      <c r="K19" s="62"/>
+      <c r="K19" s="74"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -10159,7 +10159,7 @@
         <f t="shared" si="1"/>
         <v>5254.7266845703125</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="1">
         <v>7</v>
       </c>
@@ -10167,12 +10167,12 @@
         <f t="shared" si="3"/>
         <v>0.57870370370370383</v>
       </c>
-      <c r="I20" s="63"/>
+      <c r="I20" s="75"/>
       <c r="J20" s="7">
         <f t="shared" si="4"/>
         <v>4132.4852159999991</v>
       </c>
-      <c r="K20" s="62"/>
+      <c r="K20" s="74"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -10194,7 +10194,7 @@
         <f t="shared" si="5"/>
         <v>7882.0900268554687</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="74"/>
       <c r="G21" s="1">
         <v>7</v>
       </c>
@@ -10202,12 +10202,12 @@
         <f>H22/1.2</f>
         <v>0.69444444444444453</v>
       </c>
-      <c r="I21" s="63"/>
+      <c r="I21" s="75"/>
       <c r="J21" s="7">
         <f t="shared" si="4"/>
         <v>4958.9822591999991</v>
       </c>
-      <c r="K21" s="62"/>
+      <c r="K21" s="74"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -10229,7 +10229,7 @@
         <f t="shared" si="5"/>
         <v>11823.135040283203</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="1">
         <v>8</v>
       </c>
@@ -10237,12 +10237,12 @@
         <f>H23/1.2</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="I22" s="63"/>
+      <c r="I22" s="75"/>
       <c r="J22" s="7">
         <f t="shared" si="4"/>
         <v>5950.7787110399986</v>
       </c>
-      <c r="K22" s="62"/>
+      <c r="K22" s="74"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -10264,19 +10264,19 @@
         <f t="shared" si="5"/>
         <v>17734.702560424805</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="74"/>
       <c r="G23" s="1">
         <v>8</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="63"/>
+      <c r="I23" s="75"/>
       <c r="J23" s="7">
         <f>J22*1.2</f>
         <v>7140.9344532479981</v>
       </c>
-      <c r="K23" s="62"/>
+      <c r="K23" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10312,18 +10312,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -10387,7 +10387,7 @@
       <c r="E4" s="13">
         <v>200</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="83" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="13">
@@ -10396,7 +10396,7 @@
       <c r="H4" s="15">
         <v>7.2916666666666659E-3</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="79" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="12" t="s">
@@ -10423,7 +10423,7 @@
         <f>E4*1.5</f>
         <v>300</v>
       </c>
-      <c r="F5" s="80"/>
+      <c r="F5" s="84"/>
       <c r="G5" s="13">
         <v>2</v>
       </c>
@@ -10431,7 +10431,7 @@
         <f>H4*1.6</f>
         <v>1.1666666666666665E-2</v>
       </c>
-      <c r="I5" s="77"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -10454,15 +10454,15 @@
         <f t="shared" ref="E6:E23" si="3">E5*1.5</f>
         <v>450</v>
       </c>
-      <c r="F6" s="80"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="13">
         <v>3</v>
       </c>
       <c r="H6" s="15">
-        <f t="shared" ref="H6:H20" si="4">H5*1.6</f>
+        <f t="shared" ref="H6:H11" si="4">H5*1.6</f>
         <v>1.8666666666666665E-2</v>
       </c>
-      <c r="I6" s="77"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -10485,7 +10485,7 @@
         <f t="shared" si="3"/>
         <v>675</v>
       </c>
-      <c r="F7" s="80"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="13">
         <v>3</v>
       </c>
@@ -10493,7 +10493,7 @@
         <f t="shared" si="4"/>
         <v>2.9866666666666666E-2</v>
       </c>
-      <c r="I7" s="77"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -10516,7 +10516,7 @@
         <f t="shared" si="3"/>
         <v>1012.5</v>
       </c>
-      <c r="F8" s="80"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="13">
         <v>4</v>
       </c>
@@ -10524,7 +10524,7 @@
         <f t="shared" si="4"/>
         <v>4.7786666666666672E-2</v>
       </c>
-      <c r="I8" s="77"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -10547,7 +10547,7 @@
         <f t="shared" si="3"/>
         <v>1518.75</v>
       </c>
-      <c r="F9" s="80"/>
+      <c r="F9" s="84"/>
       <c r="G9" s="13">
         <v>4</v>
       </c>
@@ -10555,7 +10555,7 @@
         <f t="shared" si="4"/>
         <v>7.6458666666666675E-2</v>
       </c>
-      <c r="I9" s="77"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -10578,7 +10578,7 @@
         <f t="shared" si="3"/>
         <v>2278.125</v>
       </c>
-      <c r="F10" s="80"/>
+      <c r="F10" s="84"/>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -10586,7 +10586,7 @@
         <f t="shared" si="4"/>
         <v>0.12233386666666668</v>
       </c>
-      <c r="I10" s="77"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -10609,7 +10609,7 @@
         <f t="shared" si="3"/>
         <v>3417.1875</v>
       </c>
-      <c r="F11" s="80"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="13">
         <v>5</v>
       </c>
@@ -10617,7 +10617,7 @@
         <f t="shared" si="4"/>
         <v>0.1957341866666667</v>
       </c>
-      <c r="I11" s="96"/>
+      <c r="I11" s="81"/>
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -10640,7 +10640,7 @@
         <f t="shared" si="3"/>
         <v>5125.78125</v>
       </c>
-      <c r="F12" s="80"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="13">
         <v>6</v>
       </c>
@@ -10648,7 +10648,7 @@
         <f>H11*1.2</f>
         <v>0.23488102400000002</v>
       </c>
-      <c r="I12" s="76" t="s">
+      <c r="I12" s="79" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="12"/>
@@ -10673,7 +10673,7 @@
         <f t="shared" si="3"/>
         <v>7688.671875</v>
       </c>
-      <c r="F13" s="80"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="13">
         <v>6</v>
       </c>
@@ -10681,7 +10681,7 @@
         <f t="shared" ref="H13:H23" si="5">H12*1.2</f>
         <v>0.28185722880000003</v>
       </c>
-      <c r="I13" s="77"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -10704,7 +10704,7 @@
         <f t="shared" si="3"/>
         <v>11533.0078125</v>
       </c>
-      <c r="F14" s="80"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="13">
         <v>7</v>
       </c>
@@ -10712,7 +10712,7 @@
         <f t="shared" si="5"/>
         <v>0.33822867456</v>
       </c>
-      <c r="I14" s="77"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="12" t="s">
         <v>20</v>
       </c>
@@ -10737,7 +10737,7 @@
         <f t="shared" si="3"/>
         <v>17299.51171875</v>
       </c>
-      <c r="F15" s="80"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="13">
         <v>7</v>
       </c>
@@ -10745,7 +10745,7 @@
         <f t="shared" si="5"/>
         <v>0.40587440947199999</v>
       </c>
-      <c r="I15" s="77"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -10768,7 +10768,7 @@
         <f t="shared" si="3"/>
         <v>25949.267578125</v>
       </c>
-      <c r="F16" s="80"/>
+      <c r="F16" s="84"/>
       <c r="G16" s="13">
         <v>8</v>
       </c>
@@ -10776,7 +10776,7 @@
         <f t="shared" si="5"/>
         <v>0.48704929136639996</v>
       </c>
-      <c r="I16" s="77"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -10799,7 +10799,7 @@
         <f t="shared" si="3"/>
         <v>38923.9013671875</v>
       </c>
-      <c r="F17" s="80"/>
+      <c r="F17" s="84"/>
       <c r="G17" s="13">
         <v>8</v>
       </c>
@@ -10807,7 +10807,7 @@
         <f t="shared" si="5"/>
         <v>0.58445914963967993</v>
       </c>
-      <c r="I17" s="77"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -10830,7 +10830,7 @@
         <f t="shared" si="3"/>
         <v>58385.85205078125</v>
       </c>
-      <c r="F18" s="80"/>
+      <c r="F18" s="84"/>
       <c r="G18" s="13">
         <v>9</v>
       </c>
@@ -10838,7 +10838,7 @@
         <f t="shared" si="5"/>
         <v>0.70135097956761594</v>
       </c>
-      <c r="I18" s="77"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -10861,7 +10861,7 @@
         <f t="shared" si="3"/>
         <v>87578.778076171875</v>
       </c>
-      <c r="F19" s="80"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="13">
         <v>9</v>
       </c>
@@ -10869,7 +10869,7 @@
         <f t="shared" si="5"/>
         <v>0.84162117548113913</v>
       </c>
-      <c r="I19" s="77"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -10892,7 +10892,7 @@
         <f t="shared" si="3"/>
         <v>131368.16711425781</v>
       </c>
-      <c r="F20" s="80"/>
+      <c r="F20" s="84"/>
       <c r="G20" s="13">
         <v>10</v>
       </c>
@@ -10900,7 +10900,7 @@
         <f t="shared" si="5"/>
         <v>1.0099454105773669</v>
       </c>
-      <c r="I20" s="77"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -10923,7 +10923,7 @@
         <f t="shared" si="3"/>
         <v>197052.25067138672</v>
       </c>
-      <c r="F21" s="80"/>
+      <c r="F21" s="84"/>
       <c r="G21" s="13">
         <v>10</v>
       </c>
@@ -10931,7 +10931,7 @@
         <f t="shared" si="5"/>
         <v>1.2119344926928401</v>
       </c>
-      <c r="I21" s="77"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -10954,7 +10954,7 @@
         <f t="shared" si="3"/>
         <v>295578.37600708008</v>
       </c>
-      <c r="F22" s="80"/>
+      <c r="F22" s="84"/>
       <c r="G22" s="13">
         <v>11</v>
       </c>
@@ -10962,7 +10962,7 @@
         <f t="shared" si="5"/>
         <v>1.4543213912314081</v>
       </c>
-      <c r="I22" s="77"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -10985,7 +10985,7 @@
         <f t="shared" si="3"/>
         <v>443367.56401062012</v>
       </c>
-      <c r="F23" s="81"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="21">
         <v>15</v>
       </c>
@@ -10993,7 +10993,7 @@
         <f t="shared" si="5"/>
         <v>1.7451856694776897</v>
       </c>
-      <c r="I23" s="78"/>
+      <c r="I23" s="82"/>
       <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -11052,19 +11052,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -11105,16 +11105,16 @@
       <c r="A3" s="19">
         <v>0</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="88" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11134,7 +11134,7 @@
       <c r="E4" s="13">
         <v>50</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="91" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="13">
@@ -11143,13 +11143,13 @@
       <c r="H4" s="15">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="93" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="70"/>
+      <c r="K4" s="89"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -11171,7 +11171,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="13">
         <v>2</v>
       </c>
@@ -11179,9 +11179,9 @@
         <f>H4*1.6</f>
         <v>9.4444444444444445E-3</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="93"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="70"/>
+      <c r="K5" s="89"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -11203,7 +11203,7 @@
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="91"/>
       <c r="G6" s="13">
         <v>3</v>
       </c>
@@ -11211,9 +11211,9 @@
         <f t="shared" ref="H6:H11" si="1">H5*1.6</f>
         <v>1.5111111111111112E-2</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="93"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="70"/>
+      <c r="K6" s="89"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -11235,7 +11235,7 @@
         <f t="shared" si="0"/>
         <v>168.75</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="13">
         <v>3</v>
       </c>
@@ -11243,9 +11243,9 @@
         <f t="shared" si="1"/>
         <v>2.4177777777777781E-2</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="93"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="70"/>
+      <c r="K7" s="89"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -11267,7 +11267,7 @@
         <f t="shared" si="0"/>
         <v>253.125</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="13">
         <v>4</v>
       </c>
@@ -11275,11 +11275,11 @@
         <f t="shared" si="1"/>
         <v>3.8684444444444452E-2</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="93"/>
       <c r="J8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="70"/>
+      <c r="K8" s="89"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -11301,7 +11301,7 @@
         <f t="shared" si="0"/>
         <v>379.6875</v>
       </c>
-      <c r="F9" s="72"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="13">
         <v>4</v>
       </c>
@@ -11309,9 +11309,9 @@
         <f t="shared" si="1"/>
         <v>6.1895111111111123E-2</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="93"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="70"/>
+      <c r="K9" s="89"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -11333,7 +11333,7 @@
         <f t="shared" si="0"/>
         <v>569.53125</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -11341,9 +11341,9 @@
         <f t="shared" si="1"/>
         <v>9.90321777777778E-2</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="93"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="70"/>
+      <c r="K10" s="89"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -11365,7 +11365,7 @@
         <f t="shared" si="0"/>
         <v>854.296875</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="13">
         <v>5</v>
       </c>
@@ -11373,9 +11373,9 @@
         <f t="shared" si="1"/>
         <v>0.15845148444444448</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="93"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="70"/>
+      <c r="K11" s="89"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -11397,7 +11397,7 @@
         <f t="shared" si="0"/>
         <v>1281.4453125</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="13">
         <v>6</v>
       </c>
@@ -11405,11 +11405,11 @@
         <f>H11*1.2</f>
         <v>0.19014178133333337</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="93" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="12"/>
-      <c r="K12" s="70"/>
+      <c r="K12" s="89"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -11431,7 +11431,7 @@
         <f t="shared" si="0"/>
         <v>1922.16796875</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="13">
         <v>6</v>
       </c>
@@ -11439,9 +11439,9 @@
         <f t="shared" ref="H13:H23" si="2">H12*1.2</f>
         <v>0.22817013760000004</v>
       </c>
-      <c r="I13" s="74"/>
+      <c r="I13" s="93"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="89"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -11463,7 +11463,7 @@
         <f t="shared" si="0"/>
         <v>2883.251953125</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="13">
         <v>7</v>
       </c>
@@ -11471,9 +11471,9 @@
         <f t="shared" si="2"/>
         <v>0.27380416512000005</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="93"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="70"/>
+      <c r="K14" s="89"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -11495,7 +11495,7 @@
         <f t="shared" si="0"/>
         <v>4324.8779296875</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="13">
         <v>7</v>
       </c>
@@ -11503,11 +11503,11 @@
         <f t="shared" si="2"/>
         <v>0.32856499814400003</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="93"/>
       <c r="J15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="70"/>
+      <c r="K15" s="89"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -11529,7 +11529,7 @@
         <f t="shared" si="0"/>
         <v>6487.31689453125</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="91"/>
       <c r="G16" s="13">
         <v>8</v>
       </c>
@@ -11537,9 +11537,9 @@
         <f t="shared" si="2"/>
         <v>0.39427799777280004</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="93"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="70"/>
+      <c r="K16" s="89"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -11561,7 +11561,7 @@
         <f t="shared" si="0"/>
         <v>9730.975341796875</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="91"/>
       <c r="G17" s="13">
         <v>8</v>
       </c>
@@ -11569,9 +11569,9 @@
         <f t="shared" si="2"/>
         <v>0.47313359732736004</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="70"/>
+      <c r="K17" s="89"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -11593,7 +11593,7 @@
         <f t="shared" si="0"/>
         <v>14596.463012695313</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="91"/>
       <c r="G18" s="13">
         <v>9</v>
       </c>
@@ -11601,9 +11601,9 @@
         <f t="shared" si="2"/>
         <v>0.56776031679283201</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="70"/>
+      <c r="K18" s="89"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -11625,7 +11625,7 @@
         <f t="shared" si="0"/>
         <v>21894.694519042969</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="91"/>
       <c r="G19" s="13">
         <v>9</v>
       </c>
@@ -11633,9 +11633,9 @@
         <f t="shared" si="2"/>
         <v>0.68131238015139839</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="93"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="70"/>
+      <c r="K19" s="89"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -11657,7 +11657,7 @@
         <f t="shared" si="0"/>
         <v>32842.041778564453</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="13">
         <v>10</v>
       </c>
@@ -11665,11 +11665,11 @@
         <f t="shared" si="2"/>
         <v>0.81757485618167802</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="93"/>
       <c r="J20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="70"/>
+      <c r="K20" s="89"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -11691,7 +11691,7 @@
         <f t="shared" si="3"/>
         <v>49263.06266784668</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="13">
         <v>10</v>
       </c>
@@ -11699,9 +11699,9 @@
         <f t="shared" si="2"/>
         <v>0.98108982741801354</v>
       </c>
-      <c r="I21" s="74"/>
+      <c r="I21" s="93"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="70"/>
+      <c r="K21" s="89"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -11723,7 +11723,7 @@
         <f t="shared" si="3"/>
         <v>73894.59400177002</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="91"/>
       <c r="G22" s="13">
         <v>11</v>
       </c>
@@ -11731,9 +11731,9 @@
         <f t="shared" si="2"/>
         <v>1.1773077929016162</v>
       </c>
-      <c r="I22" s="74"/>
+      <c r="I22" s="93"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="70"/>
+      <c r="K22" s="89"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
@@ -11755,7 +11755,7 @@
         <f t="shared" si="3"/>
         <v>110841.89100265503</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="21">
         <v>15</v>
       </c>
@@ -11763,9 +11763,9 @@
         <f t="shared" si="2"/>
         <v>1.4127693514819395</v>
       </c>
-      <c r="I23" s="75"/>
+      <c r="I23" s="94"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="71"/>
+      <c r="K23" s="90"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G24" s="1">
@@ -11817,19 +11817,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -11870,16 +11870,16 @@
       <c r="A3" s="19">
         <v>0</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="88" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11899,7 +11899,7 @@
       <c r="E4" s="13">
         <v>50</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="91" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="13">
@@ -11908,13 +11908,13 @@
       <c r="H4" s="15">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="93" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="70"/>
+      <c r="K4" s="89"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -11936,7 +11936,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="13">
         <v>2</v>
       </c>
@@ -11944,9 +11944,9 @@
         <f>H4*1.6</f>
         <v>9.4444444444444445E-3</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="93"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="70"/>
+      <c r="K5" s="89"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -11968,7 +11968,7 @@
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="91"/>
       <c r="G6" s="13">
         <v>3</v>
       </c>
@@ -11976,9 +11976,9 @@
         <f t="shared" ref="H6:H11" si="1">H5*1.6</f>
         <v>1.5111111111111112E-2</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="93"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="70"/>
+      <c r="K6" s="89"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -12000,7 +12000,7 @@
         <f t="shared" si="0"/>
         <v>168.75</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="13">
         <v>3</v>
       </c>
@@ -12008,9 +12008,9 @@
         <f t="shared" si="1"/>
         <v>2.4177777777777781E-2</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="93"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="70"/>
+      <c r="K7" s="89"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -12032,7 +12032,7 @@
         <f t="shared" si="0"/>
         <v>253.125</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="13">
         <v>4</v>
       </c>
@@ -12040,11 +12040,11 @@
         <f t="shared" si="1"/>
         <v>3.8684444444444452E-2</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="93"/>
       <c r="J8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="70"/>
+      <c r="K8" s="89"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -12066,7 +12066,7 @@
         <f t="shared" si="0"/>
         <v>379.6875</v>
       </c>
-      <c r="F9" s="72"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="13">
         <v>4</v>
       </c>
@@ -12074,9 +12074,9 @@
         <f t="shared" si="1"/>
         <v>6.1895111111111123E-2</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="93"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="70"/>
+      <c r="K9" s="89"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -12098,7 +12098,7 @@
         <f t="shared" si="0"/>
         <v>569.53125</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -12106,9 +12106,9 @@
         <f t="shared" si="1"/>
         <v>9.90321777777778E-2</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="93"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="70"/>
+      <c r="K10" s="89"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -12130,7 +12130,7 @@
         <f t="shared" si="0"/>
         <v>854.296875</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="13">
         <v>5</v>
       </c>
@@ -12138,9 +12138,9 @@
         <f t="shared" si="1"/>
         <v>0.15845148444444448</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="93"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="70"/>
+      <c r="K11" s="89"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -12162,7 +12162,7 @@
         <f t="shared" si="0"/>
         <v>1281.4453125</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="13">
         <v>6</v>
       </c>
@@ -12170,11 +12170,11 @@
         <f>H11*1.2</f>
         <v>0.19014178133333337</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="93" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="12"/>
-      <c r="K12" s="70"/>
+      <c r="K12" s="89"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -12196,7 +12196,7 @@
         <f t="shared" si="0"/>
         <v>1922.16796875</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="13">
         <v>6</v>
       </c>
@@ -12204,9 +12204,9 @@
         <f t="shared" ref="H13:H23" si="2">H12*1.2</f>
         <v>0.22817013760000004</v>
       </c>
-      <c r="I13" s="74"/>
+      <c r="I13" s="93"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="89"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -12228,7 +12228,7 @@
         <f t="shared" si="0"/>
         <v>2883.251953125</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="13">
         <v>7</v>
       </c>
@@ -12236,9 +12236,9 @@
         <f t="shared" si="2"/>
         <v>0.27380416512000005</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="93"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="70"/>
+      <c r="K14" s="89"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -12260,7 +12260,7 @@
         <f t="shared" si="0"/>
         <v>4324.8779296875</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="13">
         <v>7</v>
       </c>
@@ -12268,11 +12268,11 @@
         <f t="shared" si="2"/>
         <v>0.32856499814400003</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="93"/>
       <c r="J15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="70"/>
+      <c r="K15" s="89"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -12294,7 +12294,7 @@
         <f t="shared" si="0"/>
         <v>6487.31689453125</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="91"/>
       <c r="G16" s="13">
         <v>8</v>
       </c>
@@ -12302,9 +12302,9 @@
         <f t="shared" si="2"/>
         <v>0.39427799777280004</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="93"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="70"/>
+      <c r="K16" s="89"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -12326,7 +12326,7 @@
         <f t="shared" si="0"/>
         <v>9730.975341796875</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="91"/>
       <c r="G17" s="13">
         <v>8</v>
       </c>
@@ -12334,9 +12334,9 @@
         <f t="shared" si="2"/>
         <v>0.47313359732736004</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="70"/>
+      <c r="K17" s="89"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -12358,7 +12358,7 @@
         <f t="shared" si="0"/>
         <v>14596.463012695313</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="91"/>
       <c r="G18" s="13">
         <v>9</v>
       </c>
@@ -12366,9 +12366,9 @@
         <f t="shared" si="2"/>
         <v>0.56776031679283201</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="70"/>
+      <c r="K18" s="89"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -12390,7 +12390,7 @@
         <f t="shared" si="0"/>
         <v>21894.694519042969</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="91"/>
       <c r="G19" s="13">
         <v>9</v>
       </c>
@@ -12398,9 +12398,9 @@
         <f t="shared" si="2"/>
         <v>0.68131238015139839</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="93"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="70"/>
+      <c r="K19" s="89"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -12422,7 +12422,7 @@
         <f t="shared" si="0"/>
         <v>32842.041778564453</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="13">
         <v>10</v>
       </c>
@@ -12430,11 +12430,11 @@
         <f t="shared" si="2"/>
         <v>0.81757485618167802</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="93"/>
       <c r="J20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="70"/>
+      <c r="K20" s="89"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -12456,7 +12456,7 @@
         <f t="shared" si="3"/>
         <v>49263.06266784668</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="13">
         <v>10</v>
       </c>
@@ -12464,9 +12464,9 @@
         <f t="shared" si="2"/>
         <v>0.98108982741801354</v>
       </c>
-      <c r="I21" s="74"/>
+      <c r="I21" s="93"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="70"/>
+      <c r="K21" s="89"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -12488,7 +12488,7 @@
         <f t="shared" si="3"/>
         <v>73894.59400177002</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="91"/>
       <c r="G22" s="13">
         <v>11</v>
       </c>
@@ -12496,9 +12496,9 @@
         <f t="shared" si="2"/>
         <v>1.1773077929016162</v>
       </c>
-      <c r="I22" s="74"/>
+      <c r="I22" s="93"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="70"/>
+      <c r="K22" s="89"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
@@ -12520,7 +12520,7 @@
         <f t="shared" si="3"/>
         <v>110841.89100265503</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="21">
         <v>15</v>
       </c>
@@ -12528,9 +12528,9 @@
         <f t="shared" si="2"/>
         <v>1.4127693514819395</v>
       </c>
-      <c r="I23" s="75"/>
+      <c r="I23" s="94"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="71"/>
+      <c r="K23" s="90"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>

--- a/MISE_EN_PLACE_SITE/TABLEAUX_EXCEL/PROJET.xlsx
+++ b/MISE_EN_PLACE_SITE/TABLEAUX_EXCEL/PROJET.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EpsiB3\Projets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\PROJET_EPSI_2015_2016\MISE_EN_PLACE_SITE\TABLEAUX_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Scierie" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="126">
   <si>
     <t>Bois</t>
   </si>
@@ -363,6 +363,66 @@
   <si>
     <t>OK_KEVIN</t>
   </si>
+  <si>
+    <t>Armée attaquant :</t>
+  </si>
+  <si>
+    <t>Unitée :</t>
+  </si>
+  <si>
+    <t>Nombre :</t>
+  </si>
+  <si>
+    <t>Valeur d'attaque :</t>
+  </si>
+  <si>
+    <t>Total :</t>
+  </si>
+  <si>
+    <t>Total Infanterie :</t>
+  </si>
+  <si>
+    <t>Total Distant :</t>
+  </si>
+  <si>
+    <t>Total Cavalerie :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitée : </t>
+  </si>
+  <si>
+    <t>Valeur Inf :</t>
+  </si>
+  <si>
+    <t>Valeur Dist :</t>
+  </si>
+  <si>
+    <t>Valeur Cav :</t>
+  </si>
+  <si>
+    <t>Totaux :</t>
+  </si>
+  <si>
+    <t>Armée défenseur :</t>
+  </si>
+  <si>
+    <t>Calculateur :</t>
+  </si>
+  <si>
+    <t>Défense</t>
+  </si>
+  <si>
+    <t>Cavalier :</t>
+  </si>
+  <si>
+    <t>Distance :</t>
+  </si>
+  <si>
+    <t>Infanterie :</t>
+  </si>
+  <si>
+    <t>Ratio :</t>
+  </si>
 </sst>
 </file>
 
@@ -424,7 +484,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,8 +518,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -699,6 +777,403 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -706,7 +1181,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -778,22 +1253,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -801,8 +1264,6 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -822,81 +1283,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="4" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="4" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -929,10 +1315,165 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="2" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="46" fontId="3" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="3" fillId="4" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="4" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
@@ -1234,18 +1775,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1279,18 +1820,18 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
       <c r="J3" s="7">
         <v>20</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="113" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1310,7 +1851,7 @@
       <c r="E4" s="1">
         <v>15</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="113" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1">
@@ -1320,14 +1861,14 @@
         <f t="shared" ref="H4:H8" si="0">H5/1.8</f>
         <v>1.8319664323661843E-3</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="114" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="7">
         <f>J3*1.5</f>
         <v>30</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="113"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1349,7 +1890,7 @@
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="1">
         <v>1</v>
       </c>
@@ -1357,12 +1898,12 @@
         <f t="shared" si="0"/>
         <v>3.2975395782591319E-3</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="114"/>
       <c r="J5" s="7">
         <f>J4*1.5</f>
         <v>45</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="113"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1384,7 +1925,7 @@
         <f t="shared" si="1"/>
         <v>33.75</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -1392,12 +1933,12 @@
         <f t="shared" si="0"/>
         <v>5.9355712408664376E-3</v>
       </c>
-      <c r="I6" s="63"/>
+      <c r="I6" s="114"/>
       <c r="J6" s="7">
         <f t="shared" ref="J6:J11" si="2">J5*1.5</f>
         <v>67.5</v>
       </c>
-      <c r="K6" s="62"/>
+      <c r="K6" s="113"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1419,7 +1960,7 @@
         <f t="shared" ref="E7:E23" si="5">E6*1.5</f>
         <v>50.625</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1427,12 +1968,12 @@
         <f t="shared" si="0"/>
         <v>1.0684028233559588E-2</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="114"/>
       <c r="J7" s="7">
         <f t="shared" si="2"/>
         <v>101.25</v>
       </c>
-      <c r="K7" s="62"/>
+      <c r="K7" s="113"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1454,7 +1995,7 @@
         <f t="shared" si="5"/>
         <v>75.9375</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="113"/>
       <c r="G8" s="1">
         <v>3</v>
       </c>
@@ -1462,12 +2003,12 @@
         <f t="shared" si="0"/>
         <v>1.9231250820407258E-2</v>
       </c>
-      <c r="I8" s="63"/>
+      <c r="I8" s="114"/>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
         <v>151.875</v>
       </c>
-      <c r="K8" s="62"/>
+      <c r="K8" s="113"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1489,7 +2030,7 @@
         <f t="shared" si="5"/>
         <v>113.90625</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="1">
         <v>3</v>
       </c>
@@ -1497,12 +2038,12 @@
         <f>H10/1.8</f>
         <v>3.4616251476733063E-2</v>
       </c>
-      <c r="I9" s="63"/>
+      <c r="I9" s="114"/>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
         <v>227.8125</v>
       </c>
-      <c r="K9" s="62"/>
+      <c r="K9" s="113"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1524,7 +2065,7 @@
         <f t="shared" si="5"/>
         <v>170.859375</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="113"/>
       <c r="G10" s="1">
         <v>4</v>
       </c>
@@ -1532,12 +2073,12 @@
         <f>H11/1.8</f>
         <v>6.2309252658119513E-2</v>
       </c>
-      <c r="I10" s="63"/>
+      <c r="I10" s="114"/>
       <c r="J10" s="7">
         <f t="shared" si="2"/>
         <v>341.71875</v>
       </c>
-      <c r="K10" s="62"/>
+      <c r="K10" s="113"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1559,7 +2100,7 @@
         <f t="shared" si="5"/>
         <v>256.2890625</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="1">
         <v>4</v>
       </c>
@@ -1567,12 +2108,12 @@
         <f t="shared" ref="H11:H20" si="6">H12/1.2</f>
         <v>0.11215665478461513</v>
       </c>
-      <c r="I11" s="63"/>
+      <c r="I11" s="114"/>
       <c r="J11" s="7">
         <f t="shared" si="2"/>
         <v>512.578125</v>
       </c>
-      <c r="K11" s="62"/>
+      <c r="K11" s="113"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1594,7 +2135,7 @@
         <f t="shared" si="5"/>
         <v>384.43359375</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="113"/>
       <c r="G12" s="1">
         <v>4</v>
       </c>
@@ -1602,14 +2143,14 @@
         <f t="shared" si="6"/>
         <v>0.13458798574153816</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="114" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="7">
         <f>J11*1.5</f>
         <v>768.8671875</v>
       </c>
-      <c r="K12" s="62"/>
+      <c r="K12" s="113"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1631,7 +2172,7 @@
         <f t="shared" si="5"/>
         <v>576.650390625</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="1">
         <v>5</v>
       </c>
@@ -1639,12 +2180,12 @@
         <f t="shared" si="6"/>
         <v>0.16150558288984579</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="114"/>
       <c r="J13" s="7">
         <f>J12*1.5</f>
         <v>1153.30078125</v>
       </c>
-      <c r="K13" s="62"/>
+      <c r="K13" s="113"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1666,7 +2207,7 @@
         <f t="shared" si="5"/>
         <v>864.9755859375</v>
       </c>
-      <c r="F14" s="62"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="1">
         <v>5</v>
       </c>
@@ -1674,12 +2215,12 @@
         <f t="shared" si="6"/>
         <v>0.19380669946781492</v>
       </c>
-      <c r="I14" s="63"/>
+      <c r="I14" s="114"/>
       <c r="J14" s="7">
         <f>J13*1.2</f>
         <v>1383.9609375</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="113" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1703,7 +2244,7 @@
         <f t="shared" si="5"/>
         <v>1297.46337890625</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="113"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -1711,12 +2252,12 @@
         <f t="shared" si="6"/>
         <v>0.2325680393613779</v>
       </c>
-      <c r="I15" s="63"/>
+      <c r="I15" s="114"/>
       <c r="J15" s="7">
         <f>J14*1.2</f>
         <v>1660.753125</v>
       </c>
-      <c r="K15" s="62"/>
+      <c r="K15" s="113"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1738,7 +2279,7 @@
         <f t="shared" si="5"/>
         <v>1946.195068359375</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="113"/>
       <c r="G16" s="1">
         <v>6</v>
       </c>
@@ -1746,12 +2287,12 @@
         <f t="shared" si="6"/>
         <v>0.27908164723365347</v>
       </c>
-      <c r="I16" s="63"/>
+      <c r="I16" s="114"/>
       <c r="J16" s="7">
         <f t="shared" ref="J16:J22" si="7">J15*1.2</f>
         <v>1992.9037499999999</v>
       </c>
-      <c r="K16" s="62"/>
+      <c r="K16" s="113"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1773,7 +2314,7 @@
         <f t="shared" si="5"/>
         <v>2919.2926025390625</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="113"/>
       <c r="G17" s="1">
         <v>6</v>
       </c>
@@ -1781,12 +2322,12 @@
         <f t="shared" si="6"/>
         <v>0.33489797668038418</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="114"/>
       <c r="J17" s="7">
         <f t="shared" si="7"/>
         <v>2391.4845</v>
       </c>
-      <c r="K17" s="62"/>
+      <c r="K17" s="113"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1808,7 +2349,7 @@
         <f t="shared" si="5"/>
         <v>4378.9389038085937</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="113"/>
       <c r="G18" s="1">
         <v>6</v>
       </c>
@@ -1816,12 +2357,12 @@
         <f t="shared" si="6"/>
         <v>0.40187757201646102</v>
       </c>
-      <c r="I18" s="63"/>
+      <c r="I18" s="114"/>
       <c r="J18" s="7">
         <f t="shared" si="7"/>
         <v>2869.7813999999998</v>
       </c>
-      <c r="K18" s="62"/>
+      <c r="K18" s="113"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1843,7 +2384,7 @@
         <f t="shared" si="5"/>
         <v>6568.4083557128906</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="113"/>
       <c r="G19" s="1">
         <v>7</v>
       </c>
@@ -1851,12 +2392,12 @@
         <f t="shared" si="6"/>
         <v>0.48225308641975323</v>
       </c>
-      <c r="I19" s="63"/>
+      <c r="I19" s="114"/>
       <c r="J19" s="7">
         <f t="shared" si="7"/>
         <v>3443.7376799999997</v>
       </c>
-      <c r="K19" s="62"/>
+      <c r="K19" s="113"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1878,7 +2419,7 @@
         <f t="shared" si="5"/>
         <v>9852.6125335693359</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="113"/>
       <c r="G20" s="1">
         <v>7</v>
       </c>
@@ -1886,12 +2427,12 @@
         <f t="shared" si="6"/>
         <v>0.57870370370370383</v>
       </c>
-      <c r="I20" s="63"/>
+      <c r="I20" s="114"/>
       <c r="J20" s="7">
         <f t="shared" si="7"/>
         <v>4132.4852159999991</v>
       </c>
-      <c r="K20" s="62"/>
+      <c r="K20" s="113"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1913,7 +2454,7 @@
         <f t="shared" si="5"/>
         <v>14778.918800354004</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="113"/>
       <c r="G21" s="1">
         <v>7</v>
       </c>
@@ -1921,12 +2462,12 @@
         <f>H22/1.2</f>
         <v>0.69444444444444453</v>
       </c>
-      <c r="I21" s="63"/>
+      <c r="I21" s="114"/>
       <c r="J21" s="7">
         <f t="shared" si="7"/>
         <v>4958.9822591999991</v>
       </c>
-      <c r="K21" s="62"/>
+      <c r="K21" s="113"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1948,7 +2489,7 @@
         <f t="shared" si="5"/>
         <v>22168.378200531006</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="113"/>
       <c r="G22" s="1">
         <v>8</v>
       </c>
@@ -1956,12 +2497,12 @@
         <f>H23/1.2</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="I22" s="63"/>
+      <c r="I22" s="114"/>
       <c r="J22" s="7">
         <f t="shared" si="7"/>
         <v>5950.7787110399986</v>
       </c>
-      <c r="K22" s="62"/>
+      <c r="K22" s="113"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1983,19 +2524,19 @@
         <f t="shared" si="5"/>
         <v>33252.567300796509</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="113"/>
       <c r="G23" s="1">
         <v>8</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="63"/>
+      <c r="I23" s="114"/>
       <c r="J23" s="7">
         <f>J22*1.2</f>
         <v>7140.9344532479981</v>
       </c>
-      <c r="K23" s="62"/>
+      <c r="K23" s="113"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -2036,7 +2577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2049,24 +2590,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="39" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="38" t="s">
         <v>50</v>
       </c>
       <c r="C2" t="s">
@@ -2074,76 +2615,76 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="38" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="38" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="38" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="38" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="38" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="38" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="38" t="s">
         <v>63</v>
       </c>
       <c r="C9" t="s">
@@ -2151,56 +2692,56 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="57" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="38" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="38" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="38" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="38" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="38" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2227,43 +2768,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-    </row>
-    <row r="2" spans="1:21" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+    </row>
+    <row r="2" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -2293,7 +2834,7 @@
       <c r="I3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="45" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2301,14 +2842,14 @@
       <c r="A4" s="19">
         <v>0</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -2327,7 +2868,7 @@
       <c r="E5" s="13">
         <v>30</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="122" t="s">
         <v>95</v>
       </c>
       <c r="G5" s="13">
@@ -2336,7 +2877,7 @@
       <c r="H5" s="15">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="118" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="1">
@@ -2364,7 +2905,7 @@
         <f>E5*2</f>
         <v>60</v>
       </c>
-      <c r="F6" s="82"/>
+      <c r="F6" s="143"/>
       <c r="G6" s="13">
         <v>2</v>
       </c>
@@ -2372,7 +2913,7 @@
         <f>H5*1.3</f>
         <v>7.6736111111111111E-3</v>
       </c>
-      <c r="I6" s="77"/>
+      <c r="I6" s="119"/>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2398,7 +2939,7 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="122" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="13">
@@ -2408,7 +2949,7 @@
         <f t="shared" ref="H7:H12" si="2">H6*1.3</f>
         <v>9.975694444444445E-3</v>
       </c>
-      <c r="I7" s="77"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2434,7 +2975,7 @@
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="F8" s="80"/>
+      <c r="F8" s="123"/>
       <c r="G8" s="13">
         <v>2</v>
       </c>
@@ -2442,7 +2983,7 @@
         <f t="shared" si="2"/>
         <v>1.2968402777777778E-2</v>
       </c>
-      <c r="I8" s="77"/>
+      <c r="I8" s="119"/>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2468,7 +3009,7 @@
         <f t="shared" si="1"/>
         <v>202.5</v>
       </c>
-      <c r="F9" s="80"/>
+      <c r="F9" s="123"/>
       <c r="G9" s="13">
         <v>2</v>
       </c>
@@ -2476,7 +3017,7 @@
         <f t="shared" si="2"/>
         <v>1.6858923611111111E-2</v>
       </c>
-      <c r="I9" s="77"/>
+      <c r="I9" s="119"/>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2502,7 +3043,7 @@
         <f t="shared" si="1"/>
         <v>303.75</v>
       </c>
-      <c r="F10" s="80"/>
+      <c r="F10" s="123"/>
       <c r="G10" s="13">
         <v>2</v>
       </c>
@@ -2510,7 +3051,7 @@
         <f t="shared" si="2"/>
         <v>2.1916600694444444E-2</v>
       </c>
-      <c r="I10" s="77"/>
+      <c r="I10" s="119"/>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2536,7 +3077,7 @@
         <f t="shared" si="1"/>
         <v>455.625</v>
       </c>
-      <c r="F11" s="80"/>
+      <c r="F11" s="123"/>
       <c r="G11" s="13">
         <v>2</v>
       </c>
@@ -2544,7 +3085,7 @@
         <f t="shared" si="2"/>
         <v>2.8491580902777779E-2</v>
       </c>
-      <c r="I11" s="77"/>
+      <c r="I11" s="119"/>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -2570,7 +3111,7 @@
         <f t="shared" si="1"/>
         <v>683.4375</v>
       </c>
-      <c r="F12" s="80"/>
+      <c r="F12" s="123"/>
       <c r="G12" s="13">
         <v>2</v>
       </c>
@@ -2578,7 +3119,7 @@
         <f t="shared" si="2"/>
         <v>3.7039055173611113E-2</v>
       </c>
-      <c r="I12" s="77"/>
+      <c r="I12" s="119"/>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -2604,7 +3145,7 @@
         <f t="shared" si="1"/>
         <v>1025.15625</v>
       </c>
-      <c r="F13" s="80"/>
+      <c r="F13" s="123"/>
       <c r="G13" s="13">
         <v>2</v>
       </c>
@@ -2612,7 +3153,7 @@
         <f>H12*1.3</f>
         <v>4.8150771725694451E-2</v>
       </c>
-      <c r="I13" s="77"/>
+      <c r="I13" s="119"/>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -2638,7 +3179,7 @@
         <f t="shared" si="1"/>
         <v>1537.734375</v>
       </c>
-      <c r="F14" s="80"/>
+      <c r="F14" s="123"/>
       <c r="G14" s="13">
         <v>2</v>
       </c>
@@ -2646,7 +3187,7 @@
         <f t="shared" ref="H14:H24" si="3">H13*1.3</f>
         <v>6.2596003243402795E-2</v>
       </c>
-      <c r="I14" s="77"/>
+      <c r="I14" s="119"/>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -2672,7 +3213,7 @@
         <f t="shared" si="1"/>
         <v>2306.6015625</v>
       </c>
-      <c r="F15" s="80"/>
+      <c r="F15" s="123"/>
       <c r="G15" s="13">
         <v>2</v>
       </c>
@@ -2680,7 +3221,7 @@
         <f t="shared" si="3"/>
         <v>8.1374804216423638E-2</v>
       </c>
-      <c r="I15" s="77"/>
+      <c r="I15" s="119"/>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -2706,7 +3247,7 @@
         <f t="shared" si="1"/>
         <v>3459.90234375</v>
       </c>
-      <c r="F16" s="80"/>
+      <c r="F16" s="123"/>
       <c r="G16" s="13">
         <v>2</v>
       </c>
@@ -2714,7 +3255,7 @@
         <f t="shared" si="3"/>
         <v>0.10578724548135074</v>
       </c>
-      <c r="I16" s="77"/>
+      <c r="I16" s="119"/>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -2740,7 +3281,7 @@
         <f t="shared" si="1"/>
         <v>5189.853515625</v>
       </c>
-      <c r="F17" s="80"/>
+      <c r="F17" s="123"/>
       <c r="G17" s="13">
         <v>2</v>
       </c>
@@ -2748,7 +3289,7 @@
         <f t="shared" si="3"/>
         <v>0.13752341912575597</v>
       </c>
-      <c r="I17" s="77"/>
+      <c r="I17" s="119"/>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
         <v>130</v>
@@ -2774,7 +3315,7 @@
         <f t="shared" si="1"/>
         <v>7784.7802734375</v>
       </c>
-      <c r="F18" s="80"/>
+      <c r="F18" s="123"/>
       <c r="G18" s="13">
         <v>2</v>
       </c>
@@ -2782,7 +3323,7 @@
         <f t="shared" si="3"/>
         <v>0.17878044486348277</v>
       </c>
-      <c r="I18" s="77"/>
+      <c r="I18" s="119"/>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
         <v>140</v>
@@ -2808,7 +3349,7 @@
         <f t="shared" si="1"/>
         <v>11677.17041015625</v>
       </c>
-      <c r="F19" s="80"/>
+      <c r="F19" s="123"/>
       <c r="G19" s="13">
         <v>2</v>
       </c>
@@ -2816,7 +3357,7 @@
         <f t="shared" si="3"/>
         <v>0.2324145783225276</v>
       </c>
-      <c r="I19" s="77"/>
+      <c r="I19" s="119"/>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
         <v>150</v>
@@ -2842,7 +3383,7 @@
         <f t="shared" si="1"/>
         <v>17515.755615234375</v>
       </c>
-      <c r="F20" s="80"/>
+      <c r="F20" s="123"/>
       <c r="G20" s="13">
         <v>2</v>
       </c>
@@ -2850,7 +3391,7 @@
         <f t="shared" si="3"/>
         <v>0.30213895181928591</v>
       </c>
-      <c r="I20" s="77"/>
+      <c r="I20" s="119"/>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
         <v>160</v>
@@ -2876,7 +3417,7 @@
         <f t="shared" si="1"/>
         <v>26273.633422851563</v>
       </c>
-      <c r="F21" s="80"/>
+      <c r="F21" s="123"/>
       <c r="G21" s="13">
         <v>2</v>
       </c>
@@ -2884,7 +3425,7 @@
         <f t="shared" si="3"/>
         <v>0.39278063736507168</v>
       </c>
-      <c r="I21" s="77"/>
+      <c r="I21" s="119"/>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
         <v>170</v>
@@ -2910,7 +3451,7 @@
         <f t="shared" si="4"/>
         <v>39410.450134277344</v>
       </c>
-      <c r="F22" s="80"/>
+      <c r="F22" s="123"/>
       <c r="G22" s="13">
         <v>2</v>
       </c>
@@ -2918,7 +3459,7 @@
         <f t="shared" si="3"/>
         <v>0.51061482857459317</v>
       </c>
-      <c r="I22" s="77"/>
+      <c r="I22" s="119"/>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
         <v>180</v>
@@ -2944,7 +3485,7 @@
         <f t="shared" si="4"/>
         <v>59115.675201416016</v>
       </c>
-      <c r="F23" s="80"/>
+      <c r="F23" s="123"/>
       <c r="G23" s="13">
         <v>2</v>
       </c>
@@ -2952,7 +3493,7 @@
         <f t="shared" si="3"/>
         <v>0.66379927714697118</v>
       </c>
-      <c r="I23" s="77"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
         <v>190</v>
@@ -2978,7 +3519,7 @@
         <f t="shared" si="4"/>
         <v>88673.512802124023</v>
       </c>
-      <c r="F24" s="81"/>
+      <c r="F24" s="124"/>
       <c r="G24" s="13">
         <v>2</v>
       </c>
@@ -2986,7 +3527,7 @@
         <f t="shared" si="3"/>
         <v>0.8629390602910626</v>
       </c>
-      <c r="I24" s="78"/>
+      <c r="I24" s="121"/>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
         <v>200</v>
@@ -3003,8 +3544,8 @@
         <f>SUM(G5:G24)</f>
         <v>40</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
       <c r="J25" s="1">
         <f>SUM(J5:J24)</f>
         <v>2100</v>
@@ -3036,39 +3577,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.42578125" style="52"/>
-    <col min="7" max="7" width="22.5703125" style="52" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="52"/>
-    <col min="10" max="10" width="18.42578125" style="52" customWidth="1"/>
-    <col min="11" max="16" width="11.42578125" style="52"/>
-    <col min="17" max="17" width="25.140625" style="95" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" style="52" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="52"/>
+    <col min="1" max="6" width="11.42578125" style="38"/>
+    <col min="7" max="7" width="22.5703125" style="38" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="38"/>
+    <col min="10" max="10" width="18.42578125" style="38" customWidth="1"/>
+    <col min="11" max="16" width="11.42578125" style="38"/>
+    <col min="17" max="17" width="25.140625" style="56" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" style="38" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="84" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -3104,25 +3645,25 @@
       <c r="K2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="85" t="s">
+      <c r="L2" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="85" t="s">
+      <c r="M2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="85" t="s">
+      <c r="N2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="85" t="s">
+      <c r="O2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="85" t="s">
+      <c r="P2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="86" t="s">
+      <c r="Q2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="85" t="s">
+      <c r="R2" s="46" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3130,37 +3671,37 @@
       <c r="A3" s="19">
         <v>0</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="M3" s="57">
+      <c r="M3" s="43">
         <v>20</v>
       </c>
-      <c r="N3" s="57">
+      <c r="N3" s="43">
         <v>20</v>
       </c>
-      <c r="O3" s="57">
+      <c r="O3" s="43">
         <v>20</v>
       </c>
-      <c r="P3" s="57">
+      <c r="P3" s="43">
         <v>30</v>
       </c>
-      <c r="Q3" s="88">
+      <c r="Q3" s="49">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="R3" s="89">
+      <c r="R3" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3180,7 +3721,7 @@
       <c r="E4" s="13">
         <v>50</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="130" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="13">
@@ -3189,18 +3730,18 @@
       <c r="H4" s="15">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="132" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="12"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="90"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="51"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -3222,7 +3763,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="13">
         <v>2</v>
       </c>
@@ -3230,16 +3771,16 @@
         <f>H4*1.6</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="132"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="90"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="51"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -3261,7 +3802,7 @@
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="130"/>
       <c r="G6" s="13">
         <v>3</v>
       </c>
@@ -3269,16 +3810,16 @@
         <f t="shared" ref="H6:H11" si="1">H5*1.6</f>
         <v>1.7777777777777778E-2</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="90"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="51"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -3300,7 +3841,7 @@
         <f t="shared" si="0"/>
         <v>168.75</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="13">
         <v>3</v>
       </c>
@@ -3308,16 +3849,16 @@
         <f t="shared" si="1"/>
         <v>2.8444444444444446E-2</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="90"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="51"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -3339,7 +3880,7 @@
         <f t="shared" si="0"/>
         <v>253.125</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="130"/>
       <c r="G8" s="13">
         <v>4</v>
       </c>
@@ -3347,16 +3888,16 @@
         <f t="shared" si="1"/>
         <v>4.5511111111111113E-2</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="132"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="90"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="51"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -3378,7 +3919,7 @@
         <f t="shared" si="0"/>
         <v>379.6875</v>
       </c>
-      <c r="F9" s="72"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="13">
         <v>4</v>
       </c>
@@ -3386,16 +3927,16 @@
         <f t="shared" si="1"/>
         <v>7.2817777777777787E-2</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="90"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="51"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -3417,7 +3958,7 @@
         <f t="shared" si="0"/>
         <v>569.53125</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="130"/>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -3425,16 +3966,16 @@
         <f t="shared" si="1"/>
         <v>0.11650844444444447</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="90"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="51"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -3456,7 +3997,7 @@
         <f t="shared" si="0"/>
         <v>854.296875</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="130"/>
       <c r="G11" s="13">
         <v>5</v>
       </c>
@@ -3464,16 +4005,16 @@
         <f t="shared" si="1"/>
         <v>0.18641351111111115</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="90"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="51"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -3495,7 +4036,7 @@
         <f t="shared" si="0"/>
         <v>1281.4453125</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="130"/>
       <c r="G12" s="13">
         <v>6</v>
       </c>
@@ -3503,18 +4044,18 @@
         <f>H11*1.2</f>
         <v>0.22369621333333337</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="132" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="12"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="90"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="51"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -3536,7 +4077,7 @@
         <f t="shared" si="0"/>
         <v>1922.16796875</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="130"/>
       <c r="G13" s="13">
         <v>6</v>
       </c>
@@ -3544,16 +4085,16 @@
         <f t="shared" ref="H13:H23" si="2">H12*1.2</f>
         <v>0.26843545600000002</v>
       </c>
-      <c r="I13" s="74"/>
+      <c r="I13" s="132"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="90"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="51"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -3575,7 +4116,7 @@
         <f t="shared" si="0"/>
         <v>2883.251953125</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="130"/>
       <c r="G14" s="13">
         <v>7</v>
       </c>
@@ -3583,16 +4124,16 @@
         <f t="shared" si="2"/>
         <v>0.3221225472</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="90"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="51"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -3614,7 +4155,7 @@
         <f t="shared" si="0"/>
         <v>4324.8779296875</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="130"/>
       <c r="G15" s="13">
         <v>7</v>
       </c>
@@ -3622,16 +4163,16 @@
         <f t="shared" si="2"/>
         <v>0.38654705664</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="132"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="90"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="51"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -3653,7 +4194,7 @@
         <f t="shared" si="0"/>
         <v>6487.31689453125</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="130"/>
       <c r="G16" s="13">
         <v>8</v>
       </c>
@@ -3661,16 +4202,16 @@
         <f t="shared" si="2"/>
         <v>0.46385646796799995</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="132"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="90"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="51"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -3692,7 +4233,7 @@
         <f t="shared" si="0"/>
         <v>9730.975341796875</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="130"/>
       <c r="G17" s="13">
         <v>8</v>
       </c>
@@ -3700,16 +4241,16 @@
         <f t="shared" si="2"/>
         <v>0.55662776156159988</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="90"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="51"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -3731,7 +4272,7 @@
         <f t="shared" si="0"/>
         <v>14596.463012695313</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="13">
         <v>9</v>
       </c>
@@ -3739,16 +4280,16 @@
         <f t="shared" si="2"/>
         <v>0.66795331387391987</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="132"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="90"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="51"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -3770,7 +4311,7 @@
         <f t="shared" si="0"/>
         <v>21894.694519042969</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="130"/>
       <c r="G19" s="13">
         <v>9</v>
       </c>
@@ -3778,16 +4319,16 @@
         <f t="shared" si="2"/>
         <v>0.8015439766487038</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="132"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="90"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="51"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -3809,7 +4350,7 @@
         <f t="shared" si="0"/>
         <v>32842.041778564453</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="130"/>
       <c r="G20" s="13">
         <v>10</v>
       </c>
@@ -3817,16 +4358,16 @@
         <f t="shared" si="2"/>
         <v>0.96185277197844454</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="132"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="90"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="51"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -3848,7 +4389,7 @@
         <f t="shared" si="3"/>
         <v>49263.06266784668</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="130"/>
       <c r="G21" s="13">
         <v>10</v>
       </c>
@@ -3856,16 +4397,16 @@
         <f t="shared" si="2"/>
         <v>1.1542233263741335</v>
       </c>
-      <c r="I21" s="74"/>
+      <c r="I21" s="132"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="90"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="51"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -3887,7 +4428,7 @@
         <f t="shared" si="3"/>
         <v>73894.59400177002</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="130"/>
       <c r="G22" s="13">
         <v>11</v>
       </c>
@@ -3895,16 +4436,16 @@
         <f t="shared" si="2"/>
         <v>1.3850679916489601</v>
       </c>
-      <c r="I22" s="74"/>
+      <c r="I22" s="132"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="90"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="51"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
@@ -3926,7 +4467,7 @@
         <f t="shared" si="3"/>
         <v>110841.89100265503</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="131"/>
       <c r="G23" s="21">
         <v>15</v>
       </c>
@@ -3934,16 +4475,16 @@
         <f t="shared" si="2"/>
         <v>1.662081589978752</v>
       </c>
-      <c r="I23" s="75"/>
+      <c r="I23" s="133"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="94"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="55"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -3956,8 +4497,8 @@
         <f>SUM(G4:G23)</f>
         <v>134</v>
       </c>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
       <c r="J24" s="7"/>
     </row>
   </sheetData>
@@ -4000,25 +4541,25 @@
     <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
     <col min="4" max="6" width="11.42578125" style="1"/>
     <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="22.7109375" style="55" customWidth="1"/>
+    <col min="8" max="9" width="22.7109375" style="41" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="52"/>
+    <col min="11" max="16384" width="11.42578125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="125"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -4059,16 +4600,16 @@
       <c r="A3" s="19">
         <v>0</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="127" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4088,7 +4629,7 @@
       <c r="E4" s="13">
         <v>50</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="130" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="13">
@@ -4097,11 +4638,11 @@
       <c r="H4" s="15">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="132" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="12"/>
-      <c r="K4" s="70"/>
+      <c r="K4" s="128"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -4123,7 +4664,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="13">
         <v>2</v>
       </c>
@@ -4131,9 +4672,9 @@
         <f>H4*1.6</f>
         <v>9.4444444444444445E-3</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="132"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="70"/>
+      <c r="K5" s="128"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -4155,7 +4696,7 @@
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="130"/>
       <c r="G6" s="13">
         <v>3</v>
       </c>
@@ -4163,9 +4704,9 @@
         <f t="shared" ref="H6:H11" si="1">H5*1.6</f>
         <v>1.5111111111111112E-2</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="70"/>
+      <c r="K6" s="128"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -4187,7 +4728,7 @@
         <f t="shared" si="0"/>
         <v>168.75</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="13">
         <v>3</v>
       </c>
@@ -4195,9 +4736,9 @@
         <f t="shared" si="1"/>
         <v>2.4177777777777781E-2</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="70"/>
+      <c r="K7" s="128"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -4219,7 +4760,7 @@
         <f t="shared" si="0"/>
         <v>253.125</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="130"/>
       <c r="G8" s="13">
         <v>4</v>
       </c>
@@ -4227,9 +4768,9 @@
         <f t="shared" si="1"/>
         <v>3.8684444444444452E-2</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="132"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="70"/>
+      <c r="K8" s="128"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -4251,7 +4792,7 @@
         <f t="shared" si="0"/>
         <v>379.6875</v>
       </c>
-      <c r="F9" s="72"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="13">
         <v>4</v>
       </c>
@@ -4259,9 +4800,9 @@
         <f t="shared" si="1"/>
         <v>6.1895111111111123E-2</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="70"/>
+      <c r="K9" s="128"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -4283,7 +4824,7 @@
         <f t="shared" si="0"/>
         <v>569.53125</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="130"/>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -4291,9 +4832,9 @@
         <f t="shared" si="1"/>
         <v>9.90321777777778E-2</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="70"/>
+      <c r="K10" s="128"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -4315,7 +4856,7 @@
         <f t="shared" si="0"/>
         <v>854.296875</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="130"/>
       <c r="G11" s="13">
         <v>5</v>
       </c>
@@ -4323,9 +4864,9 @@
         <f t="shared" si="1"/>
         <v>0.15845148444444448</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="70"/>
+      <c r="K11" s="128"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -4347,7 +4888,7 @@
         <f t="shared" si="0"/>
         <v>1281.4453125</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="130"/>
       <c r="G12" s="13">
         <v>6</v>
       </c>
@@ -4355,11 +4896,11 @@
         <f>H11*1.2</f>
         <v>0.19014178133333337</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="132" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="12"/>
-      <c r="K12" s="70"/>
+      <c r="K12" s="128"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -4381,7 +4922,7 @@
         <f t="shared" si="0"/>
         <v>1922.16796875</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="130"/>
       <c r="G13" s="13">
         <v>6</v>
       </c>
@@ -4389,9 +4930,9 @@
         <f t="shared" ref="H13:H23" si="2">H12*1.2</f>
         <v>0.22817013760000004</v>
       </c>
-      <c r="I13" s="74"/>
+      <c r="I13" s="132"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="128"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -4413,7 +4954,7 @@
         <f t="shared" si="0"/>
         <v>2883.251953125</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="130"/>
       <c r="G14" s="13">
         <v>7</v>
       </c>
@@ -4421,9 +4962,9 @@
         <f t="shared" si="2"/>
         <v>0.27380416512000005</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="70"/>
+      <c r="K14" s="128"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -4445,7 +4986,7 @@
         <f t="shared" si="0"/>
         <v>4324.8779296875</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="130"/>
       <c r="G15" s="13">
         <v>7</v>
       </c>
@@ -4453,9 +4994,9 @@
         <f t="shared" si="2"/>
         <v>0.32856499814400003</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="132"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="70"/>
+      <c r="K15" s="128"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -4477,7 +5018,7 @@
         <f t="shared" si="0"/>
         <v>6487.31689453125</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="130"/>
       <c r="G16" s="13">
         <v>8</v>
       </c>
@@ -4485,9 +5026,9 @@
         <f t="shared" si="2"/>
         <v>0.39427799777280004</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="132"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="70"/>
+      <c r="K16" s="128"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -4509,7 +5050,7 @@
         <f t="shared" si="0"/>
         <v>9730.975341796875</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="130"/>
       <c r="G17" s="13">
         <v>8</v>
       </c>
@@ -4517,9 +5058,9 @@
         <f t="shared" si="2"/>
         <v>0.47313359732736004</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="70"/>
+      <c r="K17" s="128"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -4541,7 +5082,7 @@
         <f t="shared" si="0"/>
         <v>14596.463012695313</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="13">
         <v>9</v>
       </c>
@@ -4549,9 +5090,9 @@
         <f t="shared" si="2"/>
         <v>0.56776031679283201</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="132"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="70"/>
+      <c r="K18" s="128"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -4573,7 +5114,7 @@
         <f t="shared" si="0"/>
         <v>21894.694519042969</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="130"/>
       <c r="G19" s="13">
         <v>9</v>
       </c>
@@ -4581,9 +5122,9 @@
         <f t="shared" si="2"/>
         <v>0.68131238015139839</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="132"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="70"/>
+      <c r="K19" s="128"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -4605,7 +5146,7 @@
         <f t="shared" si="0"/>
         <v>32842.041778564453</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="130"/>
       <c r="G20" s="13">
         <v>10</v>
       </c>
@@ -4613,9 +5154,9 @@
         <f t="shared" si="2"/>
         <v>0.81757485618167802</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="132"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="70"/>
+      <c r="K20" s="128"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -4637,7 +5178,7 @@
         <f t="shared" si="3"/>
         <v>49263.06266784668</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="130"/>
       <c r="G21" s="13">
         <v>10</v>
       </c>
@@ -4645,9 +5186,9 @@
         <f t="shared" si="2"/>
         <v>0.98108982741801354</v>
       </c>
-      <c r="I21" s="74"/>
+      <c r="I21" s="132"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="70"/>
+      <c r="K21" s="128"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -4669,7 +5210,7 @@
         <f t="shared" si="3"/>
         <v>73894.59400177002</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="130"/>
       <c r="G22" s="13">
         <v>11</v>
       </c>
@@ -4677,9 +5218,9 @@
         <f t="shared" si="2"/>
         <v>1.1773077929016162</v>
       </c>
-      <c r="I22" s="74"/>
+      <c r="I22" s="132"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="70"/>
+      <c r="K22" s="128"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
@@ -4701,7 +5242,7 @@
         <f t="shared" si="3"/>
         <v>110841.89100265503</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="131"/>
       <c r="G23" s="21">
         <v>15</v>
       </c>
@@ -4709,9 +5250,9 @@
         <f t="shared" si="2"/>
         <v>1.4127693514819395</v>
       </c>
-      <c r="I23" s="75"/>
+      <c r="I23" s="133"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="71"/>
+      <c r="K23" s="129"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G24" s="1">
@@ -4766,25 +5307,25 @@
     <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
     <col min="4" max="6" width="11.42578125" style="1"/>
     <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="22.7109375" style="55" customWidth="1"/>
+    <col min="8" max="9" width="22.7109375" style="41" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="52"/>
+    <col min="11" max="16384" width="11.42578125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="125"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -4825,16 +5366,16 @@
       <c r="A3" s="19">
         <v>0</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="127" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4854,7 +5395,7 @@
       <c r="E4" s="13">
         <v>50</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="130" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="13">
@@ -4863,13 +5404,13 @@
       <c r="H4" s="15">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="132" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="70"/>
+      <c r="K4" s="128"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -4891,7 +5432,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="13">
         <v>2</v>
       </c>
@@ -4899,9 +5440,9 @@
         <f>H4*1.6</f>
         <v>9.4444444444444445E-3</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="132"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="70"/>
+      <c r="K5" s="128"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -4923,7 +5464,7 @@
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="130"/>
       <c r="G6" s="13">
         <v>3</v>
       </c>
@@ -4931,9 +5472,9 @@
         <f t="shared" ref="H6:H11" si="1">H5*1.6</f>
         <v>1.5111111111111112E-2</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="70"/>
+      <c r="K6" s="128"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -4955,7 +5496,7 @@
         <f t="shared" si="0"/>
         <v>168.75</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="13">
         <v>3</v>
       </c>
@@ -4963,9 +5504,9 @@
         <f t="shared" si="1"/>
         <v>2.4177777777777781E-2</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="70"/>
+      <c r="K7" s="128"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -4987,7 +5528,7 @@
         <f t="shared" si="0"/>
         <v>253.125</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="130"/>
       <c r="G8" s="13">
         <v>4</v>
       </c>
@@ -4995,11 +5536,11 @@
         <f t="shared" si="1"/>
         <v>3.8684444444444452E-2</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="132"/>
       <c r="J8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="70"/>
+      <c r="K8" s="128"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -5021,7 +5562,7 @@
         <f t="shared" si="0"/>
         <v>379.6875</v>
       </c>
-      <c r="F9" s="72"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="13">
         <v>4</v>
       </c>
@@ -5029,9 +5570,9 @@
         <f t="shared" si="1"/>
         <v>6.1895111111111123E-2</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="70"/>
+      <c r="K9" s="128"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -5053,7 +5594,7 @@
         <f t="shared" si="0"/>
         <v>569.53125</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="130"/>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -5061,9 +5602,9 @@
         <f t="shared" si="1"/>
         <v>9.90321777777778E-2</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="70"/>
+      <c r="K10" s="128"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -5085,7 +5626,7 @@
         <f t="shared" si="0"/>
         <v>854.296875</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="130"/>
       <c r="G11" s="13">
         <v>5</v>
       </c>
@@ -5093,9 +5634,9 @@
         <f t="shared" si="1"/>
         <v>0.15845148444444448</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="70"/>
+      <c r="K11" s="128"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -5117,7 +5658,7 @@
         <f t="shared" si="0"/>
         <v>1281.4453125</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="130"/>
       <c r="G12" s="13">
         <v>6</v>
       </c>
@@ -5125,11 +5666,11 @@
         <f>H11*1.2</f>
         <v>0.19014178133333337</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="132" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="12"/>
-      <c r="K12" s="70"/>
+      <c r="K12" s="128"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -5151,7 +5692,7 @@
         <f t="shared" si="0"/>
         <v>1922.16796875</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="130"/>
       <c r="G13" s="13">
         <v>6</v>
       </c>
@@ -5159,9 +5700,9 @@
         <f t="shared" ref="H13:H23" si="2">H12*1.2</f>
         <v>0.22817013760000004</v>
       </c>
-      <c r="I13" s="74"/>
+      <c r="I13" s="132"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="128"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -5183,7 +5724,7 @@
         <f t="shared" si="0"/>
         <v>2883.251953125</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="130"/>
       <c r="G14" s="13">
         <v>7</v>
       </c>
@@ -5191,9 +5732,9 @@
         <f t="shared" si="2"/>
         <v>0.27380416512000005</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="70"/>
+      <c r="K14" s="128"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -5215,7 +5756,7 @@
         <f t="shared" si="0"/>
         <v>4324.8779296875</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="130"/>
       <c r="G15" s="13">
         <v>7</v>
       </c>
@@ -5223,11 +5764,11 @@
         <f t="shared" si="2"/>
         <v>0.32856499814400003</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="132"/>
       <c r="J15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="70"/>
+      <c r="K15" s="128"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -5249,7 +5790,7 @@
         <f t="shared" si="0"/>
         <v>6487.31689453125</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="130"/>
       <c r="G16" s="13">
         <v>8</v>
       </c>
@@ -5257,9 +5798,9 @@
         <f t="shared" si="2"/>
         <v>0.39427799777280004</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="132"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="70"/>
+      <c r="K16" s="128"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -5281,7 +5822,7 @@
         <f t="shared" si="0"/>
         <v>9730.975341796875</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="130"/>
       <c r="G17" s="13">
         <v>8</v>
       </c>
@@ -5289,9 +5830,9 @@
         <f t="shared" si="2"/>
         <v>0.47313359732736004</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="70"/>
+      <c r="K17" s="128"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -5313,7 +5854,7 @@
         <f t="shared" si="0"/>
         <v>14596.463012695313</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="13">
         <v>9</v>
       </c>
@@ -5321,9 +5862,9 @@
         <f t="shared" si="2"/>
         <v>0.56776031679283201</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="132"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="70"/>
+      <c r="K18" s="128"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -5345,7 +5886,7 @@
         <f t="shared" si="0"/>
         <v>21894.694519042969</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="130"/>
       <c r="G19" s="13">
         <v>9</v>
       </c>
@@ -5353,9 +5894,9 @@
         <f t="shared" si="2"/>
         <v>0.68131238015139839</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="132"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="70"/>
+      <c r="K19" s="128"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -5377,7 +5918,7 @@
         <f t="shared" si="0"/>
         <v>32842.041778564453</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="130"/>
       <c r="G20" s="13">
         <v>10</v>
       </c>
@@ -5385,11 +5926,11 @@
         <f t="shared" si="2"/>
         <v>0.81757485618167802</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="132"/>
       <c r="J20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="70"/>
+      <c r="K20" s="128"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -5411,7 +5952,7 @@
         <f t="shared" si="3"/>
         <v>49263.06266784668</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="130"/>
       <c r="G21" s="13">
         <v>10</v>
       </c>
@@ -5419,9 +5960,9 @@
         <f t="shared" si="2"/>
         <v>0.98108982741801354</v>
       </c>
-      <c r="I21" s="74"/>
+      <c r="I21" s="132"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="70"/>
+      <c r="K21" s="128"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -5443,7 +5984,7 @@
         <f t="shared" si="3"/>
         <v>73894.59400177002</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="130"/>
       <c r="G22" s="13">
         <v>11</v>
       </c>
@@ -5451,9 +5992,9 @@
         <f t="shared" si="2"/>
         <v>1.1773077929016162</v>
       </c>
-      <c r="I22" s="74"/>
+      <c r="I22" s="132"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="70"/>
+      <c r="K22" s="128"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
@@ -5475,7 +6016,7 @@
         <f t="shared" si="3"/>
         <v>110841.89100265503</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="131"/>
       <c r="G23" s="21">
         <v>15</v>
       </c>
@@ -5483,9 +6024,9 @@
         <f t="shared" si="2"/>
         <v>1.4127693514819395</v>
       </c>
-      <c r="I23" s="75"/>
+      <c r="I23" s="133"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="71"/>
+      <c r="K23" s="129"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G24" s="1">
@@ -5545,19 +6086,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="125"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -5598,16 +6139,16 @@
       <c r="A3" s="19">
         <v>0</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="127" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5627,7 +6168,7 @@
       <c r="E4" s="13">
         <v>50</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="130" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="13">
@@ -5636,13 +6177,13 @@
       <c r="H4" s="15">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="132" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="70"/>
+      <c r="K4" s="128"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -5664,7 +6205,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="13">
         <v>2</v>
       </c>
@@ -5672,9 +6213,9 @@
         <f>H4*1.6</f>
         <v>9.4444444444444445E-3</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="132"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="70"/>
+      <c r="K5" s="128"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -5696,7 +6237,7 @@
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="130"/>
       <c r="G6" s="13">
         <v>3</v>
       </c>
@@ -5704,9 +6245,9 @@
         <f t="shared" ref="H6:H11" si="1">H5*1.6</f>
         <v>1.5111111111111112E-2</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="70"/>
+      <c r="K6" s="128"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -5728,7 +6269,7 @@
         <f t="shared" si="2"/>
         <v>168.75</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="13">
         <v>3</v>
       </c>
@@ -5736,9 +6277,9 @@
         <f t="shared" si="1"/>
         <v>2.4177777777777781E-2</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="70"/>
+      <c r="K7" s="128"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -5760,7 +6301,7 @@
         <f t="shared" si="2"/>
         <v>253.125</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="130"/>
       <c r="G8" s="13">
         <v>4</v>
       </c>
@@ -5768,11 +6309,11 @@
         <f t="shared" si="1"/>
         <v>3.8684444444444452E-2</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="132"/>
       <c r="J8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="70"/>
+      <c r="K8" s="128"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -5794,7 +6335,7 @@
         <f t="shared" si="2"/>
         <v>379.6875</v>
       </c>
-      <c r="F9" s="72"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="13">
         <v>4</v>
       </c>
@@ -5802,9 +6343,9 @@
         <f t="shared" si="1"/>
         <v>6.1895111111111123E-2</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="70"/>
+      <c r="K9" s="128"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -5826,7 +6367,7 @@
         <f t="shared" si="2"/>
         <v>569.53125</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="130"/>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -5834,9 +6375,9 @@
         <f t="shared" si="1"/>
         <v>9.90321777777778E-2</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="70"/>
+      <c r="K10" s="128"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -5858,7 +6399,7 @@
         <f t="shared" si="2"/>
         <v>854.296875</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="130"/>
       <c r="G11" s="13">
         <v>5</v>
       </c>
@@ -5866,9 +6407,9 @@
         <f t="shared" si="1"/>
         <v>0.15845148444444448</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="70"/>
+      <c r="K11" s="128"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -5890,7 +6431,7 @@
         <f t="shared" si="2"/>
         <v>1281.4453125</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="130"/>
       <c r="G12" s="13">
         <v>6</v>
       </c>
@@ -5898,11 +6439,11 @@
         <f>H11*1.2</f>
         <v>0.19014178133333337</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="132" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="12"/>
-      <c r="K12" s="70"/>
+      <c r="K12" s="128"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -5924,7 +6465,7 @@
         <f t="shared" si="2"/>
         <v>1922.16796875</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="130"/>
       <c r="G13" s="13">
         <v>6</v>
       </c>
@@ -5932,9 +6473,9 @@
         <f t="shared" ref="H13:H23" si="3">H12*1.2</f>
         <v>0.22817013760000004</v>
       </c>
-      <c r="I13" s="74"/>
+      <c r="I13" s="132"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="128"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -5956,7 +6497,7 @@
         <f t="shared" si="2"/>
         <v>2883.251953125</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="130"/>
       <c r="G14" s="13">
         <v>7</v>
       </c>
@@ -5964,9 +6505,9 @@
         <f t="shared" si="3"/>
         <v>0.27380416512000005</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="70"/>
+      <c r="K14" s="128"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -5988,7 +6529,7 @@
         <f t="shared" si="2"/>
         <v>4324.8779296875</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="130"/>
       <c r="G15" s="13">
         <v>7</v>
       </c>
@@ -5996,11 +6537,11 @@
         <f t="shared" si="3"/>
         <v>0.32856499814400003</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="132"/>
       <c r="J15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="70"/>
+      <c r="K15" s="128"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -6022,7 +6563,7 @@
         <f t="shared" si="2"/>
         <v>6487.31689453125</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="130"/>
       <c r="G16" s="13">
         <v>8</v>
       </c>
@@ -6030,9 +6571,9 @@
         <f t="shared" si="3"/>
         <v>0.39427799777280004</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="132"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="70"/>
+      <c r="K16" s="128"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -6054,7 +6595,7 @@
         <f t="shared" si="2"/>
         <v>9730.975341796875</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="130"/>
       <c r="G17" s="13">
         <v>8</v>
       </c>
@@ -6062,9 +6603,9 @@
         <f t="shared" si="3"/>
         <v>0.47313359732736004</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="70"/>
+      <c r="K17" s="128"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -6086,7 +6627,7 @@
         <f t="shared" si="2"/>
         <v>14596.463012695313</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="13">
         <v>9</v>
       </c>
@@ -6094,9 +6635,9 @@
         <f t="shared" si="3"/>
         <v>0.56776031679283201</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="132"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="70"/>
+      <c r="K18" s="128"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -6118,7 +6659,7 @@
         <f t="shared" si="2"/>
         <v>21894.694519042969</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="130"/>
       <c r="G19" s="13">
         <v>9</v>
       </c>
@@ -6126,9 +6667,9 @@
         <f t="shared" si="3"/>
         <v>0.68131238015139839</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="132"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="70"/>
+      <c r="K19" s="128"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -6150,7 +6691,7 @@
         <f t="shared" si="2"/>
         <v>32842.041778564453</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="130"/>
       <c r="G20" s="13">
         <v>10</v>
       </c>
@@ -6158,11 +6699,11 @@
         <f t="shared" si="3"/>
         <v>0.81757485618167802</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="132"/>
       <c r="J20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="70"/>
+      <c r="K20" s="128"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -6184,7 +6725,7 @@
         <f t="shared" si="2"/>
         <v>49263.06266784668</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="130"/>
       <c r="G21" s="13">
         <v>10</v>
       </c>
@@ -6192,9 +6733,9 @@
         <f t="shared" si="3"/>
         <v>0.98108982741801354</v>
       </c>
-      <c r="I21" s="74"/>
+      <c r="I21" s="132"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="70"/>
+      <c r="K21" s="128"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -6216,7 +6757,7 @@
         <f t="shared" si="2"/>
         <v>73894.59400177002</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="130"/>
       <c r="G22" s="13">
         <v>11</v>
       </c>
@@ -6224,9 +6765,9 @@
         <f t="shared" si="3"/>
         <v>1.1773077929016162</v>
       </c>
-      <c r="I22" s="74"/>
+      <c r="I22" s="132"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="70"/>
+      <c r="K22" s="128"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
@@ -6248,7 +6789,7 @@
         <f t="shared" si="2"/>
         <v>110841.89100265503</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="131"/>
       <c r="G23" s="21">
         <v>15</v>
       </c>
@@ -6256,9 +6797,9 @@
         <f t="shared" si="3"/>
         <v>1.4127693514819395</v>
       </c>
-      <c r="I23" s="75"/>
+      <c r="I23" s="133"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="71"/>
+      <c r="K23" s="129"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G24" s="1">
@@ -6310,19 +6851,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="125"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -6363,16 +6904,16 @@
       <c r="A3" s="19">
         <v>0</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="127" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6392,7 +6933,7 @@
       <c r="E4" s="13">
         <v>50</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="130" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="13">
@@ -6401,13 +6942,13 @@
       <c r="H4" s="15">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="132" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="70"/>
+      <c r="K4" s="128"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -6429,7 +6970,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="13">
         <v>2</v>
       </c>
@@ -6437,9 +6978,9 @@
         <f>H4*1.6</f>
         <v>9.4444444444444445E-3</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="132"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="70"/>
+      <c r="K5" s="128"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -6461,7 +7002,7 @@
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="130"/>
       <c r="G6" s="13">
         <v>3</v>
       </c>
@@ -6469,9 +7010,9 @@
         <f t="shared" ref="H6:H11" si="1">H5*1.6</f>
         <v>1.5111111111111112E-2</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="70"/>
+      <c r="K6" s="128"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -6493,7 +7034,7 @@
         <f t="shared" si="0"/>
         <v>168.75</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="13">
         <v>3</v>
       </c>
@@ -6501,9 +7042,9 @@
         <f t="shared" si="1"/>
         <v>2.4177777777777781E-2</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="70"/>
+      <c r="K7" s="128"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -6525,7 +7066,7 @@
         <f t="shared" si="0"/>
         <v>253.125</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="130"/>
       <c r="G8" s="13">
         <v>4</v>
       </c>
@@ -6533,11 +7074,11 @@
         <f t="shared" si="1"/>
         <v>3.8684444444444452E-2</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="132"/>
       <c r="J8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="70"/>
+      <c r="K8" s="128"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -6559,7 +7100,7 @@
         <f t="shared" si="0"/>
         <v>379.6875</v>
       </c>
-      <c r="F9" s="72"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="13">
         <v>4</v>
       </c>
@@ -6567,9 +7108,9 @@
         <f t="shared" si="1"/>
         <v>6.1895111111111123E-2</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="70"/>
+      <c r="K9" s="128"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -6591,7 +7132,7 @@
         <f t="shared" si="0"/>
         <v>569.53125</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="130"/>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -6599,9 +7140,9 @@
         <f t="shared" si="1"/>
         <v>9.90321777777778E-2</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="70"/>
+      <c r="K10" s="128"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -6623,7 +7164,7 @@
         <f t="shared" si="0"/>
         <v>854.296875</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="130"/>
       <c r="G11" s="13">
         <v>5</v>
       </c>
@@ -6631,9 +7172,9 @@
         <f t="shared" si="1"/>
         <v>0.15845148444444448</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="70"/>
+      <c r="K11" s="128"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -6655,7 +7196,7 @@
         <f t="shared" si="0"/>
         <v>1281.4453125</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="130"/>
       <c r="G12" s="13">
         <v>6</v>
       </c>
@@ -6663,11 +7204,11 @@
         <f>H11*1.2</f>
         <v>0.19014178133333337</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="132" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="12"/>
-      <c r="K12" s="70"/>
+      <c r="K12" s="128"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -6689,7 +7230,7 @@
         <f t="shared" si="0"/>
         <v>1922.16796875</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="130"/>
       <c r="G13" s="13">
         <v>6</v>
       </c>
@@ -6697,9 +7238,9 @@
         <f t="shared" ref="H13:H23" si="2">H12*1.2</f>
         <v>0.22817013760000004</v>
       </c>
-      <c r="I13" s="74"/>
+      <c r="I13" s="132"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="128"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -6721,7 +7262,7 @@
         <f t="shared" si="0"/>
         <v>2883.251953125</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="130"/>
       <c r="G14" s="13">
         <v>7</v>
       </c>
@@ -6729,9 +7270,9 @@
         <f t="shared" si="2"/>
         <v>0.27380416512000005</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="70"/>
+      <c r="K14" s="128"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -6753,7 +7294,7 @@
         <f t="shared" si="0"/>
         <v>4324.8779296875</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="130"/>
       <c r="G15" s="13">
         <v>7</v>
       </c>
@@ -6761,11 +7302,11 @@
         <f t="shared" si="2"/>
         <v>0.32856499814400003</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="132"/>
       <c r="J15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="70"/>
+      <c r="K15" s="128"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -6787,7 +7328,7 @@
         <f t="shared" si="0"/>
         <v>6487.31689453125</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="130"/>
       <c r="G16" s="13">
         <v>8</v>
       </c>
@@ -6795,9 +7336,9 @@
         <f t="shared" si="2"/>
         <v>0.39427799777280004</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="132"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="70"/>
+      <c r="K16" s="128"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -6819,7 +7360,7 @@
         <f t="shared" si="0"/>
         <v>9730.975341796875</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="130"/>
       <c r="G17" s="13">
         <v>8</v>
       </c>
@@ -6827,9 +7368,9 @@
         <f t="shared" si="2"/>
         <v>0.47313359732736004</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="70"/>
+      <c r="K17" s="128"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -6851,7 +7392,7 @@
         <f t="shared" si="0"/>
         <v>14596.463012695313</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="13">
         <v>9</v>
       </c>
@@ -6859,9 +7400,9 @@
         <f t="shared" si="2"/>
         <v>0.56776031679283201</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="132"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="70"/>
+      <c r="K18" s="128"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -6883,7 +7424,7 @@
         <f t="shared" si="0"/>
         <v>21894.694519042969</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="130"/>
       <c r="G19" s="13">
         <v>9</v>
       </c>
@@ -6891,9 +7432,9 @@
         <f t="shared" si="2"/>
         <v>0.68131238015139839</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="132"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="70"/>
+      <c r="K19" s="128"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -6915,7 +7456,7 @@
         <f t="shared" si="0"/>
         <v>32842.041778564453</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="130"/>
       <c r="G20" s="13">
         <v>10</v>
       </c>
@@ -6923,11 +7464,11 @@
         <f t="shared" si="2"/>
         <v>0.81757485618167802</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="132"/>
       <c r="J20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="70"/>
+      <c r="K20" s="128"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -6949,7 +7490,7 @@
         <f t="shared" si="3"/>
         <v>49263.06266784668</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="130"/>
       <c r="G21" s="13">
         <v>10</v>
       </c>
@@ -6957,9 +7498,9 @@
         <f t="shared" si="2"/>
         <v>0.98108982741801354</v>
       </c>
-      <c r="I21" s="74"/>
+      <c r="I21" s="132"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="70"/>
+      <c r="K21" s="128"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -6981,7 +7522,7 @@
         <f t="shared" si="3"/>
         <v>73894.59400177002</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="130"/>
       <c r="G22" s="13">
         <v>11</v>
       </c>
@@ -6989,9 +7530,9 @@
         <f t="shared" si="2"/>
         <v>1.1773077929016162</v>
       </c>
-      <c r="I22" s="74"/>
+      <c r="I22" s="132"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="70"/>
+      <c r="K22" s="128"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
@@ -7013,7 +7554,7 @@
         <f t="shared" si="3"/>
         <v>110841.89100265503</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="131"/>
       <c r="G23" s="21">
         <v>15</v>
       </c>
@@ -7021,9 +7562,9 @@
         <f t="shared" si="2"/>
         <v>1.4127693514819395</v>
       </c>
-      <c r="I23" s="75"/>
+      <c r="I23" s="133"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="71"/>
+      <c r="K23" s="129"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -7036,10 +7577,10 @@
         <f>SUM(G4:G23)</f>
         <v>134</v>
       </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="52"/>
+      <c r="K24" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7073,19 +7614,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -7126,18 +7667,18 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
       <c r="J3" s="7">
         <v>500</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="122" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7157,7 +7698,7 @@
       <c r="E4" s="1">
         <v>30</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="113" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1">
@@ -7166,14 +7707,14 @@
       <c r="H4" s="2">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="114" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="7">
         <f>J3*1.4</f>
         <v>700</v>
       </c>
-      <c r="K4" s="80"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -7195,7 +7736,7 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
@@ -7203,12 +7744,12 @@
         <f>H4*1.5</f>
         <v>5.208333333333333E-3</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="114"/>
       <c r="J5" s="7">
         <f>J4*1.4</f>
         <v>979.99999999999989</v>
       </c>
-      <c r="K5" s="80"/>
+      <c r="K5" s="123"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -7230,7 +7771,7 @@
         <f t="shared" si="0"/>
         <v>67.5</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -7238,12 +7779,12 @@
         <f t="shared" ref="H6:H11" si="1">H5*1.5</f>
         <v>7.8125E-3</v>
       </c>
-      <c r="I6" s="63"/>
+      <c r="I6" s="114"/>
       <c r="J6" s="7">
         <f t="shared" ref="J6:J23" si="2">J5*1.4</f>
         <v>1371.9999999999998</v>
       </c>
-      <c r="K6" s="80"/>
+      <c r="K6" s="123"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -7265,7 +7806,7 @@
         <f t="shared" si="3"/>
         <v>101.25</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="1">
         <v>3</v>
       </c>
@@ -7273,12 +7814,12 @@
         <f t="shared" si="1"/>
         <v>1.171875E-2</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="114"/>
       <c r="J7" s="7">
         <f t="shared" si="2"/>
         <v>1920.7999999999995</v>
       </c>
-      <c r="K7" s="80"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -7300,7 +7841,7 @@
         <f t="shared" si="3"/>
         <v>151.875</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="113"/>
       <c r="G8" s="1">
         <v>2</v>
       </c>
@@ -7308,12 +7849,12 @@
         <f t="shared" si="1"/>
         <v>1.7578125E-2</v>
       </c>
-      <c r="I8" s="63"/>
+      <c r="I8" s="114"/>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
         <v>2689.119999999999</v>
       </c>
-      <c r="K8" s="80"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -7335,7 +7876,7 @@
         <f t="shared" si="3"/>
         <v>227.8125</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="1">
         <v>3</v>
       </c>
@@ -7343,12 +7884,12 @@
         <f t="shared" si="1"/>
         <v>2.63671875E-2</v>
       </c>
-      <c r="I9" s="63"/>
+      <c r="I9" s="114"/>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
         <v>3764.7679999999982</v>
       </c>
-      <c r="K9" s="80"/>
+      <c r="K9" s="123"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -7370,7 +7911,7 @@
         <f t="shared" si="3"/>
         <v>341.71875</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="113"/>
       <c r="G10" s="1">
         <v>2</v>
       </c>
@@ -7378,12 +7919,12 @@
         <f t="shared" si="1"/>
         <v>3.955078125E-2</v>
       </c>
-      <c r="I10" s="63"/>
+      <c r="I10" s="114"/>
       <c r="J10" s="7">
         <f t="shared" si="2"/>
         <v>5270.6751999999969</v>
       </c>
-      <c r="K10" s="80"/>
+      <c r="K10" s="123"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -7405,7 +7946,7 @@
         <f t="shared" si="3"/>
         <v>512.578125</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="1">
         <v>3</v>
       </c>
@@ -7413,12 +7954,12 @@
         <f t="shared" si="1"/>
         <v>5.9326171875E-2</v>
       </c>
-      <c r="I11" s="63"/>
+      <c r="I11" s="114"/>
       <c r="J11" s="7">
         <f t="shared" si="2"/>
         <v>7378.9452799999954</v>
       </c>
-      <c r="K11" s="80"/>
+      <c r="K11" s="123"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -7440,7 +7981,7 @@
         <f t="shared" si="3"/>
         <v>768.8671875</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="113"/>
       <c r="G12" s="1">
         <v>2</v>
       </c>
@@ -7448,14 +7989,14 @@
         <f>H11*1.3</f>
         <v>7.7124023437500008E-2</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="114" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" si="2"/>
         <v>10330.523391999994</v>
       </c>
-      <c r="K12" s="80"/>
+      <c r="K12" s="123"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -7477,7 +8018,7 @@
         <f t="shared" si="3"/>
         <v>1153.30078125</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="1">
         <v>3</v>
       </c>
@@ -7485,12 +8026,12 @@
         <f t="shared" ref="H13:H23" si="4">H12*1.3</f>
         <v>0.10026123046875002</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="114"/>
       <c r="J13" s="7">
         <f t="shared" si="2"/>
         <v>14462.73274879999</v>
       </c>
-      <c r="K13" s="80"/>
+      <c r="K13" s="123"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -7512,7 +8053,7 @@
         <f t="shared" si="3"/>
         <v>1729.951171875</v>
       </c>
-      <c r="F14" s="62"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -7520,12 +8061,12 @@
         <f t="shared" si="4"/>
         <v>0.13033959960937502</v>
       </c>
-      <c r="I14" s="63"/>
+      <c r="I14" s="114"/>
       <c r="J14" s="7">
         <f t="shared" si="2"/>
         <v>20247.825848319986</v>
       </c>
-      <c r="K14" s="80"/>
+      <c r="K14" s="123"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -7547,7 +8088,7 @@
         <f t="shared" si="3"/>
         <v>2594.9267578125</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="113"/>
       <c r="G15" s="1">
         <v>3</v>
       </c>
@@ -7555,12 +8096,12 @@
         <f t="shared" si="4"/>
         <v>0.16944147949218755</v>
       </c>
-      <c r="I15" s="63"/>
+      <c r="I15" s="114"/>
       <c r="J15" s="7">
         <f t="shared" si="2"/>
         <v>28346.956187647978</v>
       </c>
-      <c r="K15" s="80"/>
+      <c r="K15" s="123"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -7582,7 +8123,7 @@
         <f t="shared" si="3"/>
         <v>3892.39013671875</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="113"/>
       <c r="G16" s="1">
         <v>2</v>
       </c>
@@ -7590,12 +8131,12 @@
         <f t="shared" si="4"/>
         <v>0.22027392333984383</v>
       </c>
-      <c r="I16" s="63"/>
+      <c r="I16" s="114"/>
       <c r="J16" s="7">
         <f t="shared" si="2"/>
         <v>39685.738662707168</v>
       </c>
-      <c r="K16" s="80"/>
+      <c r="K16" s="123"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -7617,7 +8158,7 @@
         <f t="shared" si="3"/>
         <v>5838.585205078125</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="113"/>
       <c r="G17" s="1">
         <v>3</v>
       </c>
@@ -7625,12 +8166,12 @@
         <f t="shared" si="4"/>
         <v>0.28635610034179698</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="114"/>
       <c r="J17" s="7">
         <f t="shared" si="2"/>
         <v>55560.03412779003</v>
       </c>
-      <c r="K17" s="80"/>
+      <c r="K17" s="123"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -7652,7 +8193,7 @@
         <f t="shared" si="3"/>
         <v>8757.8778076171875</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="113"/>
       <c r="G18" s="1">
         <v>2</v>
       </c>
@@ -7660,12 +8201,12 @@
         <f t="shared" si="4"/>
         <v>0.37226293044433612</v>
       </c>
-      <c r="I18" s="63"/>
+      <c r="I18" s="114"/>
       <c r="J18" s="7">
         <f t="shared" si="2"/>
         <v>77784.047778906039</v>
       </c>
-      <c r="K18" s="80"/>
+      <c r="K18" s="123"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -7687,7 +8228,7 @@
         <f t="shared" si="3"/>
         <v>13136.816711425781</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="113"/>
       <c r="G19" s="1">
         <v>3</v>
       </c>
@@ -7695,12 +8236,12 @@
         <f t="shared" si="4"/>
         <v>0.48394180957763694</v>
       </c>
-      <c r="I19" s="63"/>
+      <c r="I19" s="114"/>
       <c r="J19" s="7">
         <f t="shared" si="2"/>
         <v>108897.66689046845</v>
       </c>
-      <c r="K19" s="80"/>
+      <c r="K19" s="123"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -7722,7 +8263,7 @@
         <f t="shared" si="3"/>
         <v>19705.225067138672</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="113"/>
       <c r="G20" s="1">
         <v>2</v>
       </c>
@@ -7730,12 +8271,12 @@
         <f t="shared" si="4"/>
         <v>0.62912435245092801</v>
       </c>
-      <c r="I20" s="63"/>
+      <c r="I20" s="114"/>
       <c r="J20" s="7">
         <f t="shared" si="2"/>
         <v>152456.7336466558</v>
       </c>
-      <c r="K20" s="80"/>
+      <c r="K20" s="123"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -7757,7 +8298,7 @@
         <f t="shared" si="3"/>
         <v>29557.837600708008</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="113"/>
       <c r="G21" s="1">
         <v>3</v>
       </c>
@@ -7765,12 +8306,12 @@
         <f t="shared" si="4"/>
         <v>0.81786165818620649</v>
       </c>
-      <c r="I21" s="63"/>
+      <c r="I21" s="114"/>
       <c r="J21" s="7">
         <f t="shared" si="2"/>
         <v>213439.42710531811</v>
       </c>
-      <c r="K21" s="80"/>
+      <c r="K21" s="123"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -7792,7 +8333,7 @@
         <f t="shared" si="3"/>
         <v>44336.756401062012</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="113"/>
       <c r="G22" s="1">
         <v>2</v>
       </c>
@@ -7800,12 +8341,12 @@
         <f t="shared" si="4"/>
         <v>1.0632201556420684</v>
       </c>
-      <c r="I22" s="63"/>
+      <c r="I22" s="114"/>
       <c r="J22" s="7">
         <f t="shared" si="2"/>
         <v>298815.19794744533</v>
       </c>
-      <c r="K22" s="80"/>
+      <c r="K22" s="123"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -7827,7 +8368,7 @@
         <f t="shared" si="3"/>
         <v>66505.134601593018</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="113"/>
       <c r="G23" s="1">
         <v>3</v>
       </c>
@@ -7835,12 +8376,12 @@
         <f t="shared" si="4"/>
         <v>1.3821862023346889</v>
       </c>
-      <c r="I23" s="63"/>
+      <c r="I23" s="114"/>
       <c r="J23" s="7">
         <f t="shared" si="2"/>
         <v>418341.27712642343</v>
       </c>
-      <c r="K23" s="82"/>
+      <c r="K23" s="143"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -7889,7 +8430,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="44" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7932,19 +8473,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="52"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -7973,24 +8514,24 @@
       <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
       <c r="J3" s="7">
         <v>20</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="113" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8010,7 +8551,7 @@
       <c r="E4" s="1">
         <v>15</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="113" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1">
@@ -8020,14 +8561,14 @@
         <f t="shared" ref="H4:H8" si="0">H5/1.8</f>
         <v>1.8319664323661843E-3</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="114" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="7">
         <f>J3*1.5</f>
         <v>30</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="113"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -8049,7 +8590,7 @@
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="1">
         <v>1</v>
       </c>
@@ -8057,12 +8598,12 @@
         <f t="shared" si="0"/>
         <v>3.2975395782591319E-3</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="114"/>
       <c r="J5" s="7">
         <f>J4*1.5</f>
         <v>45</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="113"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -8084,7 +8625,7 @@
         <f t="shared" si="1"/>
         <v>33.75</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -8092,12 +8633,12 @@
         <f t="shared" si="0"/>
         <v>5.9355712408664376E-3</v>
       </c>
-      <c r="I6" s="63"/>
+      <c r="I6" s="114"/>
       <c r="J6" s="7">
         <f t="shared" ref="J6:J11" si="2">J5*1.5</f>
         <v>67.5</v>
       </c>
-      <c r="K6" s="62"/>
+      <c r="K6" s="113"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -8119,7 +8660,7 @@
         <f t="shared" si="1"/>
         <v>50.625</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -8127,12 +8668,12 @@
         <f t="shared" si="0"/>
         <v>1.0684028233559588E-2</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="114"/>
       <c r="J7" s="7">
         <f t="shared" si="2"/>
         <v>101.25</v>
       </c>
-      <c r="K7" s="62"/>
+      <c r="K7" s="113"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -8154,7 +8695,7 @@
         <f t="shared" si="1"/>
         <v>75.9375</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="113"/>
       <c r="G8" s="1">
         <v>3</v>
       </c>
@@ -8162,12 +8703,12 @@
         <f t="shared" si="0"/>
         <v>1.9231250820407258E-2</v>
       </c>
-      <c r="I8" s="63"/>
+      <c r="I8" s="114"/>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
         <v>151.875</v>
       </c>
-      <c r="K8" s="62"/>
+      <c r="K8" s="113"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -8189,7 +8730,7 @@
         <f t="shared" si="1"/>
         <v>113.90625</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="1">
         <v>3</v>
       </c>
@@ -8197,12 +8738,12 @@
         <f>H10/1.8</f>
         <v>3.4616251476733063E-2</v>
       </c>
-      <c r="I9" s="63"/>
+      <c r="I9" s="114"/>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
         <v>227.8125</v>
       </c>
-      <c r="K9" s="62"/>
+      <c r="K9" s="113"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -8224,7 +8765,7 @@
         <f t="shared" si="1"/>
         <v>170.859375</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="113"/>
       <c r="G10" s="1">
         <v>4</v>
       </c>
@@ -8232,12 +8773,12 @@
         <f>H11/1.8</f>
         <v>6.2309252658119513E-2</v>
       </c>
-      <c r="I10" s="63"/>
+      <c r="I10" s="114"/>
       <c r="J10" s="7">
         <f t="shared" si="2"/>
         <v>341.71875</v>
       </c>
-      <c r="K10" s="62"/>
+      <c r="K10" s="113"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -8259,7 +8800,7 @@
         <f t="shared" si="1"/>
         <v>256.2890625</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="1">
         <v>4</v>
       </c>
@@ -8267,12 +8808,12 @@
         <f t="shared" ref="H11:H20" si="3">H12/1.2</f>
         <v>0.11215665478461513</v>
       </c>
-      <c r="I11" s="63"/>
+      <c r="I11" s="114"/>
       <c r="J11" s="7">
         <f t="shared" si="2"/>
         <v>512.578125</v>
       </c>
-      <c r="K11" s="62"/>
+      <c r="K11" s="113"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -8294,7 +8835,7 @@
         <f t="shared" si="1"/>
         <v>384.43359375</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="113"/>
       <c r="G12" s="1">
         <v>4</v>
       </c>
@@ -8302,14 +8843,14 @@
         <f t="shared" si="3"/>
         <v>0.13458798574153816</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="114" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="7">
         <f>J11*1.5</f>
         <v>768.8671875</v>
       </c>
-      <c r="K12" s="62"/>
+      <c r="K12" s="113"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -8331,7 +8872,7 @@
         <f t="shared" si="1"/>
         <v>576.650390625</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="1">
         <v>5</v>
       </c>
@@ -8339,12 +8880,12 @@
         <f t="shared" si="3"/>
         <v>0.16150558288984579</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="114"/>
       <c r="J13" s="7">
         <f>J12*1.5</f>
         <v>1153.30078125</v>
       </c>
-      <c r="K13" s="62"/>
+      <c r="K13" s="113"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -8366,7 +8907,7 @@
         <f t="shared" si="1"/>
         <v>864.9755859375</v>
       </c>
-      <c r="F14" s="62"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="1">
         <v>5</v>
       </c>
@@ -8374,12 +8915,12 @@
         <f t="shared" si="3"/>
         <v>0.19380669946781492</v>
       </c>
-      <c r="I14" s="63"/>
+      <c r="I14" s="114"/>
       <c r="J14" s="7">
         <f>J13*1.2</f>
         <v>1383.9609375</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="113" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8403,7 +8944,7 @@
         <f t="shared" si="1"/>
         <v>1297.46337890625</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="113"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -8411,12 +8952,12 @@
         <f t="shared" si="3"/>
         <v>0.2325680393613779</v>
       </c>
-      <c r="I15" s="63"/>
+      <c r="I15" s="114"/>
       <c r="J15" s="7">
         <f>J14*1.2</f>
         <v>1660.753125</v>
       </c>
-      <c r="K15" s="62"/>
+      <c r="K15" s="113"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -8438,7 +8979,7 @@
         <f t="shared" si="1"/>
         <v>1946.195068359375</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="113"/>
       <c r="G16" s="1">
         <v>6</v>
       </c>
@@ -8446,12 +8987,12 @@
         <f t="shared" si="3"/>
         <v>0.27908164723365347</v>
       </c>
-      <c r="I16" s="63"/>
+      <c r="I16" s="114"/>
       <c r="J16" s="7">
         <f t="shared" ref="J16:J22" si="4">J15*1.2</f>
         <v>1992.9037499999999</v>
       </c>
-      <c r="K16" s="62"/>
+      <c r="K16" s="113"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -8473,7 +9014,7 @@
         <f t="shared" si="1"/>
         <v>2919.2926025390625</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="113"/>
       <c r="G17" s="1">
         <v>6</v>
       </c>
@@ -8481,12 +9022,12 @@
         <f t="shared" si="3"/>
         <v>0.33489797668038418</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="114"/>
       <c r="J17" s="7">
         <f t="shared" si="4"/>
         <v>2391.4845</v>
       </c>
-      <c r="K17" s="62"/>
+      <c r="K17" s="113"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -8508,7 +9049,7 @@
         <f t="shared" si="1"/>
         <v>4378.9389038085937</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="113"/>
       <c r="G18" s="1">
         <v>6</v>
       </c>
@@ -8516,12 +9057,12 @@
         <f t="shared" si="3"/>
         <v>0.40187757201646102</v>
       </c>
-      <c r="I18" s="63"/>
+      <c r="I18" s="114"/>
       <c r="J18" s="7">
         <f t="shared" si="4"/>
         <v>2869.7813999999998</v>
       </c>
-      <c r="K18" s="62"/>
+      <c r="K18" s="113"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -8543,7 +9084,7 @@
         <f t="shared" si="1"/>
         <v>6568.4083557128906</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="113"/>
       <c r="G19" s="1">
         <v>7</v>
       </c>
@@ -8551,12 +9092,12 @@
         <f t="shared" si="3"/>
         <v>0.48225308641975323</v>
       </c>
-      <c r="I19" s="63"/>
+      <c r="I19" s="114"/>
       <c r="J19" s="7">
         <f t="shared" si="4"/>
         <v>3443.7376799999997</v>
       </c>
-      <c r="K19" s="62"/>
+      <c r="K19" s="113"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -8578,7 +9119,7 @@
         <f t="shared" si="1"/>
         <v>9852.6125335693359</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="113"/>
       <c r="G20" s="1">
         <v>7</v>
       </c>
@@ -8586,12 +9127,12 @@
         <f t="shared" si="3"/>
         <v>0.57870370370370383</v>
       </c>
-      <c r="I20" s="63"/>
+      <c r="I20" s="114"/>
       <c r="J20" s="7">
         <f t="shared" si="4"/>
         <v>4132.4852159999991</v>
       </c>
-      <c r="K20" s="62"/>
+      <c r="K20" s="113"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -8613,7 +9154,7 @@
         <f t="shared" si="5"/>
         <v>14778.918800354004</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="113"/>
       <c r="G21" s="1">
         <v>7</v>
       </c>
@@ -8621,12 +9162,12 @@
         <f>H22/1.2</f>
         <v>0.69444444444444453</v>
       </c>
-      <c r="I21" s="63"/>
+      <c r="I21" s="114"/>
       <c r="J21" s="7">
         <f t="shared" si="4"/>
         <v>4958.9822591999991</v>
       </c>
-      <c r="K21" s="62"/>
+      <c r="K21" s="113"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -8648,7 +9189,7 @@
         <f t="shared" si="5"/>
         <v>22168.378200531006</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="113"/>
       <c r="G22" s="1">
         <v>8</v>
       </c>
@@ -8656,12 +9197,12 @@
         <f>H23/1.2</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="I22" s="63"/>
+      <c r="I22" s="114"/>
       <c r="J22" s="7">
         <f t="shared" si="4"/>
         <v>5950.7787110399986</v>
       </c>
-      <c r="K22" s="62"/>
+      <c r="K22" s="113"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -8683,19 +9224,19 @@
         <f t="shared" si="5"/>
         <v>33252.567300796509</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="113"/>
       <c r="G23" s="1">
         <v>8</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="63"/>
+      <c r="I23" s="114"/>
       <c r="J23" s="7">
         <f>J22*1.2</f>
         <v>7140.9344532479981</v>
       </c>
-      <c r="K23" s="62"/>
+      <c r="K23" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8722,19 +9263,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="52"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -8763,24 +9304,24 @@
       <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
       <c r="J3" s="7">
         <v>20</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="113" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8800,7 +9341,7 @@
       <c r="E4" s="1">
         <v>15</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="113" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1">
@@ -8810,14 +9351,14 @@
         <f t="shared" ref="H4:H8" si="0">H5/1.8</f>
         <v>1.8319664323661843E-3</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="114" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="7">
         <f>J3*1.5</f>
         <v>30</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="113"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -8839,7 +9380,7 @@
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="1">
         <v>1</v>
       </c>
@@ -8847,12 +9388,12 @@
         <f t="shared" si="0"/>
         <v>3.2975395782591319E-3</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="114"/>
       <c r="J5" s="7">
         <f>J4*1.5</f>
         <v>45</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="113"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -8874,7 +9415,7 @@
         <f t="shared" si="1"/>
         <v>33.75</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -8882,12 +9423,12 @@
         <f t="shared" si="0"/>
         <v>5.9355712408664376E-3</v>
       </c>
-      <c r="I6" s="63"/>
+      <c r="I6" s="114"/>
       <c r="J6" s="7">
         <f t="shared" ref="J6:J11" si="2">J5*1.5</f>
         <v>67.5</v>
       </c>
-      <c r="K6" s="62"/>
+      <c r="K6" s="113"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -8909,7 +9450,7 @@
         <f t="shared" si="1"/>
         <v>50.625</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -8917,12 +9458,12 @@
         <f t="shared" si="0"/>
         <v>1.0684028233559588E-2</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="114"/>
       <c r="J7" s="7">
         <f t="shared" si="2"/>
         <v>101.25</v>
       </c>
-      <c r="K7" s="62"/>
+      <c r="K7" s="113"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -8944,7 +9485,7 @@
         <f t="shared" si="1"/>
         <v>75.9375</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="113"/>
       <c r="G8" s="1">
         <v>3</v>
       </c>
@@ -8952,12 +9493,12 @@
         <f t="shared" si="0"/>
         <v>1.9231250820407258E-2</v>
       </c>
-      <c r="I8" s="63"/>
+      <c r="I8" s="114"/>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
         <v>151.875</v>
       </c>
-      <c r="K8" s="62"/>
+      <c r="K8" s="113"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -8979,7 +9520,7 @@
         <f t="shared" si="1"/>
         <v>113.90625</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="1">
         <v>3</v>
       </c>
@@ -8987,12 +9528,12 @@
         <f>H10/1.8</f>
         <v>3.4616251476733063E-2</v>
       </c>
-      <c r="I9" s="63"/>
+      <c r="I9" s="114"/>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
         <v>227.8125</v>
       </c>
-      <c r="K9" s="62"/>
+      <c r="K9" s="113"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -9014,7 +9555,7 @@
         <f t="shared" si="1"/>
         <v>170.859375</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="113"/>
       <c r="G10" s="1">
         <v>4</v>
       </c>
@@ -9022,12 +9563,12 @@
         <f>H11/1.8</f>
         <v>6.2309252658119513E-2</v>
       </c>
-      <c r="I10" s="63"/>
+      <c r="I10" s="114"/>
       <c r="J10" s="7">
         <f t="shared" si="2"/>
         <v>341.71875</v>
       </c>
-      <c r="K10" s="62"/>
+      <c r="K10" s="113"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -9049,7 +9590,7 @@
         <f t="shared" si="1"/>
         <v>256.2890625</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="1">
         <v>4</v>
       </c>
@@ -9057,12 +9598,12 @@
         <f t="shared" ref="H11:H20" si="3">H12/1.2</f>
         <v>0.11215665478461513</v>
       </c>
-      <c r="I11" s="63"/>
+      <c r="I11" s="114"/>
       <c r="J11" s="7">
         <f t="shared" si="2"/>
         <v>512.578125</v>
       </c>
-      <c r="K11" s="62"/>
+      <c r="K11" s="113"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -9084,7 +9625,7 @@
         <f t="shared" si="1"/>
         <v>384.43359375</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="113"/>
       <c r="G12" s="1">
         <v>4</v>
       </c>
@@ -9092,14 +9633,14 @@
         <f t="shared" si="3"/>
         <v>0.13458798574153816</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="114" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="7">
         <f>J11*1.5</f>
         <v>768.8671875</v>
       </c>
-      <c r="K12" s="62"/>
+      <c r="K12" s="113"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -9121,7 +9662,7 @@
         <f t="shared" si="1"/>
         <v>576.650390625</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="1">
         <v>5</v>
       </c>
@@ -9129,12 +9670,12 @@
         <f t="shared" si="3"/>
         <v>0.16150558288984579</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="114"/>
       <c r="J13" s="7">
         <f>J12*1.5</f>
         <v>1153.30078125</v>
       </c>
-      <c r="K13" s="62"/>
+      <c r="K13" s="113"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -9156,7 +9697,7 @@
         <f t="shared" si="1"/>
         <v>864.9755859375</v>
       </c>
-      <c r="F14" s="62"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="1">
         <v>5</v>
       </c>
@@ -9164,12 +9705,12 @@
         <f t="shared" si="3"/>
         <v>0.19380669946781492</v>
       </c>
-      <c r="I14" s="63"/>
+      <c r="I14" s="114"/>
       <c r="J14" s="7">
         <f>J13*1.2</f>
         <v>1383.9609375</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="113" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9193,7 +9734,7 @@
         <f t="shared" si="1"/>
         <v>1297.46337890625</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="113"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -9201,12 +9742,12 @@
         <f t="shared" si="3"/>
         <v>0.2325680393613779</v>
       </c>
-      <c r="I15" s="63"/>
+      <c r="I15" s="114"/>
       <c r="J15" s="7">
         <f>J14*1.2</f>
         <v>1660.753125</v>
       </c>
-      <c r="K15" s="62"/>
+      <c r="K15" s="113"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -9228,7 +9769,7 @@
         <f t="shared" si="1"/>
         <v>1946.195068359375</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="113"/>
       <c r="G16" s="1">
         <v>6</v>
       </c>
@@ -9236,12 +9777,12 @@
         <f t="shared" si="3"/>
         <v>0.27908164723365347</v>
       </c>
-      <c r="I16" s="63"/>
+      <c r="I16" s="114"/>
       <c r="J16" s="7">
         <f t="shared" ref="J16:J22" si="4">J15*1.2</f>
         <v>1992.9037499999999</v>
       </c>
-      <c r="K16" s="62"/>
+      <c r="K16" s="113"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -9263,7 +9804,7 @@
         <f t="shared" si="1"/>
         <v>2919.2926025390625</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="113"/>
       <c r="G17" s="1">
         <v>6</v>
       </c>
@@ -9271,12 +9812,12 @@
         <f t="shared" si="3"/>
         <v>0.33489797668038418</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="114"/>
       <c r="J17" s="7">
         <f t="shared" si="4"/>
         <v>2391.4845</v>
       </c>
-      <c r="K17" s="62"/>
+      <c r="K17" s="113"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -9298,7 +9839,7 @@
         <f t="shared" si="1"/>
         <v>4378.9389038085937</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="113"/>
       <c r="G18" s="1">
         <v>6</v>
       </c>
@@ -9306,12 +9847,12 @@
         <f t="shared" si="3"/>
         <v>0.40187757201646102</v>
       </c>
-      <c r="I18" s="63"/>
+      <c r="I18" s="114"/>
       <c r="J18" s="7">
         <f t="shared" si="4"/>
         <v>2869.7813999999998</v>
       </c>
-      <c r="K18" s="62"/>
+      <c r="K18" s="113"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -9333,7 +9874,7 @@
         <f t="shared" si="1"/>
         <v>6568.4083557128906</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="113"/>
       <c r="G19" s="1">
         <v>7</v>
       </c>
@@ -9341,12 +9882,12 @@
         <f t="shared" si="3"/>
         <v>0.48225308641975323</v>
       </c>
-      <c r="I19" s="63"/>
+      <c r="I19" s="114"/>
       <c r="J19" s="7">
         <f t="shared" si="4"/>
         <v>3443.7376799999997</v>
       </c>
-      <c r="K19" s="62"/>
+      <c r="K19" s="113"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -9368,7 +9909,7 @@
         <f t="shared" si="1"/>
         <v>9852.6125335693359</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="113"/>
       <c r="G20" s="1">
         <v>7</v>
       </c>
@@ -9376,12 +9917,12 @@
         <f t="shared" si="3"/>
         <v>0.57870370370370383</v>
       </c>
-      <c r="I20" s="63"/>
+      <c r="I20" s="114"/>
       <c r="J20" s="7">
         <f t="shared" si="4"/>
         <v>4132.4852159999991</v>
       </c>
-      <c r="K20" s="62"/>
+      <c r="K20" s="113"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -9403,7 +9944,7 @@
         <f t="shared" si="5"/>
         <v>14778.918800354004</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="113"/>
       <c r="G21" s="1">
         <v>7</v>
       </c>
@@ -9411,12 +9952,12 @@
         <f>H22/1.2</f>
         <v>0.69444444444444453</v>
       </c>
-      <c r="I21" s="63"/>
+      <c r="I21" s="114"/>
       <c r="J21" s="7">
         <f t="shared" si="4"/>
         <v>4958.9822591999991</v>
       </c>
-      <c r="K21" s="62"/>
+      <c r="K21" s="113"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -9438,7 +9979,7 @@
         <f t="shared" si="5"/>
         <v>22168.378200531006</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="113"/>
       <c r="G22" s="1">
         <v>8</v>
       </c>
@@ -9446,12 +9987,12 @@
         <f>H23/1.2</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="I22" s="63"/>
+      <c r="I22" s="114"/>
       <c r="J22" s="7">
         <f t="shared" si="4"/>
         <v>5950.7787110399986</v>
       </c>
-      <c r="K22" s="62"/>
+      <c r="K22" s="113"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -9473,19 +10014,19 @@
         <f t="shared" si="5"/>
         <v>33252.567300796509</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="113"/>
       <c r="G23" s="1">
         <v>8</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="63"/>
+      <c r="I23" s="114"/>
       <c r="J23" s="7">
         <f>J22*1.2</f>
         <v>7140.9344532479981</v>
       </c>
-      <c r="K23" s="62"/>
+      <c r="K23" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9511,22 +10052,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="52"/>
+    <col min="1" max="16384" width="11.42578125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -9560,18 +10101,18 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
       <c r="J3" s="7">
         <v>20</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="113" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9591,7 +10132,7 @@
       <c r="E4" s="1">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="113" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1">
@@ -9601,14 +10142,14 @@
         <f t="shared" ref="H4:H8" si="0">H5/1.8</f>
         <v>1.8319664323661843E-3</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="114" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="7">
         <f>J3*1.5</f>
         <v>30</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="113"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -9630,7 +10171,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="1">
         <v>1</v>
       </c>
@@ -9638,12 +10179,12 @@
         <f t="shared" si="0"/>
         <v>3.2975395782591319E-3</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="114"/>
       <c r="J5" s="7">
         <f>J4*1.5</f>
         <v>45</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="113"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -9665,7 +10206,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -9673,12 +10214,12 @@
         <f t="shared" si="0"/>
         <v>5.9355712408664376E-3</v>
       </c>
-      <c r="I6" s="63"/>
+      <c r="I6" s="114"/>
       <c r="J6" s="7">
         <f t="shared" ref="J6:J11" si="2">J5*1.5</f>
         <v>67.5</v>
       </c>
-      <c r="K6" s="62"/>
+      <c r="K6" s="113"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -9700,7 +10241,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -9708,12 +10249,12 @@
         <f t="shared" si="0"/>
         <v>1.0684028233559588E-2</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="114"/>
       <c r="J7" s="7">
         <f t="shared" si="2"/>
         <v>101.25</v>
       </c>
-      <c r="K7" s="62"/>
+      <c r="K7" s="113"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -9735,7 +10276,7 @@
         <f t="shared" si="1"/>
         <v>40.5</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="113"/>
       <c r="G8" s="1">
         <v>3</v>
       </c>
@@ -9743,12 +10284,12 @@
         <f t="shared" si="0"/>
         <v>1.9231250820407258E-2</v>
       </c>
-      <c r="I8" s="63"/>
+      <c r="I8" s="114"/>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
         <v>151.875</v>
       </c>
-      <c r="K8" s="62"/>
+      <c r="K8" s="113"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -9770,7 +10311,7 @@
         <f t="shared" si="1"/>
         <v>60.75</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="1">
         <v>3</v>
       </c>
@@ -9778,12 +10319,12 @@
         <f>H10/1.8</f>
         <v>3.4616251476733063E-2</v>
       </c>
-      <c r="I9" s="63"/>
+      <c r="I9" s="114"/>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
         <v>227.8125</v>
       </c>
-      <c r="K9" s="62"/>
+      <c r="K9" s="113"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -9805,7 +10346,7 @@
         <f t="shared" si="1"/>
         <v>91.125</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="113"/>
       <c r="G10" s="1">
         <v>4</v>
       </c>
@@ -9813,12 +10354,12 @@
         <f>H11/1.8</f>
         <v>6.2309252658119513E-2</v>
       </c>
-      <c r="I10" s="63"/>
+      <c r="I10" s="114"/>
       <c r="J10" s="7">
         <f t="shared" si="2"/>
         <v>341.71875</v>
       </c>
-      <c r="K10" s="62"/>
+      <c r="K10" s="113"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -9840,7 +10381,7 @@
         <f t="shared" si="1"/>
         <v>136.6875</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="1">
         <v>4</v>
       </c>
@@ -9848,12 +10389,12 @@
         <f t="shared" ref="H11:H20" si="3">H12/1.2</f>
         <v>0.11215665478461513</v>
       </c>
-      <c r="I11" s="63"/>
+      <c r="I11" s="114"/>
       <c r="J11" s="7">
         <f t="shared" si="2"/>
         <v>512.578125</v>
       </c>
-      <c r="K11" s="62"/>
+      <c r="K11" s="113"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -9875,7 +10416,7 @@
         <f t="shared" si="1"/>
         <v>205.03125</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="113"/>
       <c r="G12" s="1">
         <v>4</v>
       </c>
@@ -9883,14 +10424,14 @@
         <f t="shared" si="3"/>
         <v>0.13458798574153816</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="114" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="7">
         <f>J11*1.5</f>
         <v>768.8671875</v>
       </c>
-      <c r="K12" s="62"/>
+      <c r="K12" s="113"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -9912,7 +10453,7 @@
         <f t="shared" si="1"/>
         <v>307.546875</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="1">
         <v>5</v>
       </c>
@@ -9920,12 +10461,12 @@
         <f t="shared" si="3"/>
         <v>0.16150558288984579</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="114"/>
       <c r="J13" s="7">
         <f>J12*1.5</f>
         <v>1153.30078125</v>
       </c>
-      <c r="K13" s="62"/>
+      <c r="K13" s="113"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -9947,7 +10488,7 @@
         <f t="shared" si="1"/>
         <v>461.3203125</v>
       </c>
-      <c r="F14" s="62"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="1">
         <v>5</v>
       </c>
@@ -9955,12 +10496,12 @@
         <f t="shared" si="3"/>
         <v>0.19380669946781492</v>
       </c>
-      <c r="I14" s="63"/>
+      <c r="I14" s="114"/>
       <c r="J14" s="7">
         <f>J13*1.2</f>
         <v>1383.9609375</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="113" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9984,7 +10525,7 @@
         <f t="shared" si="1"/>
         <v>691.98046875</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="113"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -9992,12 +10533,12 @@
         <f t="shared" si="3"/>
         <v>0.2325680393613779</v>
       </c>
-      <c r="I15" s="63"/>
+      <c r="I15" s="114"/>
       <c r="J15" s="7">
         <f>J14*1.2</f>
         <v>1660.753125</v>
       </c>
-      <c r="K15" s="62"/>
+      <c r="K15" s="113"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -10019,7 +10560,7 @@
         <f t="shared" si="1"/>
         <v>1037.970703125</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="113"/>
       <c r="G16" s="1">
         <v>6</v>
       </c>
@@ -10027,12 +10568,12 @@
         <f t="shared" si="3"/>
         <v>0.27908164723365347</v>
       </c>
-      <c r="I16" s="63"/>
+      <c r="I16" s="114"/>
       <c r="J16" s="7">
         <f t="shared" ref="J16:J22" si="4">J15*1.2</f>
         <v>1992.9037499999999</v>
       </c>
-      <c r="K16" s="62"/>
+      <c r="K16" s="113"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -10054,7 +10595,7 @@
         <f t="shared" si="1"/>
         <v>1556.9560546875</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="113"/>
       <c r="G17" s="1">
         <v>6</v>
       </c>
@@ -10062,12 +10603,12 @@
         <f t="shared" si="3"/>
         <v>0.33489797668038418</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="114"/>
       <c r="J17" s="7">
         <f t="shared" si="4"/>
         <v>2391.4845</v>
       </c>
-      <c r="K17" s="62"/>
+      <c r="K17" s="113"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -10089,7 +10630,7 @@
         <f t="shared" si="1"/>
         <v>2335.43408203125</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="113"/>
       <c r="G18" s="1">
         <v>6</v>
       </c>
@@ -10097,12 +10638,12 @@
         <f t="shared" si="3"/>
         <v>0.40187757201646102</v>
       </c>
-      <c r="I18" s="63"/>
+      <c r="I18" s="114"/>
       <c r="J18" s="7">
         <f t="shared" si="4"/>
         <v>2869.7813999999998</v>
       </c>
-      <c r="K18" s="62"/>
+      <c r="K18" s="113"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -10124,7 +10665,7 @@
         <f t="shared" si="1"/>
         <v>3503.151123046875</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="113"/>
       <c r="G19" s="1">
         <v>7</v>
       </c>
@@ -10132,12 +10673,12 @@
         <f t="shared" si="3"/>
         <v>0.48225308641975323</v>
       </c>
-      <c r="I19" s="63"/>
+      <c r="I19" s="114"/>
       <c r="J19" s="7">
         <f t="shared" si="4"/>
         <v>3443.7376799999997</v>
       </c>
-      <c r="K19" s="62"/>
+      <c r="K19" s="113"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -10159,7 +10700,7 @@
         <f t="shared" si="1"/>
         <v>5254.7266845703125</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="113"/>
       <c r="G20" s="1">
         <v>7</v>
       </c>
@@ -10167,12 +10708,12 @@
         <f t="shared" si="3"/>
         <v>0.57870370370370383</v>
       </c>
-      <c r="I20" s="63"/>
+      <c r="I20" s="114"/>
       <c r="J20" s="7">
         <f t="shared" si="4"/>
         <v>4132.4852159999991</v>
       </c>
-      <c r="K20" s="62"/>
+      <c r="K20" s="113"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -10194,7 +10735,7 @@
         <f t="shared" si="5"/>
         <v>7882.0900268554687</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="113"/>
       <c r="G21" s="1">
         <v>7</v>
       </c>
@@ -10202,12 +10743,12 @@
         <f>H22/1.2</f>
         <v>0.69444444444444453</v>
       </c>
-      <c r="I21" s="63"/>
+      <c r="I21" s="114"/>
       <c r="J21" s="7">
         <f t="shared" si="4"/>
         <v>4958.9822591999991</v>
       </c>
-      <c r="K21" s="62"/>
+      <c r="K21" s="113"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -10229,7 +10770,7 @@
         <f t="shared" si="5"/>
         <v>11823.135040283203</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="113"/>
       <c r="G22" s="1">
         <v>8</v>
       </c>
@@ -10237,12 +10778,12 @@
         <f>H23/1.2</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="I22" s="63"/>
+      <c r="I22" s="114"/>
       <c r="J22" s="7">
         <f t="shared" si="4"/>
         <v>5950.7787110399986</v>
       </c>
-      <c r="K22" s="62"/>
+      <c r="K22" s="113"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -10264,19 +10805,19 @@
         <f t="shared" si="5"/>
         <v>17734.702560424805</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="113"/>
       <c r="G23" s="1">
         <v>8</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="63"/>
+      <c r="I23" s="114"/>
       <c r="J23" s="7">
         <f>J22*1.2</f>
         <v>7140.9344532479981</v>
       </c>
-      <c r="K23" s="62"/>
+      <c r="K23" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10306,24 +10847,24 @@
     <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
     <col min="4" max="6" width="11.42578125" style="1"/>
     <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="22.7109375" style="55" customWidth="1"/>
+    <col min="8" max="9" width="22.7109375" style="41" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="52"/>
+    <col min="11" max="16384" width="11.42578125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -10361,14 +10902,14 @@
       <c r="A3" s="19">
         <v>0</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -10387,7 +10928,7 @@
       <c r="E4" s="13">
         <v>200</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="122" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="13">
@@ -10396,7 +10937,7 @@
       <c r="H4" s="15">
         <v>7.2916666666666659E-3</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="118" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="12" t="s">
@@ -10423,7 +10964,7 @@
         <f>E4*1.5</f>
         <v>300</v>
       </c>
-      <c r="F5" s="80"/>
+      <c r="F5" s="123"/>
       <c r="G5" s="13">
         <v>2</v>
       </c>
@@ -10431,7 +10972,7 @@
         <f>H4*1.6</f>
         <v>1.1666666666666665E-2</v>
       </c>
-      <c r="I5" s="77"/>
+      <c r="I5" s="119"/>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -10454,15 +10995,15 @@
         <f t="shared" ref="E6:E23" si="3">E5*1.5</f>
         <v>450</v>
       </c>
-      <c r="F6" s="80"/>
+      <c r="F6" s="123"/>
       <c r="G6" s="13">
         <v>3</v>
       </c>
       <c r="H6" s="15">
-        <f t="shared" ref="H6:H20" si="4">H5*1.6</f>
+        <f t="shared" ref="H6:H11" si="4">H5*1.6</f>
         <v>1.8666666666666665E-2</v>
       </c>
-      <c r="I6" s="77"/>
+      <c r="I6" s="119"/>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -10485,7 +11026,7 @@
         <f t="shared" si="3"/>
         <v>675</v>
       </c>
-      <c r="F7" s="80"/>
+      <c r="F7" s="123"/>
       <c r="G7" s="13">
         <v>3</v>
       </c>
@@ -10493,7 +11034,7 @@
         <f t="shared" si="4"/>
         <v>2.9866666666666666E-2</v>
       </c>
-      <c r="I7" s="77"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -10516,7 +11057,7 @@
         <f t="shared" si="3"/>
         <v>1012.5</v>
       </c>
-      <c r="F8" s="80"/>
+      <c r="F8" s="123"/>
       <c r="G8" s="13">
         <v>4</v>
       </c>
@@ -10524,7 +11065,7 @@
         <f t="shared" si="4"/>
         <v>4.7786666666666672E-2</v>
       </c>
-      <c r="I8" s="77"/>
+      <c r="I8" s="119"/>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -10547,7 +11088,7 @@
         <f t="shared" si="3"/>
         <v>1518.75</v>
       </c>
-      <c r="F9" s="80"/>
+      <c r="F9" s="123"/>
       <c r="G9" s="13">
         <v>4</v>
       </c>
@@ -10555,7 +11096,7 @@
         <f t="shared" si="4"/>
         <v>7.6458666666666675E-2</v>
       </c>
-      <c r="I9" s="77"/>
+      <c r="I9" s="119"/>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -10578,7 +11119,7 @@
         <f t="shared" si="3"/>
         <v>2278.125</v>
       </c>
-      <c r="F10" s="80"/>
+      <c r="F10" s="123"/>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -10586,7 +11127,7 @@
         <f t="shared" si="4"/>
         <v>0.12233386666666668</v>
       </c>
-      <c r="I10" s="77"/>
+      <c r="I10" s="119"/>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -10609,7 +11150,7 @@
         <f t="shared" si="3"/>
         <v>3417.1875</v>
       </c>
-      <c r="F11" s="80"/>
+      <c r="F11" s="123"/>
       <c r="G11" s="13">
         <v>5</v>
       </c>
@@ -10617,7 +11158,7 @@
         <f t="shared" si="4"/>
         <v>0.1957341866666667</v>
       </c>
-      <c r="I11" s="96"/>
+      <c r="I11" s="120"/>
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -10640,7 +11181,7 @@
         <f t="shared" si="3"/>
         <v>5125.78125</v>
       </c>
-      <c r="F12" s="80"/>
+      <c r="F12" s="123"/>
       <c r="G12" s="13">
         <v>6</v>
       </c>
@@ -10648,7 +11189,7 @@
         <f>H11*1.2</f>
         <v>0.23488102400000002</v>
       </c>
-      <c r="I12" s="76" t="s">
+      <c r="I12" s="118" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="12"/>
@@ -10673,7 +11214,7 @@
         <f t="shared" si="3"/>
         <v>7688.671875</v>
       </c>
-      <c r="F13" s="80"/>
+      <c r="F13" s="123"/>
       <c r="G13" s="13">
         <v>6</v>
       </c>
@@ -10681,7 +11222,7 @@
         <f t="shared" ref="H13:H23" si="5">H12*1.2</f>
         <v>0.28185722880000003</v>
       </c>
-      <c r="I13" s="77"/>
+      <c r="I13" s="119"/>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -10704,7 +11245,7 @@
         <f t="shared" si="3"/>
         <v>11533.0078125</v>
       </c>
-      <c r="F14" s="80"/>
+      <c r="F14" s="123"/>
       <c r="G14" s="13">
         <v>7</v>
       </c>
@@ -10712,7 +11253,7 @@
         <f t="shared" si="5"/>
         <v>0.33822867456</v>
       </c>
-      <c r="I14" s="77"/>
+      <c r="I14" s="119"/>
       <c r="J14" s="12" t="s">
         <v>20</v>
       </c>
@@ -10737,7 +11278,7 @@
         <f t="shared" si="3"/>
         <v>17299.51171875</v>
       </c>
-      <c r="F15" s="80"/>
+      <c r="F15" s="123"/>
       <c r="G15" s="13">
         <v>7</v>
       </c>
@@ -10745,7 +11286,7 @@
         <f t="shared" si="5"/>
         <v>0.40587440947199999</v>
       </c>
-      <c r="I15" s="77"/>
+      <c r="I15" s="119"/>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -10768,7 +11309,7 @@
         <f t="shared" si="3"/>
         <v>25949.267578125</v>
       </c>
-      <c r="F16" s="80"/>
+      <c r="F16" s="123"/>
       <c r="G16" s="13">
         <v>8</v>
       </c>
@@ -10776,7 +11317,7 @@
         <f t="shared" si="5"/>
         <v>0.48704929136639996</v>
       </c>
-      <c r="I16" s="77"/>
+      <c r="I16" s="119"/>
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -10799,7 +11340,7 @@
         <f t="shared" si="3"/>
         <v>38923.9013671875</v>
       </c>
-      <c r="F17" s="80"/>
+      <c r="F17" s="123"/>
       <c r="G17" s="13">
         <v>8</v>
       </c>
@@ -10807,7 +11348,7 @@
         <f t="shared" si="5"/>
         <v>0.58445914963967993</v>
       </c>
-      <c r="I17" s="77"/>
+      <c r="I17" s="119"/>
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -10830,7 +11371,7 @@
         <f t="shared" si="3"/>
         <v>58385.85205078125</v>
       </c>
-      <c r="F18" s="80"/>
+      <c r="F18" s="123"/>
       <c r="G18" s="13">
         <v>9</v>
       </c>
@@ -10838,7 +11379,7 @@
         <f t="shared" si="5"/>
         <v>0.70135097956761594</v>
       </c>
-      <c r="I18" s="77"/>
+      <c r="I18" s="119"/>
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -10861,7 +11402,7 @@
         <f t="shared" si="3"/>
         <v>87578.778076171875</v>
       </c>
-      <c r="F19" s="80"/>
+      <c r="F19" s="123"/>
       <c r="G19" s="13">
         <v>9</v>
       </c>
@@ -10869,7 +11410,7 @@
         <f t="shared" si="5"/>
         <v>0.84162117548113913</v>
       </c>
-      <c r="I19" s="77"/>
+      <c r="I19" s="119"/>
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -10892,7 +11433,7 @@
         <f t="shared" si="3"/>
         <v>131368.16711425781</v>
       </c>
-      <c r="F20" s="80"/>
+      <c r="F20" s="123"/>
       <c r="G20" s="13">
         <v>10</v>
       </c>
@@ -10900,7 +11441,7 @@
         <f t="shared" si="5"/>
         <v>1.0099454105773669</v>
       </c>
-      <c r="I20" s="77"/>
+      <c r="I20" s="119"/>
       <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -10923,7 +11464,7 @@
         <f t="shared" si="3"/>
         <v>197052.25067138672</v>
       </c>
-      <c r="F21" s="80"/>
+      <c r="F21" s="123"/>
       <c r="G21" s="13">
         <v>10</v>
       </c>
@@ -10931,7 +11472,7 @@
         <f t="shared" si="5"/>
         <v>1.2119344926928401</v>
       </c>
-      <c r="I21" s="77"/>
+      <c r="I21" s="119"/>
       <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -10954,7 +11495,7 @@
         <f t="shared" si="3"/>
         <v>295578.37600708008</v>
       </c>
-      <c r="F22" s="80"/>
+      <c r="F22" s="123"/>
       <c r="G22" s="13">
         <v>11</v>
       </c>
@@ -10962,7 +11503,7 @@
         <f t="shared" si="5"/>
         <v>1.4543213912314081</v>
       </c>
-      <c r="I22" s="77"/>
+      <c r="I22" s="119"/>
       <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -10985,7 +11526,7 @@
         <f t="shared" si="3"/>
         <v>443367.56401062012</v>
       </c>
-      <c r="F23" s="81"/>
+      <c r="F23" s="124"/>
       <c r="G23" s="21">
         <v>15</v>
       </c>
@@ -10993,7 +11534,7 @@
         <f t="shared" si="5"/>
         <v>1.7451856694776897</v>
       </c>
-      <c r="I23" s="78"/>
+      <c r="I23" s="121"/>
       <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -11046,25 +11587,25 @@
     <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
     <col min="4" max="6" width="11.42578125" style="1"/>
     <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="22.7109375" style="55" customWidth="1"/>
+    <col min="8" max="9" width="22.7109375" style="41" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="52"/>
+    <col min="11" max="16384" width="11.42578125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="125"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -11105,16 +11646,16 @@
       <c r="A3" s="19">
         <v>0</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="127" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11134,7 +11675,7 @@
       <c r="E4" s="13">
         <v>50</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="130" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="13">
@@ -11143,13 +11684,13 @@
       <c r="H4" s="15">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="132" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="70"/>
+      <c r="K4" s="128"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -11171,7 +11712,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="13">
         <v>2</v>
       </c>
@@ -11179,9 +11720,9 @@
         <f>H4*1.6</f>
         <v>9.4444444444444445E-3</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="132"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="70"/>
+      <c r="K5" s="128"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -11203,7 +11744,7 @@
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="130"/>
       <c r="G6" s="13">
         <v>3</v>
       </c>
@@ -11211,9 +11752,9 @@
         <f t="shared" ref="H6:H11" si="1">H5*1.6</f>
         <v>1.5111111111111112E-2</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="70"/>
+      <c r="K6" s="128"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -11235,7 +11776,7 @@
         <f t="shared" si="0"/>
         <v>168.75</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="13">
         <v>3</v>
       </c>
@@ -11243,9 +11784,9 @@
         <f t="shared" si="1"/>
         <v>2.4177777777777781E-2</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="70"/>
+      <c r="K7" s="128"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -11267,7 +11808,7 @@
         <f t="shared" si="0"/>
         <v>253.125</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="130"/>
       <c r="G8" s="13">
         <v>4</v>
       </c>
@@ -11275,11 +11816,11 @@
         <f t="shared" si="1"/>
         <v>3.8684444444444452E-2</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="132"/>
       <c r="J8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="70"/>
+      <c r="K8" s="128"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -11301,7 +11842,7 @@
         <f t="shared" si="0"/>
         <v>379.6875</v>
       </c>
-      <c r="F9" s="72"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="13">
         <v>4</v>
       </c>
@@ -11309,9 +11850,9 @@
         <f t="shared" si="1"/>
         <v>6.1895111111111123E-2</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="70"/>
+      <c r="K9" s="128"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -11333,7 +11874,7 @@
         <f t="shared" si="0"/>
         <v>569.53125</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="130"/>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -11341,9 +11882,9 @@
         <f t="shared" si="1"/>
         <v>9.90321777777778E-2</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="70"/>
+      <c r="K10" s="128"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -11365,7 +11906,7 @@
         <f t="shared" si="0"/>
         <v>854.296875</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="130"/>
       <c r="G11" s="13">
         <v>5</v>
       </c>
@@ -11373,9 +11914,9 @@
         <f t="shared" si="1"/>
         <v>0.15845148444444448</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="70"/>
+      <c r="K11" s="128"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -11397,7 +11938,7 @@
         <f t="shared" si="0"/>
         <v>1281.4453125</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="130"/>
       <c r="G12" s="13">
         <v>6</v>
       </c>
@@ -11405,11 +11946,11 @@
         <f>H11*1.2</f>
         <v>0.19014178133333337</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="132" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="12"/>
-      <c r="K12" s="70"/>
+      <c r="K12" s="128"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -11431,7 +11972,7 @@
         <f t="shared" si="0"/>
         <v>1922.16796875</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="130"/>
       <c r="G13" s="13">
         <v>6</v>
       </c>
@@ -11439,9 +11980,9 @@
         <f t="shared" ref="H13:H23" si="2">H12*1.2</f>
         <v>0.22817013760000004</v>
       </c>
-      <c r="I13" s="74"/>
+      <c r="I13" s="132"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="128"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -11463,7 +12004,7 @@
         <f t="shared" si="0"/>
         <v>2883.251953125</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="130"/>
       <c r="G14" s="13">
         <v>7</v>
       </c>
@@ -11471,9 +12012,9 @@
         <f t="shared" si="2"/>
         <v>0.27380416512000005</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="70"/>
+      <c r="K14" s="128"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -11495,7 +12036,7 @@
         <f t="shared" si="0"/>
         <v>4324.8779296875</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="130"/>
       <c r="G15" s="13">
         <v>7</v>
       </c>
@@ -11503,11 +12044,11 @@
         <f t="shared" si="2"/>
         <v>0.32856499814400003</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="132"/>
       <c r="J15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="70"/>
+      <c r="K15" s="128"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -11529,7 +12070,7 @@
         <f t="shared" si="0"/>
         <v>6487.31689453125</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="130"/>
       <c r="G16" s="13">
         <v>8</v>
       </c>
@@ -11537,9 +12078,9 @@
         <f t="shared" si="2"/>
         <v>0.39427799777280004</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="132"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="70"/>
+      <c r="K16" s="128"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -11561,7 +12102,7 @@
         <f t="shared" si="0"/>
         <v>9730.975341796875</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="130"/>
       <c r="G17" s="13">
         <v>8</v>
       </c>
@@ -11569,9 +12110,9 @@
         <f t="shared" si="2"/>
         <v>0.47313359732736004</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="70"/>
+      <c r="K17" s="128"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -11593,7 +12134,7 @@
         <f t="shared" si="0"/>
         <v>14596.463012695313</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="13">
         <v>9</v>
       </c>
@@ -11601,9 +12142,9 @@
         <f t="shared" si="2"/>
         <v>0.56776031679283201</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="132"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="70"/>
+      <c r="K18" s="128"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -11625,7 +12166,7 @@
         <f t="shared" si="0"/>
         <v>21894.694519042969</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="130"/>
       <c r="G19" s="13">
         <v>9</v>
       </c>
@@ -11633,9 +12174,9 @@
         <f t="shared" si="2"/>
         <v>0.68131238015139839</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="132"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="70"/>
+      <c r="K19" s="128"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -11657,7 +12198,7 @@
         <f t="shared" si="0"/>
         <v>32842.041778564453</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="130"/>
       <c r="G20" s="13">
         <v>10</v>
       </c>
@@ -11665,11 +12206,11 @@
         <f t="shared" si="2"/>
         <v>0.81757485618167802</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="132"/>
       <c r="J20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="70"/>
+      <c r="K20" s="128"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -11691,7 +12232,7 @@
         <f t="shared" si="3"/>
         <v>49263.06266784668</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="130"/>
       <c r="G21" s="13">
         <v>10</v>
       </c>
@@ -11699,9 +12240,9 @@
         <f t="shared" si="2"/>
         <v>0.98108982741801354</v>
       </c>
-      <c r="I21" s="74"/>
+      <c r="I21" s="132"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="70"/>
+      <c r="K21" s="128"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -11723,7 +12264,7 @@
         <f t="shared" si="3"/>
         <v>73894.59400177002</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="130"/>
       <c r="G22" s="13">
         <v>11</v>
       </c>
@@ -11731,9 +12272,9 @@
         <f t="shared" si="2"/>
         <v>1.1773077929016162</v>
       </c>
-      <c r="I22" s="74"/>
+      <c r="I22" s="132"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="70"/>
+      <c r="K22" s="128"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
@@ -11755,7 +12296,7 @@
         <f t="shared" si="3"/>
         <v>110841.89100265503</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="131"/>
       <c r="G23" s="21">
         <v>15</v>
       </c>
@@ -11763,9 +12304,9 @@
         <f t="shared" si="2"/>
         <v>1.4127693514819395</v>
       </c>
-      <c r="I23" s="75"/>
+      <c r="I23" s="133"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="71"/>
+      <c r="K23" s="129"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G24" s="1">
@@ -11817,19 +12358,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="125"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -11870,16 +12411,16 @@
       <c r="A3" s="19">
         <v>0</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="127" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11899,7 +12440,7 @@
       <c r="E4" s="13">
         <v>50</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="130" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="13">
@@ -11908,13 +12449,13 @@
       <c r="H4" s="15">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="132" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="70"/>
+      <c r="K4" s="128"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -11936,7 +12477,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="13">
         <v>2</v>
       </c>
@@ -11944,9 +12485,9 @@
         <f>H4*1.6</f>
         <v>9.4444444444444445E-3</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="132"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="70"/>
+      <c r="K5" s="128"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -11968,7 +12509,7 @@
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="130"/>
       <c r="G6" s="13">
         <v>3</v>
       </c>
@@ -11976,9 +12517,9 @@
         <f t="shared" ref="H6:H11" si="1">H5*1.6</f>
         <v>1.5111111111111112E-2</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="70"/>
+      <c r="K6" s="128"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -12000,7 +12541,7 @@
         <f t="shared" si="0"/>
         <v>168.75</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="13">
         <v>3</v>
       </c>
@@ -12008,9 +12549,9 @@
         <f t="shared" si="1"/>
         <v>2.4177777777777781E-2</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="70"/>
+      <c r="K7" s="128"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -12032,7 +12573,7 @@
         <f t="shared" si="0"/>
         <v>253.125</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="130"/>
       <c r="G8" s="13">
         <v>4</v>
       </c>
@@ -12040,11 +12581,11 @@
         <f t="shared" si="1"/>
         <v>3.8684444444444452E-2</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="132"/>
       <c r="J8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="70"/>
+      <c r="K8" s="128"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -12066,7 +12607,7 @@
         <f t="shared" si="0"/>
         <v>379.6875</v>
       </c>
-      <c r="F9" s="72"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="13">
         <v>4</v>
       </c>
@@ -12074,9 +12615,9 @@
         <f t="shared" si="1"/>
         <v>6.1895111111111123E-2</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="70"/>
+      <c r="K9" s="128"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -12098,7 +12639,7 @@
         <f t="shared" si="0"/>
         <v>569.53125</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="130"/>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -12106,9 +12647,9 @@
         <f t="shared" si="1"/>
         <v>9.90321777777778E-2</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="70"/>
+      <c r="K10" s="128"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -12130,7 +12671,7 @@
         <f t="shared" si="0"/>
         <v>854.296875</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="130"/>
       <c r="G11" s="13">
         <v>5</v>
       </c>
@@ -12138,9 +12679,9 @@
         <f t="shared" si="1"/>
         <v>0.15845148444444448</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="70"/>
+      <c r="K11" s="128"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -12162,7 +12703,7 @@
         <f t="shared" si="0"/>
         <v>1281.4453125</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="130"/>
       <c r="G12" s="13">
         <v>6</v>
       </c>
@@ -12170,11 +12711,11 @@
         <f>H11*1.2</f>
         <v>0.19014178133333337</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="132" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="12"/>
-      <c r="K12" s="70"/>
+      <c r="K12" s="128"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -12196,7 +12737,7 @@
         <f t="shared" si="0"/>
         <v>1922.16796875</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="130"/>
       <c r="G13" s="13">
         <v>6</v>
       </c>
@@ -12204,9 +12745,9 @@
         <f t="shared" ref="H13:H23" si="2">H12*1.2</f>
         <v>0.22817013760000004</v>
       </c>
-      <c r="I13" s="74"/>
+      <c r="I13" s="132"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="128"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -12228,7 +12769,7 @@
         <f t="shared" si="0"/>
         <v>2883.251953125</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="130"/>
       <c r="G14" s="13">
         <v>7</v>
       </c>
@@ -12236,9 +12777,9 @@
         <f t="shared" si="2"/>
         <v>0.27380416512000005</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="70"/>
+      <c r="K14" s="128"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -12260,7 +12801,7 @@
         <f t="shared" si="0"/>
         <v>4324.8779296875</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="130"/>
       <c r="G15" s="13">
         <v>7</v>
       </c>
@@ -12268,11 +12809,11 @@
         <f t="shared" si="2"/>
         <v>0.32856499814400003</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="132"/>
       <c r="J15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="70"/>
+      <c r="K15" s="128"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -12294,7 +12835,7 @@
         <f t="shared" si="0"/>
         <v>6487.31689453125</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="130"/>
       <c r="G16" s="13">
         <v>8</v>
       </c>
@@ -12302,9 +12843,9 @@
         <f t="shared" si="2"/>
         <v>0.39427799777280004</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="132"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="70"/>
+      <c r="K16" s="128"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -12326,7 +12867,7 @@
         <f t="shared" si="0"/>
         <v>9730.975341796875</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="130"/>
       <c r="G17" s="13">
         <v>8</v>
       </c>
@@ -12334,9 +12875,9 @@
         <f t="shared" si="2"/>
         <v>0.47313359732736004</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="70"/>
+      <c r="K17" s="128"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -12358,7 +12899,7 @@
         <f t="shared" si="0"/>
         <v>14596.463012695313</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="13">
         <v>9</v>
       </c>
@@ -12366,9 +12907,9 @@
         <f t="shared" si="2"/>
         <v>0.56776031679283201</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="132"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="70"/>
+      <c r="K18" s="128"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -12390,7 +12931,7 @@
         <f t="shared" si="0"/>
         <v>21894.694519042969</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="130"/>
       <c r="G19" s="13">
         <v>9</v>
       </c>
@@ -12398,9 +12939,9 @@
         <f t="shared" si="2"/>
         <v>0.68131238015139839</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="132"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="70"/>
+      <c r="K19" s="128"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -12422,7 +12963,7 @@
         <f t="shared" si="0"/>
         <v>32842.041778564453</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="130"/>
       <c r="G20" s="13">
         <v>10</v>
       </c>
@@ -12430,11 +12971,11 @@
         <f t="shared" si="2"/>
         <v>0.81757485618167802</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="132"/>
       <c r="J20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="70"/>
+      <c r="K20" s="128"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -12456,7 +12997,7 @@
         <f t="shared" si="3"/>
         <v>49263.06266784668</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="130"/>
       <c r="G21" s="13">
         <v>10</v>
       </c>
@@ -12464,9 +13005,9 @@
         <f t="shared" si="2"/>
         <v>0.98108982741801354</v>
       </c>
-      <c r="I21" s="74"/>
+      <c r="I21" s="132"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="70"/>
+      <c r="K21" s="128"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -12488,7 +13029,7 @@
         <f t="shared" si="3"/>
         <v>73894.59400177002</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="130"/>
       <c r="G22" s="13">
         <v>11</v>
       </c>
@@ -12496,9 +13037,9 @@
         <f t="shared" si="2"/>
         <v>1.1773077929016162</v>
       </c>
-      <c r="I22" s="74"/>
+      <c r="I22" s="132"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="70"/>
+      <c r="K22" s="128"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
@@ -12520,7 +13061,7 @@
         <f t="shared" si="3"/>
         <v>110841.89100265503</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="131"/>
       <c r="G23" s="21">
         <v>15</v>
       </c>
@@ -12528,9 +13069,9 @@
         <f t="shared" si="2"/>
         <v>1.4127693514819395</v>
       </c>
-      <c r="I23" s="75"/>
+      <c r="I23" s="133"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="71"/>
+      <c r="K23" s="129"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -12543,10 +13084,10 @@
         <f>SUM(G4:G23)</f>
         <v>134</v>
       </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="52"/>
+      <c r="K24" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12563,499 +13104,745 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="7" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="24"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="N1" s="100"/>
+      <c r="O1" s="101"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="26">
         <v>5</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="26">
         <v>5</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="26">
         <v>5</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="26">
         <v>5</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="26">
         <v>9</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="26">
         <v>0</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="26">
         <v>50</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="26">
         <v>50</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="26">
         <v>50</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="26">
         <v>100</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="33">
+      <c r="M3" s="26"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="65">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="27">
         <v>20</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="27">
         <v>10</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="27">
         <v>15</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="27">
         <v>5</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="30">
         <v>7</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="30">
         <v>60</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="32">
         <v>45</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="32">
         <v>20</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="32">
         <v>30</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="32">
         <v>120</v>
       </c>
-      <c r="M4" s="44"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="36">
+      <c r="M4" s="32"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="59">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="27">
         <v>10</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="27">
         <v>20</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="27">
         <v>10</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="27">
         <v>40</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="30">
         <v>6</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="30">
         <v>30</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="32">
         <v>75</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="32">
         <v>50</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="32">
         <v>50</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L5" s="32">
         <v>135</v>
       </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="36">
+      <c r="M5" s="32"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="59">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="T5" s="134" t="s">
+        <v>106</v>
+      </c>
+      <c r="U5" s="135"/>
+      <c r="V5" s="136"/>
+      <c r="X5" s="137" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y5" s="138"/>
+      <c r="Z5" s="138"/>
+      <c r="AA5" s="138"/>
+      <c r="AB5" s="139"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="27">
         <v>25</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="27">
         <v>20</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="27">
         <v>20</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="27">
         <v>10</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="30">
         <v>6</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="30">
         <v>70</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="32">
         <v>70</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="32">
         <v>115</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="32">
         <v>90</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="32">
         <v>150</v>
       </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="36">
+      <c r="M6" s="32"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="59">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="T6" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="U6" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="V6" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="X6" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y6" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z6" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA6" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB6" s="78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="28">
         <v>35</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="28">
         <v>25</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="28">
         <v>30</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="28">
         <v>15</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="28">
         <v>5</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="28">
         <v>45</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="34">
         <v>150</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="34">
         <v>135</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="34">
         <v>110</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="34">
         <v>200</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="39">
+      <c r="M7" s="34"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="66">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="24"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="T7" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="68">
+        <v>10</v>
+      </c>
+      <c r="V7" s="70">
+        <f>U7*B3</f>
+        <v>50</v>
+      </c>
+      <c r="X7" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y7" s="68">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="68">
+        <f>Y7*C3</f>
+        <v>50</v>
+      </c>
+      <c r="AA7" s="68">
+        <f>Y7*D3</f>
+        <v>50</v>
+      </c>
+      <c r="AB7" s="70">
+        <f>Y7*E3</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="58"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="59"/>
+      <c r="T8" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" s="68">
+        <v>10</v>
+      </c>
+      <c r="V8" s="70">
+        <f>U8*B4</f>
+        <v>200</v>
+      </c>
+      <c r="X8" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y8" s="68">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="68">
+        <f>Y8*C4</f>
+        <v>100</v>
+      </c>
+      <c r="AA8" s="68">
+        <f>Y8*D4</f>
+        <v>150</v>
+      </c>
+      <c r="AB8" s="70">
+        <f>Y8*E4</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="29">
         <v>8</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="29">
+        <v>30</v>
+      </c>
+      <c r="D9" s="29">
+        <v>10</v>
+      </c>
+      <c r="E9" s="29">
         <v>25</v>
       </c>
-      <c r="D9" s="41">
+      <c r="F9" s="29">
+        <v>7</v>
+      </c>
+      <c r="G9" s="29">
+        <v>50</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="36">
+        <v>70</v>
+      </c>
+      <c r="J9" s="36">
+        <v>40</v>
+      </c>
+      <c r="K9" s="36">
+        <v>40</v>
+      </c>
+      <c r="L9" s="36">
+        <v>120</v>
+      </c>
+      <c r="M9" s="36"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="65">
+        <v>63</v>
+      </c>
+      <c r="T9" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="68">
         <v>10</v>
       </c>
-      <c r="E9" s="41">
+      <c r="V9" s="70">
+        <f>U9*B5</f>
+        <v>100</v>
+      </c>
+      <c r="X9" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y9" s="68">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="68">
+        <f>Y9*C5</f>
+        <v>200</v>
+      </c>
+      <c r="AA9" s="68">
+        <f>Y9*D5</f>
+        <v>100</v>
+      </c>
+      <c r="AB9" s="70">
+        <f>Y9*E5</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="28">
+        <v>30</v>
+      </c>
+      <c r="C10" s="28">
+        <v>40</v>
+      </c>
+      <c r="D10" s="28">
         <v>20</v>
       </c>
-      <c r="F9" s="41">
-        <v>7</v>
-      </c>
-      <c r="G9" s="41">
+      <c r="E10" s="28">
+        <v>10</v>
+      </c>
+      <c r="F10" s="28">
+        <v>6</v>
+      </c>
+      <c r="G10" s="28">
+        <v>40</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="34">
+        <v>140</v>
+      </c>
+      <c r="J10" s="34">
+        <v>150</v>
+      </c>
+      <c r="K10" s="34">
+        <v>90</v>
+      </c>
+      <c r="L10" s="34">
+        <v>175</v>
+      </c>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="66">
+        <v>97</v>
+      </c>
+      <c r="T10" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" s="68">
+        <v>10</v>
+      </c>
+      <c r="V10" s="70">
+        <f>U10*B6</f>
+        <v>250</v>
+      </c>
+      <c r="X10" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y10" s="68">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="68">
+        <f>Y10*C6</f>
+        <v>200</v>
+      </c>
+      <c r="AA10" s="68">
+        <f>Y10*D6</f>
+        <v>200</v>
+      </c>
+      <c r="AB10" s="70">
+        <f>Y10*E6</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="59"/>
+      <c r="T11" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="U11" s="68">
+        <v>10</v>
+      </c>
+      <c r="V11" s="70">
+        <f>U11*B7</f>
+        <v>350</v>
+      </c>
+      <c r="X11" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y11" s="68">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="68">
+        <f>Y11*C7</f>
+        <v>250</v>
+      </c>
+      <c r="AA11" s="68">
+        <f>Y11*D7</f>
+        <v>300</v>
+      </c>
+      <c r="AB11" s="70">
+        <f>Y11*E7</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="29">
+        <v>30</v>
+      </c>
+      <c r="C12" s="29">
+        <v>30</v>
+      </c>
+      <c r="D12" s="29">
+        <v>10</v>
+      </c>
+      <c r="E12" s="29">
+        <v>15</v>
+      </c>
+      <c r="F12" s="29">
+        <v>25</v>
+      </c>
+      <c r="G12" s="29">
+        <v>175</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="36">
+        <v>200</v>
+      </c>
+      <c r="J12" s="36">
+        <v>180</v>
+      </c>
+      <c r="K12" s="36">
+        <v>170</v>
+      </c>
+      <c r="L12" s="36">
+        <v>300</v>
+      </c>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="65">
+        <v>85</v>
+      </c>
+      <c r="T12" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="U12" s="80">
+        <f>SUM(U7:U11)</f>
         <v>50</v>
       </c>
-      <c r="H9" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="50">
-        <v>70</v>
-      </c>
-      <c r="J9" s="50">
-        <v>40</v>
-      </c>
-      <c r="K9" s="50">
-        <v>40</v>
-      </c>
-      <c r="L9" s="50">
+      <c r="V12" s="81">
+        <f>SUM(V7:V11)</f>
+        <v>950</v>
+      </c>
+      <c r="X12" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y12" s="80">
+        <f>SUM(Y7:Y11)</f>
+        <v>50</v>
+      </c>
+      <c r="Z12" s="80">
+        <f t="shared" ref="Z12:AB12" si="0">SUM(Z7:Z11)</f>
+        <v>800</v>
+      </c>
+      <c r="AA12" s="80">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="AB12" s="84">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="67">
+        <v>50</v>
+      </c>
+      <c r="C13" s="67">
+        <v>35</v>
+      </c>
+      <c r="D13" s="67">
+        <v>15</v>
+      </c>
+      <c r="E13" s="67">
+        <v>20</v>
+      </c>
+      <c r="F13" s="67">
+        <v>20</v>
+      </c>
+      <c r="G13" s="67">
+        <v>150</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="106">
+        <v>245</v>
+      </c>
+      <c r="J13" s="106">
+        <v>250</v>
+      </c>
+      <c r="K13" s="106">
+        <v>220</v>
+      </c>
+      <c r="L13" s="106">
+        <v>320</v>
+      </c>
+      <c r="M13" s="106"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="64">
         <v>120</v>
       </c>
-      <c r="M9" s="50"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="33">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="38">
-        <v>30</v>
-      </c>
-      <c r="C10" s="38">
-        <v>20</v>
-      </c>
-      <c r="D10" s="38">
-        <v>15</v>
-      </c>
-      <c r="E10" s="38">
-        <v>32</v>
-      </c>
-      <c r="F10" s="38">
-        <v>6</v>
-      </c>
-      <c r="G10" s="38">
-        <v>40</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="46">
-        <v>140</v>
-      </c>
-      <c r="J10" s="46">
-        <v>150</v>
-      </c>
-      <c r="K10" s="46">
-        <v>90</v>
-      </c>
-      <c r="L10" s="46">
-        <v>175</v>
-      </c>
-      <c r="M10" s="46"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="39">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="24"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="41">
-        <v>30</v>
-      </c>
-      <c r="C12" s="41">
-        <v>30</v>
-      </c>
-      <c r="D12" s="41">
+      <c r="T13" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="U13" s="68">
         <v>10</v>
       </c>
-      <c r="E12" s="41">
-        <v>15</v>
-      </c>
-      <c r="F12" s="41">
-        <v>25</v>
-      </c>
-      <c r="G12" s="41">
-        <v>175</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="50">
-        <v>200</v>
-      </c>
-      <c r="J12" s="50">
-        <v>180</v>
-      </c>
-      <c r="K12" s="50">
-        <v>170</v>
-      </c>
-      <c r="L12" s="50">
+      <c r="V13" s="70">
+        <f>U13*B9</f>
+        <v>80</v>
+      </c>
+      <c r="X13" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y13" s="68">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="68">
+        <f>Y13*C9</f>
         <v>300</v>
       </c>
-      <c r="M12" s="50"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="33">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="38">
-        <v>50</v>
-      </c>
-      <c r="C13" s="38">
-        <v>35</v>
-      </c>
-      <c r="D13" s="38">
-        <v>15</v>
-      </c>
-      <c r="E13" s="38">
-        <v>20</v>
-      </c>
-      <c r="F13" s="38">
-        <v>20</v>
-      </c>
-      <c r="G13" s="38">
-        <v>150</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="46">
-        <v>245</v>
-      </c>
-      <c r="J13" s="46">
+      <c r="AA13" s="68">
+        <f>Y13*D9</f>
+        <v>100</v>
+      </c>
+      <c r="AB13" s="70">
+        <f>Y13*E9</f>
         <v>250</v>
       </c>
-      <c r="K13" s="46">
-        <v>220</v>
-      </c>
-      <c r="L13" s="46">
-        <v>320</v>
-      </c>
-      <c r="M13" s="46"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="39">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -13069,10 +13856,38 @@
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
-      <c r="N14" s="27"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="24"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T14" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="U14" s="68">
+        <v>10</v>
+      </c>
+      <c r="V14" s="70">
+        <f>U14*B10</f>
+        <v>300</v>
+      </c>
+      <c r="X14" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14" s="68">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="68">
+        <f>Y14*C10</f>
+        <v>400</v>
+      </c>
+      <c r="AA14" s="68">
+        <f>Y14*D10</f>
+        <v>200</v>
+      </c>
+      <c r="AB14" s="70">
+        <f>Y14*E10</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -13086,17 +13901,47 @@
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
-      <c r="N15" s="27"/>
+      <c r="N15" s="25"/>
       <c r="O15" s="24"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T15" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="U15" s="80">
+        <f>SUM(U13:U14)</f>
+        <v>20</v>
+      </c>
+      <c r="V15" s="81">
+        <f>SUM(V13:V14)</f>
+        <v>380</v>
+      </c>
+      <c r="X15" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y15" s="80">
+        <f>SUM(Y13:Y14)</f>
+        <v>20</v>
+      </c>
+      <c r="Z15" s="80">
+        <f t="shared" ref="Z15:AB15" si="1">SUM(Z13:Z14)</f>
+        <v>700</v>
+      </c>
+      <c r="AA15" s="80">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="AB15" s="84">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="27"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
@@ -13104,8 +13949,36 @@
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T16" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="U16" s="68">
+        <v>10</v>
+      </c>
+      <c r="V16" s="70">
+        <f>U16*B12</f>
+        <v>300</v>
+      </c>
+      <c r="X16" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y16" s="68">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="68">
+        <f>Y16*C12</f>
+        <v>300</v>
+      </c>
+      <c r="AA16" s="68">
+        <f>Y16*D12</f>
+        <v>100</v>
+      </c>
+      <c r="AB16" s="70">
+        <f>Y16*E12</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -13119,9 +13992,37 @@
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
-      <c r="N17" s="27"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="25"/>
+      <c r="T17" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="U17" s="68">
+        <v>10</v>
+      </c>
+      <c r="V17" s="70">
+        <f>U17*B13</f>
+        <v>500</v>
+      </c>
+      <c r="X17" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y17" s="91">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="91">
+        <f>C13*Y17</f>
+        <v>350</v>
+      </c>
+      <c r="AA17" s="91">
+        <f>D13*Y17</f>
+        <v>150</v>
+      </c>
+      <c r="AB17" s="91">
+        <f>E13*Y17</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>45</v>
       </c>
@@ -13137,9 +14038,37 @@
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="27"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="25"/>
+      <c r="T18" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="U18" s="83">
+        <v>10</v>
+      </c>
+      <c r="V18" s="81">
+        <f>SUM(V16:V17)</f>
+        <v>800</v>
+      </c>
+      <c r="X18" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y18" s="88">
+        <v>10</v>
+      </c>
+      <c r="Z18" s="88">
+        <f t="shared" ref="Z18:AB18" si="2">SUM(Z16:Z17)</f>
+        <v>650</v>
+      </c>
+      <c r="AA18" s="88">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="AB18" s="90">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>46</v>
       </c>
@@ -13155,9 +14084,39 @@
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="27"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="25"/>
+      <c r="T19" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="U19" s="75">
+        <f>SUM(U12+U15+U18)</f>
+        <v>80</v>
+      </c>
+      <c r="V19" s="76">
+        <f>SUM(V12+V15+V18)</f>
+        <v>2130</v>
+      </c>
+      <c r="X19" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y19" s="85">
+        <f>SUM(Y12+Y15+Y18)</f>
+        <v>80</v>
+      </c>
+      <c r="Z19" s="85">
+        <f t="shared" ref="Z19:AA19" si="3">SUM(Z12+Z15+Z18)</f>
+        <v>2150</v>
+      </c>
+      <c r="AA19" s="85">
+        <f t="shared" si="3"/>
+        <v>1350</v>
+      </c>
+      <c r="AB19" s="86">
+        <f>SUM(AB12+AB15+AB18)</f>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -13171,9 +14130,10 @@
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
-      <c r="N20" s="27"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="25"/>
+      <c r="W20" s="38"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -13187,9 +14147,118 @@
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="27"/>
+      <c r="N21" s="25"/>
+      <c r="W21" s="38"/>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W22" s="38"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T23" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="U23" s="141"/>
+      <c r="V23" s="141"/>
+      <c r="W23" s="142"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T24" s="93"/>
+      <c r="U24" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="V24" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="W24" s="78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T25" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="U25" s="92">
+        <f>U12*(1/U19)</f>
+        <v>0.625</v>
+      </c>
+      <c r="V25" s="68">
+        <f>Z19</f>
+        <v>2150</v>
+      </c>
+      <c r="W25" s="94">
+        <f>U25*V25</f>
+        <v>1343.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T26" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="U26" s="92">
+        <f>U15*(1/U19)</f>
+        <v>0.25</v>
+      </c>
+      <c r="V26" s="68">
+        <f>AA19</f>
+        <v>1350</v>
+      </c>
+      <c r="W26" s="94">
+        <f t="shared" ref="W26:W27" si="4">U26*V26</f>
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T27" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="U27" s="92">
+        <f>U18*(1/U19)</f>
+        <v>0.125</v>
+      </c>
+      <c r="V27" s="68">
+        <f>AB19</f>
+        <v>1450</v>
+      </c>
+      <c r="W27" s="94">
+        <f t="shared" si="4"/>
+        <v>181.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T28" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="U28" s="95">
+        <f>V19</f>
+        <v>2130</v>
+      </c>
+      <c r="V28" s="109"/>
+      <c r="W28" s="96">
+        <f>SUM(W25:W27)</f>
+        <v>1862.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T29" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="U29" s="108"/>
+      <c r="V29" s="108"/>
+      <c r="W29" s="110">
+        <f>U28/W28</f>
+        <v>1.1436241610738256</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="T23:W23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="V12 V15 Z12:AB12 Z15:AB15" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>